--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L12" t="n">
         <v>360</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L13" t="n">
         <v>360.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L14" t="n">
         <v>360.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>360</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>18</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>360.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L17" t="n">
         <v>359.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>22</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L18" t="n">
         <v>359.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>24</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L19" t="n">
         <v>359.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>25</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-28.57142857142857</v>
+      </c>
       <c r="L20" t="n">
         <v>359.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>25</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>358.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>25</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-40</v>
+      </c>
       <c r="L22" t="n">
         <v>358.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>358.1</v>
@@ -1466,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>357.8</v>
@@ -1515,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>357.6</v>
@@ -1564,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="K26" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>357.1</v>
@@ -1613,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>357</v>
@@ -1662,7 +1684,7 @@
         <v>31</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>356.7</v>
@@ -1711,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L29" t="n">
         <v>356.8</v>
@@ -1760,7 +1782,7 @@
         <v>33</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L30" t="n">
         <v>357</v>
@@ -1809,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
         <v>357.2</v>
@@ -1860,7 +1882,7 @@
         <v>36</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>357.1</v>
@@ -1911,7 +1933,7 @@
         <v>38</v>
       </c>
       <c r="K33" t="n">
-        <v>-13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>357.3</v>
@@ -1962,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>357.6</v>
@@ -2013,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L35" t="n">
         <v>357.8</v>
@@ -2064,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>358.3</v>
@@ -2115,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L37" t="n">
         <v>358.7</v>
@@ -2166,7 +2188,7 @@
         <v>42</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>359</v>
@@ -2268,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="K40" t="n">
-        <v>26.31578947368421</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L40" t="n">
         <v>359.4</v>
@@ -2319,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>30</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L41" t="n">
         <v>359.8</v>
@@ -2370,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>30</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>360.5</v>
@@ -2421,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L43" t="n">
         <v>361</v>
@@ -2472,7 +2494,7 @@
         <v>46</v>
       </c>
       <c r="K44" t="n">
-        <v>40</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>361.5</v>
@@ -2523,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="K45" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>362</v>
@@ -2574,7 +2596,7 @@
         <v>48</v>
       </c>
       <c r="K46" t="n">
-        <v>36.84210526315789</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>362.2</v>
@@ -2625,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="K47" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>362.3</v>
@@ -2676,7 +2698,7 @@
         <v>49</v>
       </c>
       <c r="K48" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>362.4</v>
@@ -2727,7 +2749,7 @@
         <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>362.6</v>
@@ -2778,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L50" t="n">
         <v>362.4</v>
@@ -2829,7 +2851,7 @@
         <v>53</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="L51" t="n">
         <v>362.2</v>
@@ -2880,7 +2902,7 @@
         <v>54</v>
       </c>
       <c r="K52" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>361.9</v>
@@ -2931,7 +2953,7 @@
         <v>57</v>
       </c>
       <c r="K53" t="n">
-        <v>26.31578947368421</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L53" t="n">
         <v>361.9</v>
@@ -2982,7 +3004,7 @@
         <v>57</v>
       </c>
       <c r="K54" t="n">
-        <v>22.22222222222222</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L54" t="n">
         <v>361.8</v>
@@ -3033,7 +3055,7 @@
         <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L55" t="n">
         <v>361.4</v>
@@ -3084,7 +3106,7 @@
         <v>61</v>
       </c>
       <c r="K56" t="n">
-        <v>4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L56" t="n">
         <v>361.3</v>
@@ -3135,7 +3157,7 @@
         <v>62</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L57" t="n">
         <v>361.1</v>
@@ -3186,7 +3208,7 @@
         <v>63</v>
       </c>
       <c r="K58" t="n">
-        <v>4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L58" t="n">
         <v>361.1</v>
@@ -3288,7 +3310,7 @@
         <v>66</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L60" t="n">
         <v>361.1</v>
@@ -3339,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>361</v>
@@ -3390,7 +3412,7 @@
         <v>70</v>
       </c>
       <c r="K62" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L62" t="n">
         <v>361.2</v>
@@ -3441,7 +3463,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L63" t="n">
         <v>360.9</v>
@@ -3492,7 +3514,7 @@
         <v>74</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>360.8</v>
@@ -3543,7 +3565,7 @@
         <v>76</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>360.8</v>
@@ -3594,7 +3616,7 @@
         <v>78</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L66" t="n">
         <v>360.9</v>
@@ -3645,7 +3667,7 @@
         <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>-6.25</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L67" t="n">
         <v>360.9</v>
@@ -3696,7 +3718,7 @@
         <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>360.8</v>
@@ -3798,7 +3820,7 @@
         <v>85</v>
       </c>
       <c r="K70" t="n">
-        <v>-3.03030303030303</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L70" t="n">
         <v>360.7</v>
@@ -3849,7 +3871,7 @@
         <v>85</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.25</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>360.6</v>
@@ -3900,7 +3922,7 @@
         <v>88</v>
       </c>
       <c r="K72" t="n">
-        <v>5.88235294117647</v>
+        <v>12.5</v>
       </c>
       <c r="L72" t="n">
         <v>360.6</v>
@@ -3951,7 +3973,7 @@
         <v>88</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>360.8</v>
@@ -4002,7 +4024,7 @@
         <v>90</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>360.6</v>
@@ -4053,7 +4075,7 @@
         <v>91</v>
       </c>
       <c r="K75" t="n">
-        <v>-3.225806451612903</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L75" t="n">
         <v>360.5</v>
@@ -4104,7 +4126,7 @@
         <v>93</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L76" t="n">
         <v>360.4</v>
@@ -4155,7 +4177,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.88235294117647</v>
+        <v>-12.5</v>
       </c>
       <c r="L77" t="n">
         <v>360.2</v>
@@ -4206,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>360.1</v>
@@ -4257,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>359.8</v>
@@ -4308,7 +4330,7 @@
         <v>98</v>
       </c>
       <c r="K80" t="n">
-        <v>-6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L80" t="n">
         <v>359.9</v>
@@ -4359,7 +4381,7 @@
         <v>99</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.225806451612903</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L81" t="n">
         <v>359.9</v>
@@ -4410,7 +4432,7 @@
         <v>99</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.3448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L82" t="n">
         <v>359.6</v>
@@ -4461,7 +4483,7 @@
         <v>99</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>359.3</v>
@@ -4512,7 +4534,7 @@
         <v>99</v>
       </c>
       <c r="K84" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>359.2</v>
@@ -4563,7 +4585,7 @@
         <v>100</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.333333333333332</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L85" t="n">
         <v>359.1</v>
@@ -4614,7 +4636,7 @@
         <v>101</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>358.9</v>
@@ -4665,7 +4687,7 @@
         <v>102</v>
       </c>
       <c r="K87" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>358.9</v>
@@ -4716,7 +4738,7 @@
         <v>102</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>358.8</v>
@@ -4767,7 +4789,7 @@
         <v>105</v>
       </c>
       <c r="K89" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>359</v>
@@ -4818,7 +4840,7 @@
         <v>105</v>
       </c>
       <c r="K90" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>359.1</v>
@@ -4869,7 +4891,7 @@
         <v>105</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>359.3</v>
@@ -4920,7 +4942,7 @@
         <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>359.5</v>
@@ -4971,7 +4993,7 @@
         <v>106</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L93" t="n">
         <v>359.8</v>
@@ -5022,7 +5044,7 @@
         <v>108</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
         <v>359.9</v>
@@ -5073,7 +5095,7 @@
         <v>108</v>
       </c>
       <c r="K95" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>360.1</v>
@@ -5124,7 +5146,7 @@
         <v>109</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L96" t="n">
         <v>360.3</v>
@@ -5175,7 +5197,7 @@
         <v>109</v>
       </c>
       <c r="K97" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L97" t="n">
         <v>360.6</v>
@@ -5226,7 +5248,7 @@
         <v>110</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>360.8</v>
@@ -5328,7 +5350,7 @@
         <v>114</v>
       </c>
       <c r="K100" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L100" t="n">
         <v>361.1</v>
@@ -5379,7 +5401,7 @@
         <v>115</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>361.3</v>
@@ -5430,7 +5452,7 @@
         <v>115</v>
       </c>
       <c r="K102" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L102" t="n">
         <v>361.5</v>
@@ -5481,7 +5503,7 @@
         <v>115</v>
       </c>
       <c r="K103" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L103" t="n">
         <v>361.6</v>
@@ -5583,7 +5605,7 @@
         <v>118</v>
       </c>
       <c r="K105" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L105" t="n">
         <v>361.7</v>
@@ -5634,7 +5656,7 @@
         <v>118</v>
       </c>
       <c r="K106" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L106" t="n">
         <v>361.6</v>
@@ -5685,7 +5707,7 @@
         <v>119</v>
       </c>
       <c r="K107" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L107" t="n">
         <v>361.6</v>
@@ -5736,7 +5758,7 @@
         <v>119</v>
       </c>
       <c r="K108" t="n">
-        <v>17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>361.7</v>
@@ -5787,7 +5809,7 @@
         <v>121</v>
       </c>
       <c r="K109" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L109" t="n">
         <v>361.3</v>
@@ -5838,7 +5860,7 @@
         <v>123</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L110" t="n">
         <v>361.2</v>
@@ -5889,7 +5911,7 @@
         <v>125</v>
       </c>
       <c r="K111" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="L111" t="n">
         <v>360.8</v>
@@ -5940,7 +5962,7 @@
         <v>125</v>
       </c>
       <c r="K112" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="L112" t="n">
         <v>360.4</v>
@@ -5991,7 +6013,7 @@
         <v>126</v>
       </c>
       <c r="K113" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>359.9</v>
@@ -6042,7 +6064,7 @@
         <v>126</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L114" t="n">
         <v>359.6</v>
@@ -6144,7 +6166,7 @@
         <v>130</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L116" t="n">
         <v>359.4</v>
@@ -6195,7 +6217,7 @@
         <v>130</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L117" t="n">
         <v>359.1</v>
@@ -6246,7 +6268,7 @@
         <v>130</v>
       </c>
       <c r="K118" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L118" t="n">
         <v>358.8</v>
@@ -6297,7 +6319,7 @@
         <v>131</v>
       </c>
       <c r="K119" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L119" t="n">
         <v>358.8</v>
@@ -6348,7 +6370,7 @@
         <v>131</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>358.6</v>
@@ -6399,7 +6421,7 @@
         <v>133</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L121" t="n">
         <v>358.4</v>
@@ -6450,7 +6472,7 @@
         <v>135</v>
       </c>
       <c r="K122" t="n">
-        <v>-20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>358.4</v>
@@ -6501,7 +6523,7 @@
         <v>135</v>
       </c>
       <c r="K123" t="n">
-        <v>-20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L123" t="n">
         <v>358.5</v>
@@ -6552,7 +6574,7 @@
         <v>135</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>358.6</v>
@@ -6603,7 +6625,7 @@
         <v>136</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>358.6</v>
@@ -6654,7 +6676,7 @@
         <v>136</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>358.8</v>
@@ -6705,7 +6727,7 @@
         <v>137</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>359.1</v>
@@ -6756,7 +6778,7 @@
         <v>138</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>359.3</v>
@@ -6807,7 +6829,7 @@
         <v>139</v>
       </c>
       <c r="K129" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>359.5</v>
@@ -6858,7 +6880,7 @@
         <v>140</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L130" t="n">
         <v>359.6</v>
@@ -6909,7 +6931,7 @@
         <v>140</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L131" t="n">
         <v>359.9</v>
@@ -6960,7 +6982,7 @@
         <v>141</v>
       </c>
       <c r="K132" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>360.1</v>
@@ -7011,7 +7033,7 @@
         <v>142</v>
       </c>
       <c r="K133" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>360.2</v>
@@ -7062,7 +7084,7 @@
         <v>143</v>
       </c>
       <c r="K134" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>360.4</v>
@@ -7113,7 +7135,7 @@
         <v>145</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L135" t="n">
         <v>360.3</v>
@@ -7164,7 +7186,7 @@
         <v>145</v>
       </c>
       <c r="K136" t="n">
-        <v>6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L136" t="n">
         <v>360.2</v>
@@ -7215,7 +7237,7 @@
         <v>147</v>
       </c>
       <c r="K137" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>360.2</v>
@@ -7266,7 +7288,7 @@
         <v>149</v>
       </c>
       <c r="K138" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L138" t="n">
         <v>360.1</v>
@@ -7317,7 +7339,7 @@
         <v>149</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L139" t="n">
         <v>359.9</v>
@@ -7368,7 +7390,7 @@
         <v>151</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>360</v>
@@ -7419,7 +7441,7 @@
         <v>153</v>
       </c>
       <c r="K141" t="n">
-        <v>10</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L141" t="n">
         <v>359.9</v>
@@ -7470,7 +7492,7 @@
         <v>153</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L142" t="n">
         <v>359.7</v>
@@ -7521,7 +7543,7 @@
         <v>154</v>
       </c>
       <c r="K143" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L143" t="n">
         <v>359.7</v>
@@ -7623,7 +7645,7 @@
         <v>156</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L145" t="n">
         <v>359.6</v>
@@ -7674,7 +7696,7 @@
         <v>158</v>
       </c>
       <c r="K146" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L146" t="n">
         <v>359.5</v>
@@ -7725,7 +7747,7 @@
         <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L147" t="n">
         <v>359.4</v>
@@ -7776,7 +7798,7 @@
         <v>160</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L148" t="n">
         <v>359.5</v>
@@ -7827,7 +7849,7 @@
         <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L149" t="n">
         <v>359.6</v>
@@ -7878,7 +7900,7 @@
         <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>359.5</v>
@@ -7929,7 +7951,7 @@
         <v>161</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>359.5</v>
@@ -7980,7 +8002,7 @@
         <v>161</v>
       </c>
       <c r="K152" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>359.5</v>
@@ -8031,7 +8053,7 @@
         <v>161</v>
       </c>
       <c r="K153" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>359.4</v>
@@ -8082,7 +8104,7 @@
         <v>162</v>
       </c>
       <c r="K154" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>359.3</v>
@@ -8133,7 +8155,7 @@
         <v>163</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
         <v>359.2</v>
@@ -8184,7 +8206,7 @@
         <v>163</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>359.3</v>
@@ -8235,7 +8257,7 @@
         <v>163</v>
       </c>
       <c r="K157" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>359.2</v>
@@ -8286,7 +8308,7 @@
         <v>164</v>
       </c>
       <c r="K158" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L158" t="n">
         <v>359</v>
@@ -8343,7 +8365,7 @@
         <v>164</v>
       </c>
       <c r="K159" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L159" t="n">
         <v>358.8</v>
@@ -8402,7 +8424,7 @@
         <v>166</v>
       </c>
       <c r="K160" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L160" t="n">
         <v>358.8</v>
@@ -8465,7 +8487,7 @@
         <v>167</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>359</v>
@@ -8591,7 +8613,7 @@
         <v>170</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L163" t="n">
         <v>359.1</v>
@@ -8717,7 +8739,7 @@
         <v>172</v>
       </c>
       <c r="K165" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L165" t="n">
         <v>359.1</v>
@@ -8778,7 +8800,7 @@
         <v>172</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L166" t="n">
         <v>359</v>
@@ -8841,7 +8863,7 @@
         <v>173</v>
       </c>
       <c r="K167" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L167" t="n">
         <v>358.8</v>
@@ -8900,7 +8922,7 @@
         <v>173</v>
       </c>
       <c r="K168" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>358.7</v>
@@ -8957,7 +8979,7 @@
         <v>174</v>
       </c>
       <c r="K169" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L169" t="n">
         <v>358.5</v>
@@ -9014,7 +9036,7 @@
         <v>174</v>
       </c>
       <c r="K170" t="n">
-        <v>-28.57142857142857</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L170" t="n">
         <v>358.1</v>
@@ -9073,7 +9095,7 @@
         <v>176</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L171" t="n">
         <v>357.8</v>
@@ -9134,7 +9156,7 @@
         <v>177</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L172" t="n">
         <v>357.8</v>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L12" t="n">
-        <v>360</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L13" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L14" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>360</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L16" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L17" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L18" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>24</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L19" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>25</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L20" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L21" t="n">
-        <v>358.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>359.35</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L22" t="n">
-        <v>358.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>358.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1221,19 @@
         <v>359.5833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="K24" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L24" t="n">
-        <v>357.8</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>358.95</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1260,23 @@
         <v>359.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>357.6</v>
+        <v>356</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1303,23 @@
         <v>359.3833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>357.1</v>
+        <v>356</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>358.6</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1346,23 @@
         <v>359.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>358.4</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1389,23 @@
         <v>359.2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L28" t="n">
-        <v>356.7</v>
+        <v>356</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>358.2</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1432,23 @@
         <v>359.1333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="K29" t="n">
-        <v>25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>356.8</v>
+        <v>356</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>358.1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1475,23 @@
         <v>359.0833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="K30" t="n">
-        <v>25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>358.1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1518,23 @@
         <v>359.0666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="K31" t="n">
-        <v>25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>357.2</v>
+        <v>356</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>358</v>
-      </c>
-      <c r="N31" t="n">
-        <v>358.6333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1561,23 @@
         <v>359</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>357.1</v>
+        <v>356</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>357.85</v>
-      </c>
-      <c r="N32" t="n">
-        <v>358.5666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,26 +1609,16 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>38</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>357.3</v>
+        <v>356</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1645,23 @@
         <v>358.9166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39</v>
+        <v>358</v>
       </c>
       <c r="K34" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>357.6</v>
+        <v>356</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="N34" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1688,23 @@
         <v>358.9</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="K35" t="n">
-        <v>40</v>
-      </c>
-      <c r="L35" t="n">
-        <v>357.8</v>
+        <v>356</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>358.4666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1731,23 @@
         <v>358.8666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="K36" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L36" t="n">
-        <v>358.3</v>
+        <v>356</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="N36" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1777,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>40</v>
-      </c>
-      <c r="L37" t="n">
-        <v>358.7</v>
+        <v>356</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>357.85</v>
-      </c>
-      <c r="N37" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1818,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L38" t="n">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>357.85</v>
-      </c>
-      <c r="N38" t="n">
-        <v>358.4666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1859,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L39" t="n">
-        <v>359.1</v>
+        <v>356</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>357.95</v>
-      </c>
-      <c r="N39" t="n">
-        <v>358.4333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1900,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L40" t="n">
-        <v>359.4</v>
+        <v>356</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>358.2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>358.5333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1941,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L41" t="n">
-        <v>359.8</v>
+        <v>356</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>358.6</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1982,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L42" t="n">
-        <v>360.5</v>
+        <v>356</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="N42" t="n">
-        <v>358.7333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2023,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L43" t="n">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N43" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2064,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L44" t="n">
-        <v>361.5</v>
+        <v>356</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N44" t="n">
-        <v>358.9666666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2105,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L45" t="n">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="N45" t="n">
-        <v>359.1333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,29 +2146,19 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L46" t="n">
-        <v>362.2</v>
+        <v>356</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>360.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
+        <v>1.01185393258427</v>
       </c>
     </row>
     <row r="47">
@@ -2641,28 +2187,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>48</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>362.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>359.3333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2222,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>49</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>362.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>360.7</v>
-      </c>
-      <c r="N48" t="n">
-        <v>359.3666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2257,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>50</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>362.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>360.85</v>
-      </c>
-      <c r="N49" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2292,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>52</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L50" t="n">
-        <v>362.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="N50" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2327,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>53</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L51" t="n">
-        <v>362.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>361</v>
-      </c>
-      <c r="N51" t="n">
-        <v>359.7333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2362,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>54</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>361.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="N52" t="n">
-        <v>359.8333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2397,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>57</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L53" t="n">
-        <v>361.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>361.45</v>
-      </c>
-      <c r="N53" t="n">
-        <v>360.0666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2432,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>57</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L54" t="n">
-        <v>361.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>361.65</v>
-      </c>
-      <c r="N54" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2467,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>60</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L55" t="n">
-        <v>361.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>361.7</v>
-      </c>
-      <c r="N55" t="n">
-        <v>360.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2502,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>61</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L56" t="n">
-        <v>361.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>361.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>360.6</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2537,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>62</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L57" t="n">
-        <v>361.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>361.7</v>
-      </c>
-      <c r="N57" t="n">
-        <v>360.7</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2572,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>63</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L58" t="n">
-        <v>361.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>361.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>360.8333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2607,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>64</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>360.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>361.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>360.8666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2642,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>66</v>
-      </c>
-      <c r="K60" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L60" t="n">
-        <v>361.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>361.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>360.9666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2677,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>68</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>361.6</v>
-      </c>
-      <c r="N61" t="n">
-        <v>361</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2712,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>70</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>361.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>361.55</v>
-      </c>
-      <c r="N62" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2747,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>72</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L63" t="n">
-        <v>360.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>361.4</v>
-      </c>
-      <c r="N63" t="n">
-        <v>361.2666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2782,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>74</v>
-      </c>
-      <c r="K64" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L64" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>361.3</v>
-      </c>
-      <c r="N64" t="n">
-        <v>361.3666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2817,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>76</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L65" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>361.4</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2852,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>78</v>
-      </c>
-      <c r="K66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>360.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>361.4666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2887,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>80</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L67" t="n">
-        <v>360.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>361</v>
-      </c>
-      <c r="N67" t="n">
-        <v>361.4333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2922,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>80</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N68" t="n">
-        <v>361.4333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2957,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
-      </c>
-      <c r="J69" t="n">
-        <v>82</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N69" t="n">
-        <v>361.5</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2992,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>85</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L70" t="n">
-        <v>360.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="N70" t="n">
-        <v>361.4</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3027,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>85</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>360.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>360.8</v>
-      </c>
-      <c r="N71" t="n">
-        <v>361.2666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3062,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>88</v>
-      </c>
-      <c r="K72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>360.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="N72" t="n">
-        <v>361.2333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3097,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>88</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>360.85</v>
-      </c>
-      <c r="N73" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3132,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>90</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>360.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>360.7</v>
-      </c>
-      <c r="N74" t="n">
-        <v>361.0666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3167,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>91</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L75" t="n">
-        <v>360.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>360.65</v>
-      </c>
-      <c r="N75" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3202,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>93</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L76" t="n">
-        <v>360.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>360.65</v>
-      </c>
-      <c r="N76" t="n">
-        <v>360.8666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,26 +3239,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>96</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L77" t="n">
-        <v>360.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>360.55</v>
-      </c>
-      <c r="N77" t="n">
-        <v>360.7333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3272,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>97</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>360.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>360.45</v>
-      </c>
-      <c r="N78" t="n">
-        <v>360.6666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3307,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>97</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>359.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>360.4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>360.5666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3342,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>98</v>
-      </c>
-      <c r="K80" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L80" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="N80" t="n">
-        <v>360.5666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3377,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>99</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L81" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>360.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3412,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>99</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L82" t="n">
-        <v>359.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>360.4666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3447,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>99</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L83" t="n">
-        <v>359.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>360.05</v>
-      </c>
-      <c r="N83" t="n">
-        <v>360.3333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3482,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>99</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>359.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="N84" t="n">
-        <v>360.2</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,26 +3519,10 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>100</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L85" t="n">
-        <v>359.1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="N85" t="n">
-        <v>360.1333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3552,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>101</v>
-      </c>
-      <c r="K86" t="n">
-        <v>20</v>
-      </c>
-      <c r="L86" t="n">
-        <v>358.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>359.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>360.0666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,26 +3589,10 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>102</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>358.9</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N87" t="n">
-        <v>360</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3624,10 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>102</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>358.8</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>359.45</v>
-      </c>
-      <c r="N88" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3657,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>105</v>
-      </c>
-      <c r="K89" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="N89" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3692,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>105</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>359.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3727,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>105</v>
-      </c>
-      <c r="K91" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>359.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="N91" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3762,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>105</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N92" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3797,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>106</v>
-      </c>
-      <c r="K93" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L93" t="n">
-        <v>359.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N93" t="n">
-        <v>359.9666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3832,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>108</v>
-      </c>
-      <c r="K94" t="n">
-        <v>25</v>
-      </c>
-      <c r="L94" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N94" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3867,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>108</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L95" t="n">
-        <v>360.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3902,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>109</v>
-      </c>
-      <c r="K96" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L96" t="n">
-        <v>360.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="N96" t="n">
-        <v>359.8666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3937,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>109</v>
-      </c>
-      <c r="K97" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L97" t="n">
-        <v>360.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>359.75</v>
-      </c>
-      <c r="N97" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3972,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>110</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="N98" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4007,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>113</v>
-      </c>
-      <c r="K99" t="n">
-        <v>25</v>
-      </c>
-      <c r="L99" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>360</v>
-      </c>
-      <c r="N99" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4042,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>114</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L100" t="n">
-        <v>361.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="N100" t="n">
-        <v>360.0333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4077,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>115</v>
-      </c>
-      <c r="K101" t="n">
-        <v>20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>361.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="N101" t="n">
-        <v>360.1666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4112,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>115</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L102" t="n">
-        <v>361.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>360.2</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4147,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>115</v>
-      </c>
-      <c r="K103" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L103" t="n">
-        <v>361.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>360.7</v>
-      </c>
-      <c r="N103" t="n">
-        <v>360.2333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4182,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>117</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L104" t="n">
-        <v>361.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>360.8</v>
-      </c>
-      <c r="N104" t="n">
-        <v>360.2666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4217,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>118</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L105" t="n">
-        <v>361.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="N105" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4252,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>118</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L106" t="n">
-        <v>361.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N106" t="n">
-        <v>360.2666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4287,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>119</v>
-      </c>
-      <c r="K107" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L107" t="n">
-        <v>361.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>360.3666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4322,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>119</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>361.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>361.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4357,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>121</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L109" t="n">
-        <v>361.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>361.15</v>
-      </c>
-      <c r="N109" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4392,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>123</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L110" t="n">
-        <v>361.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>361.15</v>
-      </c>
-      <c r="N110" t="n">
-        <v>360.4666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4427,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>125</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L111" t="n">
-        <v>360.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>361.05</v>
-      </c>
-      <c r="N111" t="n">
-        <v>360.4666666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4462,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>125</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L112" t="n">
-        <v>360.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N112" t="n">
-        <v>360.4666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,26 +4499,10 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>126</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L113" t="n">
-        <v>359.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>360.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6060,26 +4534,10 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>126</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L114" t="n">
-        <v>359.6</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>360.65</v>
-      </c>
-      <c r="N114" t="n">
-        <v>360.4</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4567,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>128</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>359.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>360.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>360.4666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6162,26 +4604,10 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>130</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L116" t="n">
-        <v>359.4</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="N116" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6213,26 +4639,10 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>130</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L117" t="n">
-        <v>359.1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>360.35</v>
-      </c>
-      <c r="N117" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,26 +4674,10 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>130</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L118" t="n">
-        <v>358.8</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>360.25</v>
-      </c>
-      <c r="N118" t="n">
-        <v>360.4333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4707,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>131</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L119" t="n">
-        <v>358.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>360.05</v>
-      </c>
-      <c r="N119" t="n">
-        <v>360.3666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4742,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>131</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>358.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="N120" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4777,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>133</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L121" t="n">
-        <v>358.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="N121" t="n">
-        <v>360.1666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4812,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>135</v>
-      </c>
-      <c r="K122" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L122" t="n">
-        <v>358.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="N122" t="n">
-        <v>360.1</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4847,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>135</v>
-      </c>
-      <c r="K123" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L123" t="n">
-        <v>358.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="N123" t="n">
-        <v>360</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4882,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>135</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L124" t="n">
-        <v>358.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N124" t="n">
-        <v>359.9666666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4917,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
-      </c>
-      <c r="J125" t="n">
-        <v>136</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>358.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N125" t="n">
-        <v>359.9666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4952,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>136</v>
-      </c>
-      <c r="K126" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>358.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N126" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4987,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
-      </c>
-      <c r="J127" t="n">
-        <v>137</v>
-      </c>
-      <c r="K127" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L127" t="n">
-        <v>359.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5022,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>138</v>
-      </c>
-      <c r="K128" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L128" t="n">
-        <v>359.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>359.05</v>
-      </c>
-      <c r="N128" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5057,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>139</v>
-      </c>
-      <c r="K129" t="n">
-        <v>25</v>
-      </c>
-      <c r="L129" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N129" t="n">
-        <v>359.8666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5092,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
-      </c>
-      <c r="J130" t="n">
-        <v>140</v>
-      </c>
-      <c r="K130" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L130" t="n">
-        <v>359.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="N130" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5127,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>140</v>
-      </c>
-      <c r="K131" t="n">
-        <v>20</v>
-      </c>
-      <c r="L131" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N131" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5162,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
-      </c>
-      <c r="J132" t="n">
-        <v>141</v>
-      </c>
-      <c r="K132" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>360.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>359.6333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5197,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
-      </c>
-      <c r="J133" t="n">
-        <v>142</v>
-      </c>
-      <c r="K133" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L133" t="n">
-        <v>360.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>359.35</v>
-      </c>
-      <c r="N133" t="n">
-        <v>359.5333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5232,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
-      </c>
-      <c r="J134" t="n">
-        <v>143</v>
-      </c>
-      <c r="K134" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L134" t="n">
-        <v>360.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="N134" t="n">
-        <v>359.5333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5267,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>145</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L135" t="n">
-        <v>360.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>359.45</v>
-      </c>
-      <c r="N135" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5302,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>145</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L136" t="n">
-        <v>360.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="N136" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5337,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
-      </c>
-      <c r="J137" t="n">
-        <v>147</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L137" t="n">
-        <v>360.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>359.65</v>
-      </c>
-      <c r="N137" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5372,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>149</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L138" t="n">
-        <v>360.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="N138" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5407,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>149</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L139" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="N139" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5442,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>151</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L140" t="n">
-        <v>360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="N140" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5477,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>153</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L141" t="n">
-        <v>359.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="N141" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5512,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>153</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L142" t="n">
-        <v>359.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>359.9</v>
-      </c>
-      <c r="N142" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5547,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>154</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L143" t="n">
-        <v>359.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>359.95</v>
-      </c>
-      <c r="N143" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5582,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>155</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>359.95</v>
-      </c>
-      <c r="N144" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5617,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
-      </c>
-      <c r="J145" t="n">
-        <v>156</v>
-      </c>
-      <c r="K145" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L145" t="n">
-        <v>359.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>359.95</v>
-      </c>
-      <c r="N145" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,26 +5654,10 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>158</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L146" t="n">
-        <v>359.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>359.85</v>
-      </c>
-      <c r="N146" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5687,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>160</v>
-      </c>
-      <c r="K147" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L147" t="n">
-        <v>359.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="N147" t="n">
-        <v>359.5666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5722,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>160</v>
-      </c>
-      <c r="K148" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L148" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="N148" t="n">
-        <v>359.6333333333333</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5757,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>160</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L149" t="n">
-        <v>359.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>359.75</v>
-      </c>
-      <c r="N149" t="n">
-        <v>359.6666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5792,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>160</v>
-      </c>
-      <c r="K150" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L150" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>359.75</v>
-      </c>
-      <c r="N150" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,1245 +5827,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>161</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>359.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="N151" t="n">
-        <v>359.7666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>359</v>
-      </c>
-      <c r="C152" t="n">
-        <v>359</v>
-      </c>
-      <c r="D152" t="n">
-        <v>359</v>
-      </c>
-      <c r="E152" t="n">
-        <v>359</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1081.3876</v>
-      </c>
-      <c r="G152" t="n">
-        <v>359.9333333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>161</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L152" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="M152" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="N152" t="n">
-        <v>359.7666666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>359</v>
-      </c>
-      <c r="C153" t="n">
-        <v>359</v>
-      </c>
-      <c r="D153" t="n">
-        <v>359</v>
-      </c>
-      <c r="E153" t="n">
-        <v>359</v>
-      </c>
-      <c r="F153" t="n">
-        <v>86</v>
-      </c>
-      <c r="G153" t="n">
-        <v>359.8833333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>161</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="M153" t="n">
-        <v>359.55</v>
-      </c>
-      <c r="N153" t="n">
-        <v>359.7666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>358</v>
-      </c>
-      <c r="C154" t="n">
-        <v>358</v>
-      </c>
-      <c r="D154" t="n">
-        <v>358</v>
-      </c>
-      <c r="E154" t="n">
-        <v>358</v>
-      </c>
-      <c r="F154" t="n">
-        <v>505.7204</v>
-      </c>
-      <c r="G154" t="n">
-        <v>359.85</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>162</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L154" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="M154" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="N154" t="n">
-        <v>359.7333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>359</v>
-      </c>
-      <c r="C155" t="n">
-        <v>359</v>
-      </c>
-      <c r="D155" t="n">
-        <v>359</v>
-      </c>
-      <c r="E155" t="n">
-        <v>359</v>
-      </c>
-      <c r="F155" t="n">
-        <v>102.7993</v>
-      </c>
-      <c r="G155" t="n">
-        <v>359.8333333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>163</v>
-      </c>
-      <c r="K155" t="n">
-        <v>20</v>
-      </c>
-      <c r="L155" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="M155" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="N155" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>359</v>
-      </c>
-      <c r="C156" t="n">
-        <v>359</v>
-      </c>
-      <c r="D156" t="n">
-        <v>359</v>
-      </c>
-      <c r="E156" t="n">
-        <v>359</v>
-      </c>
-      <c r="F156" t="n">
-        <v>916.0468</v>
-      </c>
-      <c r="G156" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>163</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L156" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="M156" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="N156" t="n">
-        <v>359.6666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>359</v>
-      </c>
-      <c r="C157" t="n">
-        <v>359</v>
-      </c>
-      <c r="D157" t="n">
-        <v>359</v>
-      </c>
-      <c r="E157" t="n">
-        <v>359</v>
-      </c>
-      <c r="F157" t="n">
-        <v>711.4961</v>
-      </c>
-      <c r="G157" t="n">
-        <v>359.7666666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>163</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L157" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="M157" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="N157" t="n">
-        <v>359.6</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>359</v>
-      </c>
-      <c r="C158" t="n">
-        <v>358</v>
-      </c>
-      <c r="D158" t="n">
-        <v>359</v>
-      </c>
-      <c r="E158" t="n">
-        <v>358</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5756.716</v>
-      </c>
-      <c r="G158" t="n">
-        <v>359.7333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>164</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L158" t="n">
-        <v>359</v>
-      </c>
-      <c r="M158" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N158" t="n">
-        <v>359.5333333333334</v>
-      </c>
-      <c r="O158" t="n">
-        <v>359</v>
-      </c>
-      <c r="P158" t="n">
-        <v>371.5</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>359</v>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>358</v>
-      </c>
-      <c r="C159" t="n">
-        <v>358</v>
-      </c>
-      <c r="D159" t="n">
-        <v>358</v>
-      </c>
-      <c r="E159" t="n">
-        <v>358</v>
-      </c>
-      <c r="F159" t="n">
-        <v>600</v>
-      </c>
-      <c r="G159" t="n">
-        <v>359.65</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>164</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L159" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="M159" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="N159" t="n">
-        <v>359.4333333333333</v>
-      </c>
-      <c r="O159" t="n">
-        <v>358</v>
-      </c>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="n">
-        <v>359</v>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>359</v>
-      </c>
-      <c r="C160" t="n">
-        <v>360</v>
-      </c>
-      <c r="D160" t="n">
-        <v>360</v>
-      </c>
-      <c r="E160" t="n">
-        <v>359</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>359.6166666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2</v>
-      </c>
-      <c r="J160" t="n">
-        <v>166</v>
-      </c>
-      <c r="K160" t="n">
-        <v>20</v>
-      </c>
-      <c r="L160" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="M160" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N160" t="n">
-        <v>359.4333333333333</v>
-      </c>
-      <c r="O160" t="n">
-        <v>358</v>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q160" t="n">
-        <v>359</v>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>360</v>
-      </c>
-      <c r="C161" t="n">
-        <v>361</v>
-      </c>
-      <c r="D161" t="n">
-        <v>361</v>
-      </c>
-      <c r="E161" t="n">
-        <v>360</v>
-      </c>
-      <c r="F161" t="n">
-        <v>263.3646</v>
-      </c>
-      <c r="G161" t="n">
-        <v>359.5833333333333</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3</v>
-      </c>
-      <c r="J161" t="n">
-        <v>167</v>
-      </c>
-      <c r="K161" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L161" t="n">
-        <v>359</v>
-      </c>
-      <c r="M161" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N161" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="O161" t="n">
-        <v>360</v>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>359</v>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>360</v>
-      </c>
-      <c r="C162" t="n">
-        <v>359</v>
-      </c>
-      <c r="D162" t="n">
-        <v>360</v>
-      </c>
-      <c r="E162" t="n">
-        <v>359</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5000.3872</v>
-      </c>
-      <c r="G162" t="n">
-        <v>359.5166666666667</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>169</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>359</v>
-      </c>
-      <c r="M162" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N162" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O162" t="n">
-        <v>361</v>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q162" t="n">
-        <v>359</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>359</v>
-      </c>
-      <c r="C163" t="n">
-        <v>360</v>
-      </c>
-      <c r="D163" t="n">
-        <v>360</v>
-      </c>
-      <c r="E163" t="n">
-        <v>359</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1777.0394</v>
-      </c>
-      <c r="G163" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>170</v>
-      </c>
-      <c r="K163" t="n">
-        <v>25</v>
-      </c>
-      <c r="L163" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="M163" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N163" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O163" t="n">
-        <v>359</v>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>359</v>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>359</v>
-      </c>
-      <c r="C164" t="n">
-        <v>359</v>
-      </c>
-      <c r="D164" t="n">
-        <v>359</v>
-      </c>
-      <c r="E164" t="n">
-        <v>359</v>
-      </c>
-      <c r="F164" t="n">
-        <v>654</v>
-      </c>
-      <c r="G164" t="n">
-        <v>359.4333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>171</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="M164" t="n">
-        <v>359.25</v>
-      </c>
-      <c r="N164" t="n">
-        <v>359.3333333333333</v>
-      </c>
-      <c r="O164" t="n">
-        <v>360</v>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
-        <v>359</v>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>359</v>
-      </c>
-      <c r="C165" t="n">
-        <v>358</v>
-      </c>
-      <c r="D165" t="n">
-        <v>359</v>
-      </c>
-      <c r="E165" t="n">
-        <v>358</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5756.716</v>
-      </c>
-      <c r="G165" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>172</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L165" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="M165" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N165" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q165" t="n">
-        <v>359</v>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>358</v>
-      </c>
-      <c r="C166" t="n">
-        <v>358</v>
-      </c>
-      <c r="D166" t="n">
-        <v>358</v>
-      </c>
-      <c r="E166" t="n">
-        <v>358</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5375.5483</v>
-      </c>
-      <c r="G166" t="n">
-        <v>359.3666666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>172</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L166" t="n">
-        <v>359</v>
-      </c>
-      <c r="M166" t="n">
-        <v>359.15</v>
-      </c>
-      <c r="N166" t="n">
-        <v>359.2666666666667</v>
-      </c>
-      <c r="O166" t="n">
-        <v>358</v>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q166" t="n">
-        <v>359</v>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>358</v>
-      </c>
-      <c r="C167" t="n">
-        <v>357</v>
-      </c>
-      <c r="D167" t="n">
-        <v>358</v>
-      </c>
-      <c r="E167" t="n">
-        <v>357</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9567.636200000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>173</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L167" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="M167" t="n">
-        <v>359</v>
-      </c>
-      <c r="N167" t="n">
-        <v>359.1333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="n">
-        <v>370.5</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>359</v>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>359</v>
-      </c>
-      <c r="C168" t="n">
-        <v>357</v>
-      </c>
-      <c r="D168" t="n">
-        <v>359</v>
-      </c>
-      <c r="E168" t="n">
-        <v>357</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G168" t="n">
-        <v>359.2333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>173</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L168" t="n">
-        <v>358.7</v>
-      </c>
-      <c r="M168" t="n">
-        <v>358.85</v>
-      </c>
-      <c r="N168" t="n">
-        <v>359.0666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="n">
-        <v>359</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>357</v>
-      </c>
-      <c r="C169" t="n">
-        <v>356</v>
-      </c>
-      <c r="D169" t="n">
-        <v>357</v>
-      </c>
-      <c r="E169" t="n">
-        <v>356</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4759.6378</v>
-      </c>
-      <c r="G169" t="n">
-        <v>359.1833333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>174</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L169" t="n">
-        <v>358.5</v>
-      </c>
-      <c r="M169" t="n">
-        <v>358.65</v>
-      </c>
-      <c r="N169" t="n">
-        <v>358.9666666666666</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="n">
-        <v>359</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>356</v>
-      </c>
-      <c r="C170" t="n">
-        <v>356</v>
-      </c>
-      <c r="D170" t="n">
-        <v>356</v>
-      </c>
-      <c r="E170" t="n">
-        <v>356</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2778.5515</v>
-      </c>
-      <c r="G170" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>174</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L170" t="n">
-        <v>358.1</v>
-      </c>
-      <c r="M170" t="n">
-        <v>358.45</v>
-      </c>
-      <c r="N170" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="O170" t="n">
-        <v>356</v>
-      </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="n">
-        <v>359</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>358</v>
-      </c>
-      <c r="C171" t="n">
-        <v>358</v>
-      </c>
-      <c r="D171" t="n">
-        <v>358</v>
-      </c>
-      <c r="E171" t="n">
-        <v>358</v>
-      </c>
-      <c r="F171" t="n">
-        <v>631.2993</v>
-      </c>
-      <c r="G171" t="n">
-        <v>359.0833333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>176</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L171" t="n">
-        <v>357.8</v>
-      </c>
-      <c r="M171" t="n">
-        <v>358.4</v>
-      </c>
-      <c r="N171" t="n">
-        <v>358.7666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q171" t="n">
-        <v>359</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>359</v>
-      </c>
-      <c r="C172" t="n">
-        <v>359</v>
-      </c>
-      <c r="D172" t="n">
-        <v>359</v>
-      </c>
-      <c r="E172" t="n">
-        <v>359</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1680</v>
-      </c>
-      <c r="G172" t="n">
-        <v>359.0833333333333</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>177</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L172" t="n">
-        <v>357.8</v>
-      </c>
-      <c r="M172" t="n">
-        <v>358.4</v>
-      </c>
-      <c r="N172" t="n">
-        <v>358.7666666666667</v>
-      </c>
-      <c r="O172" t="n">
-        <v>358</v>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>359</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -1221,17 +1221,13 @@
         <v>359.5833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>356</v>
-      </c>
-      <c r="K24" t="n">
-        <v>356</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1260,22 +1256,14 @@
         <v>359.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>356</v>
-      </c>
-      <c r="K25" t="n">
-        <v>356</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1309,16 +1297,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K26" t="n">
-        <v>356</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1352,14 +1336,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>355</v>
+      </c>
+      <c r="K27" t="n">
         <v>357</v>
-      </c>
-      <c r="K27" t="n">
-        <v>356</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1389,20 +1373,18 @@
         <v>359.2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
         <v>357</v>
-      </c>
-      <c r="K28" t="n">
-        <v>356</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1432,22 +1414,14 @@
         <v>359.1333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>359</v>
-      </c>
-      <c r="K29" t="n">
-        <v>356</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1449,14 @@
         <v>359.0833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>359</v>
-      </c>
-      <c r="K30" t="n">
-        <v>356</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1484,14 @@
         <v>359.0666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>359</v>
-      </c>
-      <c r="K31" t="n">
-        <v>356</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1519,14 @@
         <v>359</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>357</v>
-      </c>
-      <c r="K32" t="n">
-        <v>356</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1610,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>356</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1645,22 +1589,14 @@
         <v>358.9166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>358</v>
-      </c>
-      <c r="K34" t="n">
-        <v>356</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1624,14 @@
         <v>358.9</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>359</v>
-      </c>
-      <c r="K35" t="n">
-        <v>356</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1731,22 +1659,14 @@
         <v>358.8666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>359</v>
-      </c>
-      <c r="K36" t="n">
-        <v>356</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1700,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>356</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1735,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>356</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>356</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>356</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>356</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1985,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>356</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2026,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>356</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2067,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>356</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>356</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2149,16 +2015,10 @@
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>356</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1.01185393258427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2222,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -3689,13 +3549,17 @@
         <v>360.4333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>361</v>
+      </c>
+      <c r="K90" t="n">
+        <v>361</v>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
@@ -3724,14 +3588,22 @@
         <v>360.4666666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>361</v>
+      </c>
+      <c r="K91" t="n">
+        <v>361</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3765,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>361</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
         <v>359</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" t="n">
         <v>359</v>
@@ -445,10 +445,10 @@
         <v>358</v>
       </c>
       <c r="F2" t="n">
-        <v>604.9766</v>
+        <v>1085.0043</v>
       </c>
       <c r="G2" t="n">
-        <v>360.6333333333333</v>
+        <v>360.7333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>359</v>
       </c>
       <c r="C3" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F3" t="n">
-        <v>731.0111000000001</v>
+        <v>604.9766</v>
       </c>
       <c r="G3" t="n">
-        <v>360.5666666666667</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D4" t="n">
         <v>360</v>
@@ -515,10 +515,10 @@
         <v>359</v>
       </c>
       <c r="F4" t="n">
-        <v>1075</v>
+        <v>731.0111000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>360.5333333333334</v>
+        <v>360.5666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
         <v>360</v>
@@ -550,10 +550,10 @@
         <v>359</v>
       </c>
       <c r="F5" t="n">
-        <v>1002</v>
+        <v>1075</v>
       </c>
       <c r="G5" t="n">
-        <v>360.5</v>
+        <v>360.5333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
         <v>360</v>
@@ -585,10 +585,10 @@
         <v>359</v>
       </c>
       <c r="F6" t="n">
-        <v>546.3169</v>
+        <v>1002</v>
       </c>
       <c r="G6" t="n">
-        <v>360.4666666666666</v>
+        <v>360.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>360</v>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F7" t="n">
-        <v>754.9471</v>
+        <v>546.3169</v>
       </c>
       <c r="G7" t="n">
-        <v>360.4166666666667</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>361</v>
       </c>
       <c r="E8" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4598</v>
+        <v>754.9471</v>
       </c>
       <c r="G8" t="n">
-        <v>360.3666666666667</v>
+        <v>360.4166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C9" t="n">
         <v>361</v>
@@ -687,13 +687,13 @@
         <v>361</v>
       </c>
       <c r="E9" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>115.4598</v>
       </c>
       <c r="G9" t="n">
-        <v>360.3166666666667</v>
+        <v>360.3666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" t="n">
-        <v>1042.3834</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>360.2333333333333</v>
+        <v>360.3166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C11" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1042.3834</v>
       </c>
       <c r="G11" t="n">
         <v>360.2333333333333</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1819</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>360.1666666666667</v>
+        <v>360.2333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>1.1819</v>
       </c>
       <c r="G13" t="n">
         <v>360.1666666666667</v>
@@ -853,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C14" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D14" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E14" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F14" t="n">
-        <v>543.1654</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>360.1666666666667</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C15" t="n">
         <v>359</v>
       </c>
       <c r="D15" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E15" t="n">
         <v>359</v>
       </c>
       <c r="F15" t="n">
-        <v>502.1819</v>
+        <v>543.1654</v>
       </c>
       <c r="G15" t="n">
-        <v>360.1333333333333</v>
+        <v>360.1666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>502.1819</v>
       </c>
       <c r="G16" t="n">
-        <v>360.1</v>
+        <v>360.1333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F17" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>360.05</v>
+        <v>360.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>358</v>
       </c>
       <c r="C18" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E18" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F18" t="n">
-        <v>4231.4083</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>360.0333333333334</v>
+        <v>360.05</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>358</v>
       </c>
       <c r="C19" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D19" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E19" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F19" t="n">
-        <v>321.9543</v>
+        <v>4231.4083</v>
       </c>
       <c r="G19" t="n">
-        <v>359.9833333333333</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>321.9543</v>
       </c>
       <c r="G20" t="n">
-        <v>359.9</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>357</v>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>359.8333333333333</v>
+        <v>359.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>357</v>
       </c>
       <c r="F22" t="n">
-        <v>4066.0823</v>
+        <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>359.7833333333334</v>
+        <v>359.8333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F23" t="n">
-        <v>192.1197</v>
+        <v>4066.0823</v>
       </c>
       <c r="G23" t="n">
-        <v>359.6666666666667</v>
+        <v>359.7833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>356</v>
       </c>
       <c r="F24" t="n">
-        <v>3319.0279</v>
+        <v>192.1197</v>
       </c>
       <c r="G24" t="n">
-        <v>359.5833333333333</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>356</v>
       </c>
       <c r="C25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E25" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F25" t="n">
-        <v>1444</v>
+        <v>3319.0279</v>
       </c>
       <c r="G25" t="n">
-        <v>359.5</v>
+        <v>359.5833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,35 +1273,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E26" t="n">
         <v>355</v>
       </c>
       <c r="F26" t="n">
-        <v>7656.81</v>
+        <v>1444</v>
       </c>
       <c r="G26" t="n">
-        <v>359.3833333333333</v>
+        <v>359.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>357</v>
-      </c>
-      <c r="K26" t="n">
-        <v>357</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1312,40 +1308,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F27" t="n">
-        <v>1193.114</v>
+        <v>7656.81</v>
       </c>
       <c r="G27" t="n">
-        <v>359.3</v>
+        <v>359.3833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>355</v>
-      </c>
-      <c r="K27" t="n">
-        <v>357</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,10 +1355,10 @@
         <v>357</v>
       </c>
       <c r="F28" t="n">
-        <v>18.778</v>
+        <v>1193.114</v>
       </c>
       <c r="G28" t="n">
-        <v>359.2</v>
+        <v>359.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1379,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>357</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D29" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E29" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F29" t="n">
-        <v>3220</v>
+        <v>18.778</v>
       </c>
       <c r="G29" t="n">
-        <v>359.1333333333333</v>
+        <v>359.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1437,16 +1419,16 @@
         <v>359</v>
       </c>
       <c r="D30" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E30" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F30" t="n">
-        <v>3044.7141</v>
+        <v>3220</v>
       </c>
       <c r="G30" t="n">
-        <v>359.0833333333333</v>
+        <v>359.1333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1478,10 +1460,10 @@
         <v>359</v>
       </c>
       <c r="F31" t="n">
-        <v>896.6629</v>
+        <v>3044.7141</v>
       </c>
       <c r="G31" t="n">
-        <v>359.0666666666667</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C32" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D32" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E32" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F32" t="n">
-        <v>2128.9233</v>
+        <v>896.6629</v>
       </c>
       <c r="G32" t="n">
-        <v>359</v>
+        <v>359.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D33" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E33" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2128.9233</v>
       </c>
       <c r="G33" t="n">
-        <v>358.9666666666666</v>
+        <v>359</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1574,19 +1556,19 @@
         <v>358</v>
       </c>
       <c r="C34" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E34" t="n">
         <v>358</v>
       </c>
       <c r="F34" t="n">
-        <v>1962.8919</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>358.9166666666667</v>
+        <v>358.9666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" t="n">
         <v>359</v>
@@ -1615,13 +1597,13 @@
         <v>359</v>
       </c>
       <c r="E35" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F35" t="n">
-        <v>635.2785</v>
+        <v>1962.8919</v>
       </c>
       <c r="G35" t="n">
-        <v>358.9</v>
+        <v>358.9166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1644,19 +1626,19 @@
         <v>359</v>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E36" t="n">
         <v>359</v>
       </c>
       <c r="F36" t="n">
-        <v>10693.248</v>
+        <v>635.2785</v>
       </c>
       <c r="G36" t="n">
-        <v>358.8666666666667</v>
+        <v>358.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37" t="n">
-        <v>5269.4075</v>
+        <v>10693.248</v>
       </c>
       <c r="G37" t="n">
-        <v>358.85</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1714,19 +1696,19 @@
         <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D38" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E38" t="n">
         <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1818</v>
+        <v>5269.4075</v>
       </c>
       <c r="G38" t="n">
-        <v>358.8666666666667</v>
+        <v>358.85</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,10 +1740,10 @@
         <v>360</v>
       </c>
       <c r="F39" t="n">
-        <v>2476.1537</v>
+        <v>1.1818</v>
       </c>
       <c r="G39" t="n">
-        <v>358.9</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1784,19 +1766,19 @@
         <v>360</v>
       </c>
       <c r="C40" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D40" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E40" t="n">
         <v>360</v>
       </c>
       <c r="F40" t="n">
-        <v>4048.62222458</v>
+        <v>2476.1537</v>
       </c>
       <c r="G40" t="n">
-        <v>358.9166666666667</v>
+        <v>358.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C41" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4048.62222458</v>
       </c>
       <c r="G41" t="n">
-        <v>358.9833333333333</v>
+        <v>358.9166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C42" t="n">
         <v>363</v>
@@ -1860,13 +1842,13 @@
         <v>363</v>
       </c>
       <c r="E42" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F42" t="n">
-        <v>1831.98789311</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>359.0666666666667</v>
+        <v>358.9833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" t="n">
         <v>363</v>
@@ -1895,13 +1877,13 @@
         <v>363</v>
       </c>
       <c r="E43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>3445.77961432</v>
+        <v>1831.98789311</v>
       </c>
       <c r="G43" t="n">
-        <v>359.15</v>
+        <v>359.0666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F44" t="n">
-        <v>5494.5054945</v>
+        <v>3445.77961432</v>
       </c>
       <c r="G44" t="n">
-        <v>359.25</v>
+        <v>359.15</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1968,10 +1950,10 @@
         <v>364</v>
       </c>
       <c r="F45" t="n">
-        <v>927.4065000000001</v>
+        <v>5494.5054945</v>
       </c>
       <c r="G45" t="n">
-        <v>359.3</v>
+        <v>359.25</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D46" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E46" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F46" t="n">
-        <v>24.4823</v>
+        <v>927.4065000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>359.35</v>
+        <v>359.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2026,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" t="n">
         <v>362</v>
       </c>
       <c r="D47" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="n">
         <v>362</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>24.4823</v>
       </c>
       <c r="G47" t="n">
-        <v>359.4</v>
+        <v>359.35</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2061,28 +2043,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F48" t="n">
-        <v>2.7673</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>359.4166666666667</v>
+        <v>359.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2096,28 +2078,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F49" t="n">
-        <v>165.7978</v>
+        <v>2.7673</v>
       </c>
       <c r="G49" t="n">
-        <v>359.45</v>
+        <v>359.4166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2134,19 +2116,19 @@
         <v>360</v>
       </c>
       <c r="C50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E50" t="n">
         <v>360</v>
       </c>
       <c r="F50" t="n">
-        <v>245.9999</v>
+        <v>165.7978</v>
       </c>
       <c r="G50" t="n">
-        <v>359.4666666666666</v>
+        <v>359.45</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2166,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F51" t="n">
-        <v>148.2026</v>
+        <v>245.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>359.4833333333333</v>
+        <v>359.4666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2201,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F52" t="n">
-        <v>1483.181</v>
+        <v>148.2026</v>
       </c>
       <c r="G52" t="n">
-        <v>359.5</v>
+        <v>359.4833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C53" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>137.0562</v>
+        <v>1483.181</v>
       </c>
       <c r="G53" t="n">
-        <v>359.55</v>
+        <v>359.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2271,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C54" t="n">
         <v>363</v>
@@ -2280,13 +2262,13 @@
         <v>363</v>
       </c>
       <c r="E54" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F54" t="n">
-        <v>528</v>
+        <v>137.0562</v>
       </c>
       <c r="G54" t="n">
-        <v>359.6</v>
+        <v>359.55</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D55" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F55" t="n">
-        <v>37.162</v>
+        <v>528</v>
       </c>
       <c r="G55" t="n">
-        <v>359.6166666666667</v>
+        <v>359.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2341,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C56" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E56" t="n">
         <v>360</v>
       </c>
       <c r="F56" t="n">
-        <v>35.5532</v>
+        <v>37.162</v>
       </c>
       <c r="G56" t="n">
-        <v>359.65</v>
+        <v>359.6166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2376,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D57" t="n">
         <v>361</v>
@@ -2388,10 +2370,10 @@
         <v>360</v>
       </c>
       <c r="F57" t="n">
-        <v>161.55</v>
+        <v>35.5532</v>
       </c>
       <c r="G57" t="n">
-        <v>359.6666666666667</v>
+        <v>359.65</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2414,19 +2396,19 @@
         <v>361</v>
       </c>
       <c r="C58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D58" t="n">
         <v>361</v>
       </c>
       <c r="E58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F58" t="n">
-        <v>163.2658</v>
+        <v>161.55</v>
       </c>
       <c r="G58" t="n">
-        <v>359.7</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2449,19 +2431,19 @@
         <v>361</v>
       </c>
       <c r="C59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D59" t="n">
         <v>361</v>
       </c>
       <c r="E59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F59" t="n">
-        <v>1291.8739</v>
+        <v>163.2658</v>
       </c>
       <c r="G59" t="n">
-        <v>359.7333333333333</v>
+        <v>359.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2481,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C60" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D60" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1291.8739</v>
       </c>
       <c r="G60" t="n">
-        <v>359.8</v>
+        <v>359.7333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F61" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>359.8166666666667</v>
+        <v>359.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2554,19 +2536,19 @@
         <v>360</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>2997.9999</v>
+        <v>280</v>
       </c>
       <c r="G62" t="n">
-        <v>359.8833333333333</v>
+        <v>359.8166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2589,16 +2571,16 @@
         <v>360</v>
       </c>
       <c r="C63" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D63" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E63" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F63" t="n">
-        <v>140.1444</v>
+        <v>2997.9999</v>
       </c>
       <c r="G63" t="n">
         <v>359.8833333333333</v>
@@ -2621,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E64" t="n">
         <v>360</v>
       </c>
       <c r="F64" t="n">
-        <v>660</v>
+        <v>140.1444</v>
       </c>
       <c r="G64" t="n">
-        <v>359.9333333333333</v>
+        <v>359.8833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,19 +2638,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C65" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D65" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E65" t="n">
         <v>360</v>
       </c>
       <c r="F65" t="n">
-        <v>234.0368</v>
+        <v>660</v>
       </c>
       <c r="G65" t="n">
         <v>359.9333333333333</v>
@@ -2691,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C66" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E66" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>234.0368</v>
       </c>
       <c r="G66" t="n">
-        <v>359.9833333333333</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F67" t="n">
-        <v>172.7799</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>359.9666666666666</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,10 +2755,10 @@
         <v>360</v>
       </c>
       <c r="F68" t="n">
-        <v>178</v>
+        <v>172.7799</v>
       </c>
       <c r="G68" t="n">
-        <v>359.95</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="G69" t="n">
-        <v>359.9666666666666</v>
+        <v>359.95</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C70" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D70" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E70" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F70" t="n">
-        <v>3064.7302</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>359.9666666666666</v>
@@ -2866,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C71" t="n">
         <v>359</v>
       </c>
       <c r="D71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E71" t="n">
         <v>359</v>
       </c>
       <c r="F71" t="n">
-        <v>225.0717</v>
+        <v>3064.7302</v>
       </c>
       <c r="G71" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>225.0717</v>
       </c>
       <c r="G72" t="n">
-        <v>359.9833333333333</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,10 +2930,10 @@
         <v>362</v>
       </c>
       <c r="F73" t="n">
-        <v>3109.7679558</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>360</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F74" t="n">
-        <v>22.6882</v>
+        <v>3109.7679558</v>
       </c>
       <c r="G74" t="n">
-        <v>360.0166666666667</v>
+        <v>360</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,19 +2988,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F75" t="n">
-        <v>1395</v>
+        <v>22.6882</v>
       </c>
       <c r="G75" t="n">
         <v>360.0166666666667</v>
@@ -3041,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>1395</v>
       </c>
       <c r="G76" t="n">
-        <v>360.0333333333334</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,19 +3058,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C77" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D77" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E77" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F77" t="n">
-        <v>1899.7177</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>360.0333333333334</v>
@@ -3111,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C78" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D78" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E78" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>1899.7177</v>
       </c>
       <c r="G78" t="n">
-        <v>360.0166666666667</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,10 +3140,10 @@
         <v>359</v>
       </c>
       <c r="F79" t="n">
-        <v>51.07</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>360.0333333333334</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3181,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>51.07</v>
       </c>
       <c r="G80" t="n">
-        <v>360.0833333333333</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3216,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F81" t="n">
-        <v>387.4581</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>360.1166666666667</v>
+        <v>360.0833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3263,10 +3245,10 @@
         <v>359</v>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>387.4581</v>
       </c>
       <c r="G82" t="n">
-        <v>360.15</v>
+        <v>360.1166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,10 +3280,10 @@
         <v>359</v>
       </c>
       <c r="F83" t="n">
-        <v>754.6732</v>
+        <v>300</v>
       </c>
       <c r="G83" t="n">
-        <v>360.2</v>
+        <v>360.15</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3333,10 +3315,10 @@
         <v>359</v>
       </c>
       <c r="F84" t="n">
-        <v>221.6</v>
+        <v>754.6732</v>
       </c>
       <c r="G84" t="n">
-        <v>360.25</v>
+        <v>360.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F85" t="n">
-        <v>52.8897</v>
+        <v>221.6</v>
       </c>
       <c r="G85" t="n">
-        <v>360.2666666666667</v>
+        <v>360.25</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F86" t="n">
-        <v>23.2664</v>
+        <v>52.8897</v>
       </c>
       <c r="G86" t="n">
-        <v>360.3333333333333</v>
+        <v>360.2666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>252.97</v>
+        <v>23.2664</v>
       </c>
       <c r="G87" t="n">
-        <v>360.35</v>
+        <v>360.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,10 +3455,10 @@
         <v>358</v>
       </c>
       <c r="F88" t="n">
-        <v>635.7919000000001</v>
+        <v>252.97</v>
       </c>
       <c r="G88" t="n">
-        <v>360.3666666666667</v>
+        <v>360.35</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F89" t="n">
-        <v>2019.4653</v>
+        <v>635.7919000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>360.4</v>
+        <v>360.3666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,10 +3525,10 @@
         <v>361</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>2019.4653</v>
       </c>
       <c r="G90" t="n">
-        <v>360.4333333333333</v>
+        <v>360.4</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3555,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K90" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
@@ -3582,22 +3564,20 @@
         <v>361</v>
       </c>
       <c r="F91" t="n">
-        <v>354.0166</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>360.4666666666666</v>
+        <v>360.4333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>361</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3625,10 +3605,10 @@
         <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>14</v>
+        <v>354.0166</v>
       </c>
       <c r="G92" t="n">
-        <v>360.55</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3638,7 +3618,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3657,19 +3637,19 @@
         <v>361</v>
       </c>
       <c r="C93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" t="n">
         <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>8398.0321</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
-        <v>360.6166666666667</v>
+        <v>360.55</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3689,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C94" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D94" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E94" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F94" t="n">
-        <v>24.2655</v>
+        <v>8398.0321</v>
       </c>
       <c r="G94" t="n">
-        <v>360.6333333333333</v>
+        <v>360.6166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3736,10 +3716,10 @@
         <v>360</v>
       </c>
       <c r="F95" t="n">
-        <v>917.3861000000001</v>
+        <v>24.2655</v>
       </c>
       <c r="G95" t="n">
-        <v>360.65</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3762,19 +3742,19 @@
         <v>360</v>
       </c>
       <c r="C96" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D96" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E96" t="n">
         <v>360</v>
       </c>
       <c r="F96" t="n">
-        <v>1970.3388</v>
+        <v>917.3861000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>360.6666666666667</v>
+        <v>360.65</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3800,13 +3780,13 @@
         <v>361</v>
       </c>
       <c r="D97" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" t="n">
         <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>5472.5353</v>
+        <v>1970.3388</v>
       </c>
       <c r="G97" t="n">
         <v>360.6666666666667</v>
@@ -3832,16 +3812,16 @@
         <v>360</v>
       </c>
       <c r="C98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D98" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E98" t="n">
         <v>360</v>
       </c>
       <c r="F98" t="n">
-        <v>60</v>
+        <v>5472.5353</v>
       </c>
       <c r="G98" t="n">
         <v>360.6666666666667</v>
@@ -3867,19 +3847,19 @@
         <v>360</v>
       </c>
       <c r="C99" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D99" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E99" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F99" t="n">
-        <v>8758.248100000001</v>
+        <v>60</v>
       </c>
       <c r="G99" t="n">
-        <v>360.7166666666666</v>
+        <v>360.6666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3899,19 +3879,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C100" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D100" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E100" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F100" t="n">
-        <v>1784.3618</v>
+        <v>8758.248100000001</v>
       </c>
       <c r="G100" t="n">
         <v>360.7166666666666</v>
@@ -3937,16 +3917,16 @@
         <v>362</v>
       </c>
       <c r="C101" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D101" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E101" t="n">
         <v>362</v>
       </c>
       <c r="F101" t="n">
-        <v>2565.4407</v>
+        <v>1784.3618</v>
       </c>
       <c r="G101" t="n">
         <v>360.7166666666666</v>
@@ -3969,7 +3949,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C102" t="n">
         <v>363</v>
@@ -3978,10 +3958,10 @@
         <v>363</v>
       </c>
       <c r="E102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F102" t="n">
-        <v>270.8815</v>
+        <v>2565.4407</v>
       </c>
       <c r="G102" t="n">
         <v>360.7166666666666</v>
@@ -4016,7 +3996,7 @@
         <v>363</v>
       </c>
       <c r="F103" t="n">
-        <v>398.9476</v>
+        <v>270.8815</v>
       </c>
       <c r="G103" t="n">
         <v>360.7166666666666</v>
@@ -4039,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F104" t="n">
-        <v>2777.7777</v>
+        <v>398.9476</v>
       </c>
       <c r="G104" t="n">
-        <v>360.6666666666667</v>
+        <v>360.7166666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4074,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F105" t="n">
-        <v>270.2043</v>
+        <v>2777.7777</v>
       </c>
       <c r="G105" t="n">
-        <v>360.6</v>
+        <v>360.6666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4121,10 +4101,10 @@
         <v>360</v>
       </c>
       <c r="F106" t="n">
-        <v>205.0404</v>
+        <v>270.2043</v>
       </c>
       <c r="G106" t="n">
-        <v>360.5666666666667</v>
+        <v>360.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4144,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>205.0404</v>
       </c>
       <c r="G107" t="n">
-        <v>360.55</v>
+        <v>360.5666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4179,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C108" t="n">
         <v>361</v>
@@ -4188,10 +4168,10 @@
         <v>361</v>
       </c>
       <c r="E108" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F108" t="n">
-        <v>5951.5441</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>360.55</v>
@@ -4217,19 +4197,19 @@
         <v>360</v>
       </c>
       <c r="C109" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D109" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E109" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F109" t="n">
-        <v>4230.7891</v>
+        <v>5951.5441</v>
       </c>
       <c r="G109" t="n">
-        <v>360.5</v>
+        <v>360.55</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4249,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D110" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E110" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>4230.7891</v>
       </c>
       <c r="G110" t="n">
-        <v>360.5166666666667</v>
+        <v>360.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F111" t="n">
-        <v>2.159</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>360.4833333333333</v>
+        <v>360.5166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4331,10 +4311,10 @@
         <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>4991.7239</v>
+        <v>2.159</v>
       </c>
       <c r="G112" t="n">
-        <v>360.4666666666666</v>
+        <v>360.4833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4354,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F113" t="n">
-        <v>79.92870000000001</v>
+        <v>4991.7239</v>
       </c>
       <c r="G113" t="n">
-        <v>360.3833333333333</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4389,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C114" t="n">
         <v>358</v>
       </c>
       <c r="D114" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E114" t="n">
         <v>358</v>
       </c>
       <c r="F114" t="n">
-        <v>13724.3553</v>
+        <v>79.92870000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>360.3</v>
+        <v>360.3833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4424,19 +4404,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C115" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D115" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E115" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>13724.3553</v>
       </c>
       <c r="G115" t="n">
         <v>360.3</v>
@@ -4459,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F116" t="n">
-        <v>1686.9759</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>360.25</v>
+        <v>360.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4506,10 +4486,10 @@
         <v>358</v>
       </c>
       <c r="F117" t="n">
-        <v>370.2049</v>
+        <v>1686.9759</v>
       </c>
       <c r="G117" t="n">
-        <v>360.2166666666666</v>
+        <v>360.25</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4529,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C118" t="n">
         <v>358</v>
       </c>
       <c r="D118" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E118" t="n">
         <v>358</v>
       </c>
       <c r="F118" t="n">
-        <v>40.7455</v>
+        <v>370.2049</v>
       </c>
       <c r="G118" t="n">
-        <v>360.1666666666667</v>
+        <v>360.2166666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4567,19 +4547,19 @@
         <v>359</v>
       </c>
       <c r="C119" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D119" t="n">
         <v>359</v>
       </c>
       <c r="E119" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F119" t="n">
-        <v>123.453</v>
+        <v>40.7455</v>
       </c>
       <c r="G119" t="n">
-        <v>360.15</v>
+        <v>360.1666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4611,10 +4591,10 @@
         <v>359</v>
       </c>
       <c r="F120" t="n">
-        <v>449</v>
+        <v>123.453</v>
       </c>
       <c r="G120" t="n">
-        <v>360.1</v>
+        <v>360.15</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4634,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C121" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D121" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E121" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>449</v>
       </c>
       <c r="G121" t="n">
-        <v>360.05</v>
+        <v>360.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4669,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D122" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F122" t="n">
-        <v>130</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>360</v>
+        <v>360.05</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4716,10 +4696,10 @@
         <v>359</v>
       </c>
       <c r="F123" t="n">
-        <v>1056.7848</v>
+        <v>130</v>
       </c>
       <c r="G123" t="n">
-        <v>359.9833333333333</v>
+        <v>360</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4751,10 +4731,10 @@
         <v>359</v>
       </c>
       <c r="F124" t="n">
-        <v>3513.4322</v>
+        <v>1056.7848</v>
       </c>
       <c r="G124" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4774,19 +4754,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F125" t="n">
-        <v>2702.2486</v>
+        <v>3513.4322</v>
       </c>
       <c r="G125" t="n">
         <v>359.9333333333333</v>
@@ -4821,10 +4801,10 @@
         <v>360</v>
       </c>
       <c r="F126" t="n">
-        <v>1947.5111</v>
+        <v>2702.2486</v>
       </c>
       <c r="G126" t="n">
-        <v>359.9</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4847,19 +4827,19 @@
         <v>360</v>
       </c>
       <c r="C127" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D127" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E127" t="n">
         <v>360</v>
       </c>
       <c r="F127" t="n">
-        <v>596.0362</v>
+        <v>1947.5111</v>
       </c>
       <c r="G127" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4882,16 +4862,16 @@
         <v>360</v>
       </c>
       <c r="C128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E128" t="n">
         <v>360</v>
       </c>
       <c r="F128" t="n">
-        <v>1110.238</v>
+        <v>596.0362</v>
       </c>
       <c r="G128" t="n">
         <v>359.9166666666667</v>
@@ -4914,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C129" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E129" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F129" t="n">
-        <v>3.7624</v>
+        <v>1110.238</v>
       </c>
       <c r="G129" t="n">
-        <v>359.9</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4949,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C130" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D130" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E130" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F130" t="n">
-        <v>1399.5899</v>
+        <v>3.7624</v>
       </c>
       <c r="G130" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4996,10 +4976,10 @@
         <v>360</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0001</v>
+        <v>1399.5899</v>
       </c>
       <c r="G131" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F132" t="n">
-        <v>37.6888</v>
+        <v>0.0001</v>
       </c>
       <c r="G132" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5054,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E133" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F133" t="n">
-        <v>4315.9733</v>
+        <v>37.6888</v>
       </c>
       <c r="G133" t="n">
-        <v>359.8833333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5089,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E134" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>4315.9733</v>
       </c>
       <c r="G134" t="n">
-        <v>359.9</v>
+        <v>359.8833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5124,19 +5104,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F135" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
         <v>359.9</v>
@@ -5171,10 +5151,10 @@
         <v>359</v>
       </c>
       <c r="F136" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G136" t="n">
-        <v>359.8666666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5194,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G137" t="n">
-        <v>359.9166666666667</v>
+        <v>359.8666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5229,19 +5209,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>359.9166666666667</v>
@@ -5264,19 +5244,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C139" t="n">
         <v>359</v>
       </c>
       <c r="D139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E139" t="n">
         <v>359</v>
       </c>
       <c r="F139" t="n">
-        <v>76.1075</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>359.9166666666667</v>
@@ -5299,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D140" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F140" t="n">
-        <v>24.1377</v>
+        <v>76.1075</v>
       </c>
       <c r="G140" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5334,19 +5314,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C141" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D141" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E141" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F141" t="n">
-        <v>3173.0918</v>
+        <v>24.1377</v>
       </c>
       <c r="G141" t="n">
         <v>359.9333333333333</v>
@@ -5381,7 +5361,7 @@
         <v>359</v>
       </c>
       <c r="F142" t="n">
-        <v>2911.9999</v>
+        <v>3173.0918</v>
       </c>
       <c r="G142" t="n">
         <v>359.9333333333333</v>
@@ -5407,19 +5387,19 @@
         <v>360</v>
       </c>
       <c r="C143" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D143" t="n">
         <v>360</v>
       </c>
       <c r="E143" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2911.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>359.95</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5439,19 +5419,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F144" t="n">
-        <v>425.9592</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>359.95</v>
@@ -5474,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>425.9592</v>
       </c>
       <c r="G145" t="n">
-        <v>359.9833333333333</v>
+        <v>359.95</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5509,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F146" t="n">
-        <v>393.6402</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>359.9666666666666</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5544,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>393.6402</v>
       </c>
       <c r="G147" t="n">
-        <v>360</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5591,10 +5571,10 @@
         <v>360</v>
       </c>
       <c r="F148" t="n">
-        <v>1.3777</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>360.0333333333334</v>
+        <v>360</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5626,10 +5606,10 @@
         <v>360</v>
       </c>
       <c r="F149" t="n">
-        <v>99</v>
+        <v>1.3777</v>
       </c>
       <c r="G149" t="n">
-        <v>360.0166666666667</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5661,10 +5641,10 @@
         <v>360</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G150" t="n">
-        <v>360</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5684,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F151" t="n">
-        <v>746.1553</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>359.9666666666666</v>
+        <v>360</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5714,6 +5694,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>359</v>
+      </c>
+      <c r="C152" t="n">
+        <v>359</v>
+      </c>
+      <c r="D152" t="n">
+        <v>359</v>
+      </c>
+      <c r="E152" t="n">
+        <v>359</v>
+      </c>
+      <c r="F152" t="n">
+        <v>746.1553</v>
+      </c>
+      <c r="G152" t="n">
+        <v>359.9666666666666</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1085.0043</v>
       </c>
       <c r="G2" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>360.7333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>604.9766</v>
       </c>
       <c r="G3" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>360.6333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>731.0111000000001</v>
       </c>
       <c r="G4" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>360.5666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1075</v>
       </c>
       <c r="G5" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>360.5333333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1002</v>
       </c>
       <c r="G6" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>360.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>546.3169</v>
       </c>
       <c r="G7" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>360.4666666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>754.9471</v>
       </c>
       <c r="G8" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>360.4166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>115.4598</v>
       </c>
       <c r="G9" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>360.3666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1000</v>
       </c>
       <c r="G10" t="n">
+        <v>359.3333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>360.3166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1042.3834</v>
       </c>
       <c r="G11" t="n">
+        <v>359.3333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>360.2333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>359.4666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>360.2333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1.1819</v>
       </c>
       <c r="G13" t="n">
+        <v>359.4666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>360.1666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="H14" t="n">
         <v>360.1666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>543.1654</v>
       </c>
       <c r="G15" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>360.1666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>502.1819</v>
       </c>
       <c r="G16" t="n">
+        <v>359.7333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>360.1333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>360.1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>55</v>
       </c>
       <c r="G18" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>360.05</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4231.4083</v>
       </c>
       <c r="G19" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>321.9543</v>
       </c>
       <c r="G20" t="n">
+        <v>359.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>359.9833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>500</v>
       </c>
       <c r="G21" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>359.9</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>300</v>
       </c>
       <c r="G22" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="H22" t="n">
         <v>359.8333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4066.0823</v>
       </c>
       <c r="G23" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>359.7833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>192.1197</v>
       </c>
       <c r="G24" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>359.6666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,25 @@
         <v>3319.0279</v>
       </c>
       <c r="G25" t="n">
+        <v>358.4666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>359.5833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>356</v>
+      </c>
+      <c r="L25" t="n">
+        <v>356</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1369,29 @@
         <v>1444</v>
       </c>
       <c r="G26" t="n">
+        <v>358.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>359.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>356</v>
+      </c>
+      <c r="L26" t="n">
+        <v>356</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1415,29 @@
         <v>7656.81</v>
       </c>
       <c r="G27" t="n">
+        <v>357.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>359.3833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>357</v>
+      </c>
+      <c r="L27" t="n">
+        <v>356</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1461,29 @@
         <v>1193.114</v>
       </c>
       <c r="G28" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>359.3</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>355</v>
+      </c>
+      <c r="L28" t="n">
+        <v>356</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1507,29 @@
         <v>18.778</v>
       </c>
       <c r="G29" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>359.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>357</v>
+      </c>
+      <c r="L29" t="n">
+        <v>356</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1553,29 @@
         <v>3220</v>
       </c>
       <c r="G30" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>359.1333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>357</v>
+      </c>
+      <c r="L30" t="n">
+        <v>356</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1599,27 @@
         <v>3044.7141</v>
       </c>
       <c r="G31" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>359.0833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>356</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1643,27 @@
         <v>896.6629</v>
       </c>
       <c r="G32" t="n">
+        <v>357.4666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>359.0666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>356</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1687,29 @@
         <v>2128.9233</v>
       </c>
       <c r="G33" t="n">
-        <v>359</v>
+        <v>357.3333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>359</v>
+      </c>
+      <c r="L33" t="n">
+        <v>356</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1733,29 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>358.9666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>356</v>
+      </c>
+      <c r="L34" t="n">
+        <v>356</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1779,29 @@
         <v>1962.8919</v>
       </c>
       <c r="G35" t="n">
+        <v>357.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>358.9166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>358</v>
+      </c>
+      <c r="L35" t="n">
+        <v>356</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1825,29 @@
         <v>635.2785</v>
       </c>
       <c r="G36" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="H36" t="n">
         <v>358.9</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>359</v>
+      </c>
+      <c r="L36" t="n">
+        <v>356</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1871,29 @@
         <v>10693.248</v>
       </c>
       <c r="G37" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="H37" t="n">
         <v>358.8666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>359</v>
+      </c>
+      <c r="L37" t="n">
+        <v>356</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1917,29 @@
         <v>5269.4075</v>
       </c>
       <c r="G38" t="n">
+        <v>357.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>358.85</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>360</v>
+      </c>
+      <c r="L38" t="n">
+        <v>356</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1963,27 @@
         <v>1.1818</v>
       </c>
       <c r="G39" t="n">
+        <v>358.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>358.8666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>356</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2007,27 @@
         <v>2476.1537</v>
       </c>
       <c r="G40" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="H40" t="n">
         <v>358.9</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>356</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2051,29 @@
         <v>4048.62222458</v>
       </c>
       <c r="G41" t="n">
+        <v>358.7333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>358.9166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>360</v>
+      </c>
+      <c r="L41" t="n">
+        <v>356</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2097,27 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>358.9833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>356</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2141,27 @@
         <v>1831.98789311</v>
       </c>
       <c r="G43" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>359.0666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>356</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2185,27 @@
         <v>3445.77961432</v>
       </c>
       <c r="G44" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>359.15</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>356</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2229,27 @@
         <v>5494.5054945</v>
       </c>
       <c r="G45" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>359.25</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>356</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2273,27 @@
         <v>927.4065000000001</v>
       </c>
       <c r="G46" t="n">
+        <v>360.7333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>359.3</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>356</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,19 +2317,28 @@
         <v>24.4823</v>
       </c>
       <c r="G47" t="n">
+        <v>360.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>359.35</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
+      <c r="L47" t="n">
+        <v>356</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1.01185393258427</v>
       </c>
     </row>
     <row r="48">
@@ -2058,18 +2361,21 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>361.3333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>359.4</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2399,21 @@
         <v>2.7673</v>
       </c>
       <c r="G49" t="n">
+        <v>361.5333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>359.4166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2437,21 @@
         <v>165.7978</v>
       </c>
       <c r="G50" t="n">
+        <v>361.7333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>359.45</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2475,21 @@
         <v>245.9999</v>
       </c>
       <c r="G51" t="n">
+        <v>361.8</v>
+      </c>
+      <c r="H51" t="n">
         <v>359.4666666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2513,21 @@
         <v>148.2026</v>
       </c>
       <c r="G52" t="n">
+        <v>361.8666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>359.4833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2551,21 @@
         <v>1483.181</v>
       </c>
       <c r="G53" t="n">
+        <v>361.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>359.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2589,21 @@
         <v>137.0562</v>
       </c>
       <c r="G54" t="n">
+        <v>362</v>
+      </c>
+      <c r="H54" t="n">
         <v>359.55</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2627,21 @@
         <v>528</v>
       </c>
       <c r="G55" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="H55" t="n">
         <v>359.6</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2665,21 @@
         <v>37.162</v>
       </c>
       <c r="G56" t="n">
+        <v>362.0666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>359.6166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2703,21 @@
         <v>35.5532</v>
       </c>
       <c r="G57" t="n">
+        <v>361.9333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>359.65</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2741,21 @@
         <v>161.55</v>
       </c>
       <c r="G58" t="n">
+        <v>361.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>359.6666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2779,21 @@
         <v>163.2658</v>
       </c>
       <c r="G59" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>359.7</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2817,21 @@
         <v>1291.8739</v>
       </c>
       <c r="G60" t="n">
+        <v>361.3333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>359.7333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2855,21 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="H61" t="n">
         <v>359.8</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2893,21 @@
         <v>280</v>
       </c>
       <c r="G62" t="n">
+        <v>361.0666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>359.8166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2931,21 @@
         <v>2997.9999</v>
       </c>
       <c r="G63" t="n">
+        <v>361.0666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>359.8833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2969,21 @@
         <v>140.1444</v>
       </c>
       <c r="G64" t="n">
+        <v>361</v>
+      </c>
+      <c r="H64" t="n">
         <v>359.8833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3007,21 @@
         <v>660</v>
       </c>
       <c r="G65" t="n">
+        <v>361</v>
+      </c>
+      <c r="H65" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3045,21 @@
         <v>234.0368</v>
       </c>
       <c r="G66" t="n">
+        <v>361</v>
+      </c>
+      <c r="H66" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3083,21 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
+        <v>361.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>359.9833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3121,21 @@
         <v>172.7799</v>
       </c>
       <c r="G68" t="n">
+        <v>361.0666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3159,21 @@
         <v>178</v>
       </c>
       <c r="G69" t="n">
+        <v>360.8666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>359.95</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3197,21 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="H70" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3235,21 @@
         <v>3064.7302</v>
       </c>
       <c r="G71" t="n">
+        <v>360.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3273,21 @@
         <v>225.0717</v>
       </c>
       <c r="G72" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H72" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3311,21 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
+        <v>360.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>359.9833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3349,21 @@
         <v>3109.7679558</v>
       </c>
       <c r="G74" t="n">
-        <v>360</v>
+        <v>360.8</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3387,21 @@
         <v>22.6882</v>
       </c>
       <c r="G75" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>360.0166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3425,21 @@
         <v>1395</v>
       </c>
       <c r="G76" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H76" t="n">
         <v>360.0166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3463,21 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
+        <v>360.6666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3501,21 @@
         <v>1899.7177</v>
       </c>
       <c r="G78" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="H78" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3539,21 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
+        <v>360.3333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>360.0166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3577,21 @@
         <v>51.07</v>
       </c>
       <c r="G80" t="n">
+        <v>360.1333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3615,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>360.1333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>360.0833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3653,21 @@
         <v>387.4581</v>
       </c>
       <c r="G82" t="n">
+        <v>359.9333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>360.1166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3691,21 @@
         <v>300</v>
       </c>
       <c r="G83" t="n">
+        <v>359.8666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>360.15</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3729,21 @@
         <v>754.6732</v>
       </c>
       <c r="G84" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>360.2</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3767,21 @@
         <v>221.6</v>
       </c>
       <c r="G85" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="H85" t="n">
         <v>360.25</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3805,21 @@
         <v>52.8897</v>
       </c>
       <c r="G86" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>360.2666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3843,21 @@
         <v>23.2664</v>
       </c>
       <c r="G87" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>360.3333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3881,21 @@
         <v>252.97</v>
       </c>
       <c r="G88" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>360.35</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3919,21 @@
         <v>635.7919000000001</v>
       </c>
       <c r="G89" t="n">
+        <v>359</v>
+      </c>
+      <c r="H89" t="n">
         <v>360.3666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,22 +3957,21 @@
         <v>2019.4653</v>
       </c>
       <c r="G90" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>360.4</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>358</v>
-      </c>
-      <c r="K90" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3567,24 +3995,21 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>360.4333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>358</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,24 +4033,21 @@
         <v>354.0166</v>
       </c>
       <c r="G92" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>360.4666666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>358</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4071,21 @@
         <v>14</v>
       </c>
       <c r="G93" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>360.55</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4109,21 @@
         <v>8398.0321</v>
       </c>
       <c r="G94" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="H94" t="n">
         <v>360.6166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4147,21 @@
         <v>24.2655</v>
       </c>
       <c r="G95" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>360.6333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4185,21 @@
         <v>917.3861000000001</v>
       </c>
       <c r="G96" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>360.65</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4223,21 @@
         <v>1970.3388</v>
       </c>
       <c r="G97" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H97" t="n">
         <v>360.6666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4261,21 @@
         <v>5472.5353</v>
       </c>
       <c r="G98" t="n">
+        <v>359.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>360.6666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4299,21 @@
         <v>60</v>
       </c>
       <c r="G99" t="n">
+        <v>360</v>
+      </c>
+      <c r="H99" t="n">
         <v>360.6666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4337,21 @@
         <v>8758.248100000001</v>
       </c>
       <c r="G100" t="n">
+        <v>360.2666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>360.7166666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4375,21 @@
         <v>1784.3618</v>
       </c>
       <c r="G101" t="n">
+        <v>360.5333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>360.7166666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4413,21 @@
         <v>2565.4407</v>
       </c>
       <c r="G102" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>360.7166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4451,21 @@
         <v>270.8815</v>
       </c>
       <c r="G103" t="n">
+        <v>361.1333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>360.7166666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4489,21 @@
         <v>398.9476</v>
       </c>
       <c r="G104" t="n">
+        <v>361.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>360.7166666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4527,21 @@
         <v>2777.7777</v>
       </c>
       <c r="G105" t="n">
+        <v>361.4666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>360.6666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4565,21 @@
         <v>270.2043</v>
       </c>
       <c r="G106" t="n">
+        <v>361.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>360.6</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4603,21 @@
         <v>205.0404</v>
       </c>
       <c r="G107" t="n">
+        <v>361.3333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>360.5666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4641,21 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
+        <v>361.3333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>360.55</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4679,21 @@
         <v>5951.5441</v>
       </c>
       <c r="G109" t="n">
+        <v>361.2666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>360.55</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4717,21 @@
         <v>4230.7891</v>
       </c>
       <c r="G110" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>360.5</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4755,21 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
+        <v>361.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>360.5166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4793,21 @@
         <v>2.159</v>
       </c>
       <c r="G112" t="n">
+        <v>361.1333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>360.4833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4831,21 @@
         <v>4991.7239</v>
       </c>
       <c r="G113" t="n">
+        <v>361</v>
+      </c>
+      <c r="H113" t="n">
         <v>360.4666666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4869,21 @@
         <v>79.92870000000001</v>
       </c>
       <c r="G114" t="n">
+        <v>360.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>360.3833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4907,21 @@
         <v>13724.3553</v>
       </c>
       <c r="G115" t="n">
+        <v>360.5333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>360.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4945,21 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>360.3</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4983,21 @@
         <v>1686.9759</v>
       </c>
       <c r="G117" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>360.25</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5021,21 @@
         <v>370.2049</v>
       </c>
       <c r="G118" t="n">
+        <v>359.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>360.2166666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5059,21 @@
         <v>40.7455</v>
       </c>
       <c r="G119" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="H119" t="n">
         <v>360.1666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5097,21 @@
         <v>123.453</v>
       </c>
       <c r="G120" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>360.15</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5135,21 @@
         <v>449</v>
       </c>
       <c r="G121" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H121" t="n">
         <v>360.1</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5173,21 @@
         <v>3000</v>
       </c>
       <c r="G122" t="n">
+        <v>359</v>
+      </c>
+      <c r="H122" t="n">
         <v>360.05</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5211,21 @@
         <v>130</v>
       </c>
       <c r="G123" t="n">
-        <v>360</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5249,21 @@
         <v>1056.7848</v>
       </c>
       <c r="G124" t="n">
+        <v>358.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>359.9833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5287,21 @@
         <v>3513.4322</v>
       </c>
       <c r="G125" t="n">
+        <v>358.7333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5325,21 @@
         <v>2702.2486</v>
       </c>
       <c r="G126" t="n">
+        <v>358.6666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5363,21 @@
         <v>1947.5111</v>
       </c>
       <c r="G127" t="n">
+        <v>358.7333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>359.9</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5401,21 @@
         <v>596.0362</v>
       </c>
       <c r="G128" t="n">
+        <v>358.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5439,21 @@
         <v>1110.238</v>
       </c>
       <c r="G129" t="n">
+        <v>359</v>
+      </c>
+      <c r="H129" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5477,21 @@
         <v>3.7624</v>
       </c>
       <c r="G130" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H130" t="n">
         <v>359.9</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5515,21 @@
         <v>1399.5899</v>
       </c>
       <c r="G131" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5553,21 @@
         <v>0.0001</v>
       </c>
       <c r="G132" t="n">
+        <v>359.3333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5591,21 @@
         <v>37.6888</v>
       </c>
       <c r="G133" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5629,21 @@
         <v>4315.9733</v>
       </c>
       <c r="G134" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>359.8833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5667,21 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>359.9</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5705,21 @@
         <v>170</v>
       </c>
       <c r="G136" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>359.9</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5743,21 @@
         <v>180</v>
       </c>
       <c r="G137" t="n">
+        <v>359.9333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>359.8666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5781,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5819,21 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5857,21 @@
         <v>76.1075</v>
       </c>
       <c r="G140" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5895,21 @@
         <v>24.1377</v>
       </c>
       <c r="G141" t="n">
+        <v>360.1333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5933,21 @@
         <v>3173.0918</v>
       </c>
       <c r="G142" t="n">
+        <v>360.0666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>359.9333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,15 +5974,18 @@
         <v>359.9333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6009,21 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
+        <v>359.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>359.95</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6047,21 @@
         <v>425.9592</v>
       </c>
       <c r="G145" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>359.95</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6085,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="H146" t="n">
         <v>359.9833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6123,21 @@
         <v>393.6402</v>
       </c>
       <c r="G147" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6161,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>360</v>
+        <v>359.6</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6199,21 @@
         <v>1.3777</v>
       </c>
       <c r="G149" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="H149" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6237,21 @@
         <v>99</v>
       </c>
       <c r="G150" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>360.0166666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6275,21 @@
         <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>360</v>
+        <v>359.6</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6313,425 @@
         <v>746.1553</v>
       </c>
       <c r="G152" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>359</v>
+      </c>
+      <c r="C153" t="n">
+        <v>359</v>
+      </c>
+      <c r="D153" t="n">
+        <v>359</v>
+      </c>
+      <c r="E153" t="n">
+        <v>359</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1081.3876</v>
+      </c>
+      <c r="G153" t="n">
+        <v>359.4666666666666</v>
+      </c>
+      <c r="H153" t="n">
+        <v>359.9333333333333</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>359</v>
+      </c>
+      <c r="C154" t="n">
+        <v>359</v>
+      </c>
+      <c r="D154" t="n">
+        <v>359</v>
+      </c>
+      <c r="E154" t="n">
+        <v>359</v>
+      </c>
+      <c r="F154" t="n">
+        <v>86</v>
+      </c>
+      <c r="G154" t="n">
+        <v>359.4666666666666</v>
+      </c>
+      <c r="H154" t="n">
+        <v>359.8833333333333</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>358</v>
+      </c>
+      <c r="C155" t="n">
+        <v>358</v>
+      </c>
+      <c r="D155" t="n">
+        <v>358</v>
+      </c>
+      <c r="E155" t="n">
+        <v>358</v>
+      </c>
+      <c r="F155" t="n">
+        <v>505.7204</v>
+      </c>
+      <c r="G155" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="H155" t="n">
+        <v>359.85</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>359</v>
+      </c>
+      <c r="C156" t="n">
+        <v>359</v>
+      </c>
+      <c r="D156" t="n">
+        <v>359</v>
+      </c>
+      <c r="E156" t="n">
+        <v>359</v>
+      </c>
+      <c r="F156" t="n">
+        <v>102.7993</v>
+      </c>
+      <c r="G156" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>359.8333333333333</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>359</v>
+      </c>
+      <c r="C157" t="n">
+        <v>359</v>
+      </c>
+      <c r="D157" t="n">
+        <v>359</v>
+      </c>
+      <c r="E157" t="n">
+        <v>359</v>
+      </c>
+      <c r="F157" t="n">
+        <v>916.0468</v>
+      </c>
+      <c r="G157" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H157" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>359</v>
+      </c>
+      <c r="C158" t="n">
+        <v>359</v>
+      </c>
+      <c r="D158" t="n">
+        <v>359</v>
+      </c>
+      <c r="E158" t="n">
+        <v>359</v>
+      </c>
+      <c r="F158" t="n">
+        <v>711.4961</v>
+      </c>
+      <c r="G158" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>359.7666666666667</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>359</v>
+      </c>
+      <c r="C159" t="n">
+        <v>358</v>
+      </c>
+      <c r="D159" t="n">
+        <v>359</v>
+      </c>
+      <c r="E159" t="n">
+        <v>358</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5756.716</v>
+      </c>
+      <c r="G159" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>359.7333333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>359</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>358</v>
+      </c>
+      <c r="C160" t="n">
+        <v>358</v>
+      </c>
+      <c r="D160" t="n">
+        <v>358</v>
+      </c>
+      <c r="E160" t="n">
+        <v>358</v>
+      </c>
+      <c r="F160" t="n">
+        <v>600</v>
+      </c>
+      <c r="G160" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>359.65</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>358</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>359</v>
+      </c>
+      <c r="C161" t="n">
+        <v>360</v>
+      </c>
+      <c r="D161" t="n">
+        <v>360</v>
+      </c>
+      <c r="E161" t="n">
+        <v>359</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H161" t="n">
+        <v>359.6166666666667</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>358</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>360</v>
+      </c>
+      <c r="C162" t="n">
+        <v>361</v>
+      </c>
+      <c r="D162" t="n">
+        <v>361</v>
+      </c>
+      <c r="E162" t="n">
+        <v>360</v>
+      </c>
+      <c r="F162" t="n">
+        <v>263.3646</v>
+      </c>
+      <c r="G162" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H162" t="n">
+        <v>359.5833333333333</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>360</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F2" t="n">
-        <v>1085.0043</v>
+        <v>2880</v>
       </c>
       <c r="G2" t="n">
-        <v>359.2</v>
+        <v>-58803.62261111999</v>
       </c>
       <c r="H2" t="n">
-        <v>360.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C3" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E3" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F3" t="n">
-        <v>604.9766</v>
+        <v>1513.8684</v>
       </c>
       <c r="G3" t="n">
-        <v>359.1333333333333</v>
+        <v>-58803.62261111999</v>
       </c>
       <c r="H3" t="n">
-        <v>360.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E4" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F4" t="n">
-        <v>731.0111000000001</v>
+        <v>3.3016</v>
       </c>
       <c r="G4" t="n">
-        <v>359.1333333333333</v>
+        <v>-58800.32101112</v>
       </c>
       <c r="H4" t="n">
-        <v>360.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D5" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F5" t="n">
-        <v>1075</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>359.0666666666667</v>
+        <v>-68800.32101111999</v>
       </c>
       <c r="H5" t="n">
-        <v>360.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E6" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F6" t="n">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>359.1333333333333</v>
+        <v>-68799.32101111999</v>
       </c>
       <c r="H6" t="n">
-        <v>360.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C7" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D7" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E7" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>546.3169</v>
+        <v>947.9256</v>
       </c>
       <c r="G7" t="n">
-        <v>359.0666666666667</v>
+        <v>-68799.32101111999</v>
       </c>
       <c r="H7" t="n">
-        <v>360.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -669,33 +646,30 @@
         <v>360</v>
       </c>
       <c r="C8" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D8" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E8" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F8" t="n">
-        <v>754.9471</v>
+        <v>3635.6043</v>
       </c>
       <c r="G8" t="n">
-        <v>359.2</v>
+        <v>-72434.92531111999</v>
       </c>
       <c r="H8" t="n">
-        <v>360.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C9" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D9" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E9" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F9" t="n">
-        <v>115.4598</v>
+        <v>10000.3183</v>
       </c>
       <c r="G9" t="n">
-        <v>359.2666666666667</v>
+        <v>-82435.24361111999</v>
       </c>
       <c r="H9" t="n">
-        <v>360.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,24 +725,21 @@
         <v>361</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>359.3333333333333</v>
+        <v>-82434.24361111999</v>
       </c>
       <c r="H10" t="n">
-        <v>360.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C11" t="n">
         <v>359</v>
       </c>
       <c r="D11" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" t="n">
         <v>359</v>
       </c>
       <c r="F11" t="n">
-        <v>1042.3834</v>
+        <v>99.4699</v>
       </c>
       <c r="G11" t="n">
-        <v>359.3333333333333</v>
+        <v>-82533.71351111999</v>
       </c>
       <c r="H11" t="n">
-        <v>360.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D12" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E12" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="G12" t="n">
-        <v>359.4666666666666</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H12" t="n">
-        <v>360.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C13" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D13" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E13" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1819</v>
+        <v>1908.8833</v>
       </c>
       <c r="G13" t="n">
-        <v>359.4666666666666</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H13" t="n">
-        <v>360.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C14" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D14" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>548</v>
       </c>
       <c r="G14" t="n">
-        <v>359.6</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H14" t="n">
-        <v>360.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -935,33 +891,30 @@
         <v>360</v>
       </c>
       <c r="C15" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D15" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E15" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F15" t="n">
-        <v>543.1654</v>
+        <v>19.6022</v>
       </c>
       <c r="G15" t="n">
-        <v>359.6666666666667</v>
+        <v>-82603.11131112</v>
       </c>
       <c r="H15" t="n">
-        <v>360.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C16" t="n">
         <v>359</v>
       </c>
       <c r="D16" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E16" t="n">
         <v>359</v>
       </c>
       <c r="F16" t="n">
-        <v>502.1819</v>
+        <v>45.5081</v>
       </c>
       <c r="G16" t="n">
-        <v>359.7333333333333</v>
+        <v>-82648.61941112</v>
       </c>
       <c r="H16" t="n">
-        <v>360.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D17" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>1187.4232</v>
       </c>
       <c r="G17" t="n">
-        <v>359.8</v>
+        <v>-82648.61941112</v>
       </c>
       <c r="H17" t="n">
-        <v>360.1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C18" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D18" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E18" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>359.8</v>
+        <v>-82647.61941112</v>
       </c>
       <c r="H18" t="n">
-        <v>360.05</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C19" t="n">
         <v>360</v>
@@ -1093,27 +1037,24 @@
         <v>360</v>
       </c>
       <c r="E19" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F19" t="n">
-        <v>4231.4083</v>
+        <v>1736</v>
       </c>
       <c r="G19" t="n">
-        <v>359.8</v>
+        <v>-82647.61941112</v>
       </c>
       <c r="H19" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C20" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D20" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E20" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F20" t="n">
-        <v>321.9543</v>
+        <v>249.6355</v>
       </c>
       <c r="G20" t="n">
-        <v>359.7333333333333</v>
+        <v>-82897.25491112001</v>
       </c>
       <c r="H20" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C21" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D21" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E21" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>359.5333333333334</v>
+        <v>-82896.25491112001</v>
       </c>
       <c r="H21" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C22" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D22" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E22" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>335.8521</v>
       </c>
       <c r="G22" t="n">
-        <v>359.4</v>
+        <v>-83232.10701112001</v>
       </c>
       <c r="H22" t="n">
-        <v>359.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C23" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D23" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E23" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F23" t="n">
-        <v>4066.0823</v>
+        <v>6442.7894</v>
       </c>
       <c r="G23" t="n">
-        <v>359.1333333333333</v>
+        <v>-76789.31761112002</v>
       </c>
       <c r="H23" t="n">
-        <v>359.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C24" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D24" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E24" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F24" t="n">
-        <v>192.1197</v>
+        <v>695.9731</v>
       </c>
       <c r="G24" t="n">
-        <v>358.8</v>
+        <v>-76789.31761112002</v>
       </c>
       <c r="H24" t="n">
-        <v>359.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C25" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D25" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E25" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F25" t="n">
-        <v>3319.0279</v>
+        <v>908.6306</v>
       </c>
       <c r="G25" t="n">
-        <v>358.4666666666666</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H25" t="n">
-        <v>359.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>356</v>
-      </c>
-      <c r="L25" t="n">
-        <v>356</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,44 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C26" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D26" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E26" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F26" t="n">
-        <v>1444</v>
+        <v>1941.0938</v>
       </c>
       <c r="G26" t="n">
-        <v>358.3333333333333</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H26" t="n">
-        <v>359.5</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>356</v>
-      </c>
-      <c r="L26" t="n">
-        <v>356</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,44 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C27" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D27" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E27" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F27" t="n">
-        <v>7656.81</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>357.9333333333333</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H27" t="n">
-        <v>359.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>357</v>
-      </c>
-      <c r="L27" t="n">
-        <v>356</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,44 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D28" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E28" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F28" t="n">
-        <v>1193.114</v>
+        <v>2829.2687</v>
       </c>
       <c r="G28" t="n">
-        <v>357.8</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H28" t="n">
-        <v>359.3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>355</v>
-      </c>
-      <c r="L28" t="n">
-        <v>356</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,44 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C29" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D29" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E29" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F29" t="n">
-        <v>18.778</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>357.5333333333334</v>
+        <v>-79697.94821112002</v>
       </c>
       <c r="H29" t="n">
-        <v>359.2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>357</v>
-      </c>
-      <c r="L29" t="n">
-        <v>356</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,44 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C30" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" t="n">
         <v>360</v>
       </c>
       <c r="E30" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F30" t="n">
-        <v>3220</v>
+        <v>373.3362</v>
       </c>
       <c r="G30" t="n">
-        <v>357.5333333333334</v>
+        <v>-79697.94821112002</v>
       </c>
       <c r="H30" t="n">
-        <v>359.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>357</v>
-      </c>
-      <c r="L30" t="n">
-        <v>356</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1593,33 +1457,24 @@
         <v>359</v>
       </c>
       <c r="E31" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F31" t="n">
-        <v>3044.7141</v>
+        <v>1085.0043</v>
       </c>
       <c r="G31" t="n">
-        <v>357.5333333333334</v>
+        <v>-78612.94391112002</v>
       </c>
       <c r="H31" t="n">
-        <v>359.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>356</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,39 +1486,30 @@
         <v>359</v>
       </c>
       <c r="C32" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D32" t="n">
         <v>359</v>
       </c>
       <c r="E32" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F32" t="n">
-        <v>896.6629</v>
+        <v>604.9766</v>
       </c>
       <c r="G32" t="n">
-        <v>357.4666666666666</v>
+        <v>-79217.92051112001</v>
       </c>
       <c r="H32" t="n">
-        <v>359.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>356</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,44 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C33" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D33" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E33" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F33" t="n">
-        <v>2128.9233</v>
+        <v>731.0111000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>357.3333333333333</v>
+        <v>-78486.90941112001</v>
       </c>
       <c r="H33" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>359</v>
-      </c>
-      <c r="L33" t="n">
-        <v>356</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C34" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D34" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E34" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>1075</v>
       </c>
       <c r="G34" t="n">
-        <v>357.2</v>
+        <v>-79561.90941112001</v>
       </c>
       <c r="H34" t="n">
-        <v>358.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>356</v>
-      </c>
-      <c r="L34" t="n">
-        <v>356</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,44 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C35" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D35" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E35" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F35" t="n">
-        <v>1962.8919</v>
+        <v>1002</v>
       </c>
       <c r="G35" t="n">
-        <v>357.2666666666667</v>
+        <v>-78559.90941112001</v>
       </c>
       <c r="H35" t="n">
-        <v>358.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>358</v>
-      </c>
-      <c r="L35" t="n">
-        <v>356</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,44 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C36" t="n">
         <v>359</v>
       </c>
       <c r="D36" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E36" t="n">
         <v>359</v>
       </c>
       <c r="F36" t="n">
-        <v>635.2785</v>
+        <v>546.3169</v>
       </c>
       <c r="G36" t="n">
-        <v>357.4</v>
+        <v>-79106.22631112002</v>
       </c>
       <c r="H36" t="n">
-        <v>358.9</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>359</v>
-      </c>
-      <c r="L36" t="n">
-        <v>356</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1856,44 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D37" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E37" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F37" t="n">
-        <v>10693.248</v>
+        <v>754.9471</v>
       </c>
       <c r="G37" t="n">
-        <v>357.6</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H37" t="n">
-        <v>358.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>359</v>
-      </c>
-      <c r="L37" t="n">
-        <v>356</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,32 +1705,21 @@
         <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>5269.4075</v>
+        <v>115.4598</v>
       </c>
       <c r="G38" t="n">
-        <v>357.8666666666667</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H38" t="n">
-        <v>358.85</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>360</v>
-      </c>
-      <c r="L38" t="n">
-        <v>356</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D39" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E39" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1818</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>358.1333333333333</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H39" t="n">
-        <v>358.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>356</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1995,39 +1766,30 @@
         <v>360</v>
       </c>
       <c r="C40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" t="n">
         <v>360</v>
       </c>
       <c r="E40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F40" t="n">
-        <v>2476.1537</v>
+        <v>1042.3834</v>
       </c>
       <c r="G40" t="n">
-        <v>358.4</v>
+        <v>-79393.66261112002</v>
       </c>
       <c r="H40" t="n">
-        <v>358.9</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>356</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F41" t="n">
-        <v>4048.62222458</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>358.7333333333333</v>
+        <v>-79392.66261112002</v>
       </c>
       <c r="H41" t="n">
-        <v>358.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>360</v>
-      </c>
-      <c r="L41" t="n">
-        <v>356</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C42" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D42" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E42" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.1819</v>
       </c>
       <c r="G42" t="n">
-        <v>359.2666666666667</v>
+        <v>-79393.84451112001</v>
       </c>
       <c r="H42" t="n">
-        <v>358.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>356</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,39 +1871,30 @@
         <v>361</v>
       </c>
       <c r="C43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E43" t="n">
         <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>1831.98789311</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>359.6666666666667</v>
+        <v>-79392.84451112001</v>
       </c>
       <c r="H43" t="n">
-        <v>359.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>356</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,42 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C44" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D44" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E44" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F44" t="n">
-        <v>3445.77961432</v>
+        <v>543.1654</v>
       </c>
       <c r="G44" t="n">
-        <v>360.0666666666667</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H44" t="n">
-        <v>359.15</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>356</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C45" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D45" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E45" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F45" t="n">
-        <v>5494.5054945</v>
+        <v>502.1819</v>
       </c>
       <c r="G45" t="n">
-        <v>360.4</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H45" t="n">
-        <v>359.25</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>356</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,42 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C46" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D46" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E46" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F46" t="n">
-        <v>927.4065000000001</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>360.7333333333333</v>
+        <v>-79935.00991112001</v>
       </c>
       <c r="H46" t="n">
-        <v>359.3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>356</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,43 +2008,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C47" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D47" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E47" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F47" t="n">
-        <v>24.4823</v>
+        <v>55</v>
       </c>
       <c r="G47" t="n">
-        <v>360.9333333333333</v>
+        <v>-79990.00991112001</v>
       </c>
       <c r="H47" t="n">
-        <v>359.35</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>356</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>1.01185393258427</v>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2346,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C48" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D48" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E48" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>4231.4083</v>
       </c>
       <c r="G48" t="n">
-        <v>361.3333333333333</v>
+        <v>-75758.60161112002</v>
       </c>
       <c r="H48" t="n">
-        <v>359.4</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C49" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D49" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E49" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F49" t="n">
-        <v>2.7673</v>
+        <v>321.9543</v>
       </c>
       <c r="G49" t="n">
-        <v>361.5333333333334</v>
+        <v>-76080.55591112001</v>
       </c>
       <c r="H49" t="n">
-        <v>359.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2422,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C50" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E50" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F50" t="n">
-        <v>165.7978</v>
+        <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>361.7333333333333</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H50" t="n">
-        <v>359.45</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C51" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D51" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E51" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F51" t="n">
-        <v>245.9999</v>
+        <v>300</v>
       </c>
       <c r="G51" t="n">
-        <v>361.8</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H51" t="n">
-        <v>359.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C52" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D52" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E52" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F52" t="n">
-        <v>148.2026</v>
+        <v>4066.0823</v>
       </c>
       <c r="G52" t="n">
-        <v>361.8666666666667</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H52" t="n">
-        <v>359.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C53" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D53" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F53" t="n">
-        <v>1483.181</v>
+        <v>192.1197</v>
       </c>
       <c r="G53" t="n">
-        <v>361.8</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H53" t="n">
-        <v>359.5</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C54" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D54" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E54" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F54" t="n">
-        <v>137.0562</v>
+        <v>3319.0279</v>
       </c>
       <c r="G54" t="n">
-        <v>362</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H54" t="n">
-        <v>359.55</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C55" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D55" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E55" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F55" t="n">
-        <v>528</v>
+        <v>1444</v>
       </c>
       <c r="G55" t="n">
-        <v>362.2</v>
+        <v>-75328.67561112001</v>
       </c>
       <c r="H55" t="n">
-        <v>359.6</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,36 +2323,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C56" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D56" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E56" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F56" t="n">
-        <v>37.162</v>
+        <v>7656.81</v>
       </c>
       <c r="G56" t="n">
-        <v>362.0666666666667</v>
+        <v>-82985.48561112001</v>
       </c>
       <c r="H56" t="n">
-        <v>359.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="K56" t="n">
+        <v>357</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,36 +2362,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C57" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D57" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E57" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F57" t="n">
-        <v>35.5532</v>
+        <v>1193.114</v>
       </c>
       <c r="G57" t="n">
-        <v>361.9333333333333</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H57" t="n">
-        <v>359.65</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>357</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,36 +2403,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C58" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D58" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E58" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F58" t="n">
-        <v>161.55</v>
+        <v>18.778</v>
       </c>
       <c r="G58" t="n">
-        <v>361.7333333333333</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H58" t="n">
-        <v>359.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>357</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,36 +2444,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C59" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D59" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E59" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F59" t="n">
-        <v>163.2658</v>
+        <v>3220</v>
       </c>
       <c r="G59" t="n">
-        <v>361.6</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H59" t="n">
-        <v>359.7</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>357</v>
+      </c>
+      <c r="K59" t="n">
+        <v>357</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,36 +2487,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F60" t="n">
-        <v>1291.8739</v>
+        <v>3044.7141</v>
       </c>
       <c r="G60" t="n">
-        <v>361.3333333333333</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H60" t="n">
-        <v>359.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>357</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,36 +2528,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>896.6629</v>
       </c>
       <c r="G61" t="n">
-        <v>361.2</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H61" t="n">
-        <v>359.8</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>359</v>
+      </c>
+      <c r="K61" t="n">
+        <v>357</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,36 +2571,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D62" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F62" t="n">
-        <v>280</v>
+        <v>2128.9233</v>
       </c>
       <c r="G62" t="n">
-        <v>361.0666666666667</v>
+        <v>-80701.29491112</v>
       </c>
       <c r="H62" t="n">
-        <v>359.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>357</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,36 +2612,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C63" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D63" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E63" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F63" t="n">
-        <v>2997.9999</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>361.0666666666667</v>
+        <v>-80700.29491112</v>
       </c>
       <c r="H63" t="n">
-        <v>359.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>356</v>
+      </c>
+      <c r="K63" t="n">
+        <v>357</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,36 +2655,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C64" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D64" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E64" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F64" t="n">
-        <v>140.1444</v>
+        <v>1962.8919</v>
       </c>
       <c r="G64" t="n">
-        <v>361</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H64" t="n">
-        <v>359.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>357</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,36 +2696,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C65" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D65" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E65" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F65" t="n">
-        <v>660</v>
+        <v>635.2785</v>
       </c>
       <c r="G65" t="n">
-        <v>361</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H65" t="n">
-        <v>359.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>359</v>
+      </c>
+      <c r="K65" t="n">
+        <v>357</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,36 +2739,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C66" t="n">
         <v>360</v>
       </c>
       <c r="D66" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E66" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F66" t="n">
-        <v>234.0368</v>
+        <v>10693.248</v>
       </c>
       <c r="G66" t="n">
-        <v>361</v>
+        <v>-68044.15501111999</v>
       </c>
       <c r="H66" t="n">
-        <v>359.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>359</v>
+      </c>
+      <c r="K66" t="n">
+        <v>357</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,36 +2782,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D67" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>5269.4075</v>
       </c>
       <c r="G67" t="n">
-        <v>361.0666666666667</v>
+        <v>-62774.74751111999</v>
       </c>
       <c r="H67" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>357</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,24 +2835,27 @@
         <v>360</v>
       </c>
       <c r="F68" t="n">
-        <v>172.7799</v>
+        <v>1.1818</v>
       </c>
       <c r="G68" t="n">
-        <v>361.0666666666667</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H68" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>357</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,24 +2876,27 @@
         <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>178</v>
+        <v>2476.1537</v>
       </c>
       <c r="G69" t="n">
-        <v>360.8666666666667</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H69" t="n">
-        <v>359.95</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>357</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,7 +2905,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C70" t="n">
         <v>362</v>
@@ -3191,27 +2914,30 @@
         <v>362</v>
       </c>
       <c r="E70" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>4048.62222458</v>
       </c>
       <c r="G70" t="n">
-        <v>360.8</v>
+        <v>-58727.30708653999</v>
       </c>
       <c r="H70" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>357</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,36 +2946,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C71" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D71" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E71" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F71" t="n">
-        <v>3064.7302</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>360.7333333333333</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H71" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>357</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,36 +2987,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C72" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D72" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F72" t="n">
-        <v>225.0717</v>
+        <v>1831.98789311</v>
       </c>
       <c r="G72" t="n">
-        <v>360.6</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H72" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>357</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,36 +3028,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C73" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D73" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E73" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>3445.77961432</v>
       </c>
       <c r="G73" t="n">
-        <v>360.7333333333333</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H73" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>357</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,36 +3069,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C74" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D74" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E74" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F74" t="n">
-        <v>3109.7679558</v>
+        <v>5494.5054945</v>
       </c>
       <c r="G74" t="n">
-        <v>360.8</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H74" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>357</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,36 +3110,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C75" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D75" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E75" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F75" t="n">
-        <v>22.6882</v>
+        <v>927.4065000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>360.8</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H75" t="n">
-        <v>360.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>357</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,36 +3151,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C76" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D76" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E76" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F76" t="n">
-        <v>1395</v>
+        <v>24.4823</v>
       </c>
       <c r="G76" t="n">
-        <v>360.6</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H76" t="n">
-        <v>360.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>357</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3448,36 +3192,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C77" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D77" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E77" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>360.6666666666667</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H77" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>357</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3486,36 +3233,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C78" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D78" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E78" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F78" t="n">
-        <v>1899.7177</v>
+        <v>2.7673</v>
       </c>
       <c r="G78" t="n">
-        <v>360.4</v>
+        <v>-53259.05119203999</v>
       </c>
       <c r="H78" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>357</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,36 +3274,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C79" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D79" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E79" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>165.7978</v>
       </c>
       <c r="G79" t="n">
-        <v>360.3333333333333</v>
+        <v>-53093.25339203999</v>
       </c>
       <c r="H79" t="n">
-        <v>360.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>357</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,36 +3315,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C80" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D80" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E80" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F80" t="n">
-        <v>51.07</v>
+        <v>245.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>360.1333333333333</v>
+        <v>-53339.25329203999</v>
       </c>
       <c r="H80" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>357</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,36 +3356,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C81" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D81" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E81" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>148.2026</v>
       </c>
       <c r="G81" t="n">
-        <v>360.1333333333333</v>
+        <v>-53191.05069203999</v>
       </c>
       <c r="H81" t="n">
-        <v>360.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>357</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,36 +3397,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F82" t="n">
-        <v>387.4581</v>
+        <v>1483.181</v>
       </c>
       <c r="G82" t="n">
-        <v>359.9333333333333</v>
+        <v>-54674.23169203999</v>
       </c>
       <c r="H82" t="n">
-        <v>360.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>357</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,36 +3438,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C83" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D83" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E83" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>137.0562</v>
       </c>
       <c r="G83" t="n">
-        <v>359.8666666666667</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H83" t="n">
-        <v>360.15</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>357</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,36 +3479,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C84" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D84" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E84" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F84" t="n">
-        <v>754.6732</v>
+        <v>528</v>
       </c>
       <c r="G84" t="n">
-        <v>359.8</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H84" t="n">
-        <v>360.2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>357</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,36 +3520,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C85" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D85" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E85" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F85" t="n">
-        <v>221.6</v>
+        <v>37.162</v>
       </c>
       <c r="G85" t="n">
-        <v>359.6</v>
+        <v>-54574.33749203999</v>
       </c>
       <c r="H85" t="n">
-        <v>360.25</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>357</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,36 +3561,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C86" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D86" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E86" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F86" t="n">
-        <v>52.8897</v>
+        <v>35.5532</v>
       </c>
       <c r="G86" t="n">
-        <v>359.5333333333334</v>
+        <v>-54538.78429203999</v>
       </c>
       <c r="H86" t="n">
-        <v>360.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>357</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,36 +3602,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C87" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D87" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E87" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F87" t="n">
-        <v>23.2664</v>
+        <v>161.55</v>
       </c>
       <c r="G87" t="n">
-        <v>359.5333333333334</v>
+        <v>-54700.33429203999</v>
       </c>
       <c r="H87" t="n">
-        <v>360.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>357</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,36 +3643,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C88" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D88" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E88" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F88" t="n">
-        <v>252.97</v>
+        <v>163.2658</v>
       </c>
       <c r="G88" t="n">
-        <v>359.2666666666667</v>
+        <v>-54537.06849203999</v>
       </c>
       <c r="H88" t="n">
-        <v>360.35</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>357</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,36 +3684,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C89" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D89" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E89" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F89" t="n">
-        <v>635.7919000000001</v>
+        <v>1291.8739</v>
       </c>
       <c r="G89" t="n">
-        <v>359</v>
+        <v>-55828.94239203999</v>
       </c>
       <c r="H89" t="n">
-        <v>360.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>357</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,36 +3725,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C90" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D90" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E90" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F90" t="n">
-        <v>2019.4653</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>359.0666666666667</v>
+        <v>-55827.94239203999</v>
       </c>
       <c r="H90" t="n">
-        <v>360.4</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>357</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,36 +3766,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C91" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D91" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E91" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G91" t="n">
-        <v>359.2</v>
+        <v>-56107.94239203999</v>
       </c>
       <c r="H91" t="n">
-        <v>360.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>357</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,36 +3807,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C92" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D92" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E92" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F92" t="n">
-        <v>354.0166</v>
+        <v>2997.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>359.2</v>
+        <v>-53109.94249203998</v>
       </c>
       <c r="H92" t="n">
-        <v>360.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>357</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,36 +3848,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C93" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D93" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E93" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>140.1444</v>
       </c>
       <c r="G93" t="n">
-        <v>359.4</v>
+        <v>-53250.08689203998</v>
       </c>
       <c r="H93" t="n">
-        <v>360.55</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>357</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,7 +3889,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C94" t="n">
         <v>362</v>
@@ -4103,27 +3898,30 @@
         <v>362</v>
       </c>
       <c r="E94" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F94" t="n">
-        <v>8398.0321</v>
+        <v>660</v>
       </c>
       <c r="G94" t="n">
-        <v>359.6</v>
+        <v>-52590.08689203998</v>
       </c>
       <c r="H94" t="n">
-        <v>360.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>357</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,36 +3930,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C95" t="n">
         <v>360</v>
       </c>
       <c r="D95" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E95" t="n">
         <v>360</v>
       </c>
       <c r="F95" t="n">
-        <v>24.2655</v>
+        <v>234.0368</v>
       </c>
       <c r="G95" t="n">
-        <v>359.6666666666667</v>
+        <v>-52824.12369203998</v>
       </c>
       <c r="H95" t="n">
-        <v>360.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>357</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,36 +3971,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F96" t="n">
-        <v>917.3861000000001</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>359.6666666666667</v>
+        <v>-52823.12369203998</v>
       </c>
       <c r="H96" t="n">
-        <v>360.65</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>357</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,33 +4015,36 @@
         <v>360</v>
       </c>
       <c r="C97" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D97" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E97" t="n">
         <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>1970.3388</v>
+        <v>172.7799</v>
       </c>
       <c r="G97" t="n">
-        <v>359.8</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H97" t="n">
-        <v>360.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>357</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,33 +4056,36 @@
         <v>360</v>
       </c>
       <c r="C98" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D98" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E98" t="n">
         <v>360</v>
       </c>
       <c r="F98" t="n">
-        <v>5472.5353</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
-        <v>359.9333333333333</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H98" t="n">
-        <v>360.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>357</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,36 +4094,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C99" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D99" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E99" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F99" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>360</v>
+        <v>-52994.90359203998</v>
       </c>
       <c r="H99" t="n">
-        <v>360.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>357</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4325,33 +4138,36 @@
         <v>360</v>
       </c>
       <c r="C100" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D100" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E100" t="n">
         <v>359</v>
       </c>
       <c r="F100" t="n">
-        <v>8758.248100000001</v>
+        <v>3064.7302</v>
       </c>
       <c r="G100" t="n">
-        <v>360.2666666666667</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H100" t="n">
-        <v>360.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>357</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,36 +4176,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C101" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D101" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E101" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F101" t="n">
-        <v>1784.3618</v>
+        <v>225.0717</v>
       </c>
       <c r="G101" t="n">
-        <v>360.5333333333334</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H101" t="n">
-        <v>360.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>357</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,33 +4220,36 @@
         <v>362</v>
       </c>
       <c r="C102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E102" t="n">
         <v>362</v>
       </c>
       <c r="F102" t="n">
-        <v>2565.4407</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>360.8</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H102" t="n">
-        <v>360.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>357</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,36 +4258,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C103" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D103" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E103" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F103" t="n">
-        <v>270.8815</v>
+        <v>3109.7679558</v>
       </c>
       <c r="G103" t="n">
-        <v>361.1333333333333</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H103" t="n">
-        <v>360.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>357</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,36 +4299,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C104" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D104" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E104" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F104" t="n">
-        <v>398.9476</v>
+        <v>22.6882</v>
       </c>
       <c r="G104" t="n">
-        <v>361.4666666666666</v>
+        <v>-56081.32199203998</v>
       </c>
       <c r="H104" t="n">
-        <v>360.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>357</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,36 +4340,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C105" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D105" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E105" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F105" t="n">
-        <v>2777.7777</v>
+        <v>1395</v>
       </c>
       <c r="G105" t="n">
-        <v>361.4666666666666</v>
+        <v>-57476.32199203998</v>
       </c>
       <c r="H105" t="n">
-        <v>360.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>357</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,36 +4381,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C106" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D106" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E106" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F106" t="n">
-        <v>270.2043</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>361.4</v>
+        <v>-57475.32199203998</v>
       </c>
       <c r="H106" t="n">
-        <v>360.6</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>357</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4591,33 +4425,36 @@
         <v>360</v>
       </c>
       <c r="C107" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D107" t="n">
         <v>360</v>
       </c>
       <c r="E107" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F107" t="n">
-        <v>205.0404</v>
+        <v>1899.7177</v>
       </c>
       <c r="G107" t="n">
-        <v>361.3333333333333</v>
+        <v>-59375.03969203998</v>
       </c>
       <c r="H107" t="n">
-        <v>360.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>357</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,36 +4463,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C108" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D108" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E108" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>361.3333333333333</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H108" t="n">
-        <v>360.55</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>357</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,36 +4504,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C109" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D109" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E109" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F109" t="n">
-        <v>5951.5441</v>
+        <v>51.07</v>
       </c>
       <c r="G109" t="n">
-        <v>361.2666666666667</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H109" t="n">
-        <v>360.55</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>357</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,33 +4548,36 @@
         <v>360</v>
       </c>
       <c r="C110" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D110" t="n">
         <v>360</v>
       </c>
       <c r="E110" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F110" t="n">
-        <v>4230.7891</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>361.2</v>
+        <v>-59274.03969203998</v>
       </c>
       <c r="H110" t="n">
-        <v>360.5</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>357</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,36 +4586,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C111" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D111" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E111" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>387.4581</v>
       </c>
       <c r="G111" t="n">
-        <v>361.2666666666667</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H111" t="n">
-        <v>360.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>357</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,24 +4639,27 @@
         <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>2.159</v>
+        <v>300</v>
       </c>
       <c r="G112" t="n">
-        <v>361.1333333333333</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H112" t="n">
-        <v>360.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>357</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,24 +4680,27 @@
         <v>359</v>
       </c>
       <c r="F113" t="n">
-        <v>4991.7239</v>
+        <v>754.6732</v>
       </c>
       <c r="G113" t="n">
-        <v>361</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H113" t="n">
-        <v>360.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>357</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,36 +4709,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C114" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D114" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E114" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F114" t="n">
-        <v>79.92870000000001</v>
+        <v>221.6</v>
       </c>
       <c r="G114" t="n">
-        <v>360.8666666666667</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H114" t="n">
-        <v>360.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>357</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,36 +4750,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C115" t="n">
         <v>358</v>
       </c>
       <c r="D115" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E115" t="n">
         <v>358</v>
       </c>
       <c r="F115" t="n">
-        <v>13724.3553</v>
+        <v>52.8897</v>
       </c>
       <c r="G115" t="n">
-        <v>360.5333333333334</v>
+        <v>-59714.38749203998</v>
       </c>
       <c r="H115" t="n">
-        <v>360.3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>357</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,36 +4791,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C116" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D116" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E116" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>23.2664</v>
       </c>
       <c r="G116" t="n">
-        <v>360.4</v>
+        <v>-59691.12109203998</v>
       </c>
       <c r="H116" t="n">
-        <v>360.3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>357</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,24 +4844,27 @@
         <v>358</v>
       </c>
       <c r="F117" t="n">
-        <v>1686.9759</v>
+        <v>252.97</v>
       </c>
       <c r="G117" t="n">
-        <v>360.0666666666667</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H117" t="n">
-        <v>360.25</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>357</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,24 +4885,27 @@
         <v>358</v>
       </c>
       <c r="F118" t="n">
-        <v>370.2049</v>
+        <v>635.7919000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>359.7333333333333</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H118" t="n">
-        <v>360.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>357</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,36 +4914,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C119" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D119" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E119" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F119" t="n">
-        <v>40.7455</v>
+        <v>2019.4653</v>
       </c>
       <c r="G119" t="n">
-        <v>359.4</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H119" t="n">
-        <v>360.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>357</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,36 +4955,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C120" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D120" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E120" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F120" t="n">
-        <v>123.453</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>359.2666666666667</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H120" t="n">
-        <v>360.15</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>357</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,36 +4996,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C121" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D121" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E121" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F121" t="n">
-        <v>449</v>
+        <v>354.0166</v>
       </c>
       <c r="G121" t="n">
-        <v>359.2</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H121" t="n">
-        <v>360.1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>357</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,36 +5037,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C122" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D122" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E122" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F122" t="n">
-        <v>3000</v>
+        <v>14</v>
       </c>
       <c r="G122" t="n">
-        <v>359</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H122" t="n">
-        <v>360.05</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>357</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,36 +5078,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C123" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D123" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E123" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F123" t="n">
-        <v>130</v>
+        <v>8398.0321</v>
       </c>
       <c r="G123" t="n">
-        <v>358.8666666666667</v>
+        <v>-49526.59369203998</v>
       </c>
       <c r="H123" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>357</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,36 +5119,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F124" t="n">
-        <v>1056.7848</v>
+        <v>24.2655</v>
       </c>
       <c r="G124" t="n">
-        <v>358.7333333333333</v>
+        <v>-49550.85919203998</v>
       </c>
       <c r="H124" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>357</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,36 +5160,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C125" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D125" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E125" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F125" t="n">
-        <v>3513.4322</v>
+        <v>917.3861000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>358.7333333333333</v>
+        <v>-49550.85919203998</v>
       </c>
       <c r="H125" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>357</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,33 +5204,36 @@
         <v>360</v>
       </c>
       <c r="C126" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D126" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E126" t="n">
         <v>360</v>
       </c>
       <c r="F126" t="n">
-        <v>2702.2486</v>
+        <v>1970.3388</v>
       </c>
       <c r="G126" t="n">
-        <v>358.6666666666667</v>
+        <v>-47580.52039203999</v>
       </c>
       <c r="H126" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>357</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,33 +5245,36 @@
         <v>360</v>
       </c>
       <c r="C127" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D127" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E127" t="n">
         <v>360</v>
       </c>
       <c r="F127" t="n">
-        <v>1947.5111</v>
+        <v>5472.5353</v>
       </c>
       <c r="G127" t="n">
-        <v>358.7333333333333</v>
+        <v>-47580.52039203999</v>
       </c>
       <c r="H127" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>357</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5389,33 +5286,36 @@
         <v>360</v>
       </c>
       <c r="C128" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D128" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E128" t="n">
         <v>360</v>
       </c>
       <c r="F128" t="n">
-        <v>596.0362</v>
+        <v>60</v>
       </c>
       <c r="G128" t="n">
-        <v>358.8666666666667</v>
+        <v>-47640.52039203999</v>
       </c>
       <c r="H128" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>357</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5427,33 +5327,36 @@
         <v>360</v>
       </c>
       <c r="C129" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D129" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E129" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F129" t="n">
-        <v>1110.238</v>
+        <v>8758.248100000001</v>
       </c>
       <c r="G129" t="n">
-        <v>359</v>
+        <v>-38882.27229203998</v>
       </c>
       <c r="H129" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>357</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,33 +5368,36 @@
         <v>362</v>
       </c>
       <c r="C130" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D130" t="n">
         <v>362</v>
       </c>
       <c r="E130" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F130" t="n">
-        <v>3.7624</v>
+        <v>1784.3618</v>
       </c>
       <c r="G130" t="n">
-        <v>359.2</v>
+        <v>-40666.63409203998</v>
       </c>
       <c r="H130" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>357</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5500,36 +5406,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C131" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D131" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F131" t="n">
-        <v>1399.5899</v>
+        <v>2565.4407</v>
       </c>
       <c r="G131" t="n">
-        <v>359.2</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H131" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>357</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,36 +5447,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C132" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D132" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E132" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0001</v>
+        <v>270.8815</v>
       </c>
       <c r="G132" t="n">
-        <v>359.3333333333333</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H132" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>357</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,36 +5488,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C133" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D133" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E133" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F133" t="n">
-        <v>37.6888</v>
+        <v>398.9476</v>
       </c>
       <c r="G133" t="n">
-        <v>359.5333333333334</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H133" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>357</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,36 +5529,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C134" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D134" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E134" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F134" t="n">
-        <v>4315.9733</v>
+        <v>2777.7777</v>
       </c>
       <c r="G134" t="n">
-        <v>359.6666666666667</v>
+        <v>-40878.97109203998</v>
       </c>
       <c r="H134" t="n">
-        <v>359.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>357</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5652,36 +5570,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C135" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D135" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E135" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>270.2043</v>
       </c>
       <c r="G135" t="n">
-        <v>359.8</v>
+        <v>-41149.17539203998</v>
       </c>
       <c r="H135" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>357</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,36 +5611,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C136" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D136" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E136" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F136" t="n">
-        <v>170</v>
+        <v>205.0404</v>
       </c>
       <c r="G136" t="n">
-        <v>359.8</v>
+        <v>-41149.17539203998</v>
       </c>
       <c r="H136" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>357</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,36 +5652,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C137" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D137" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E137" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F137" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>359.9333333333333</v>
+        <v>-41148.17539203998</v>
       </c>
       <c r="H137" t="n">
-        <v>359.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>357</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,7 +5693,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C138" t="n">
         <v>361</v>
@@ -5775,27 +5702,30 @@
         <v>361</v>
       </c>
       <c r="E138" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>5951.5441</v>
       </c>
       <c r="G138" t="n">
-        <v>360.0666666666667</v>
+        <v>-41148.17539203998</v>
       </c>
       <c r="H138" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>357</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,36 +5734,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C139" t="n">
         <v>359</v>
       </c>
       <c r="D139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E139" t="n">
         <v>359</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>4230.7891</v>
       </c>
       <c r="G139" t="n">
-        <v>360.0666666666667</v>
+        <v>-45378.96449203998</v>
       </c>
       <c r="H139" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>357</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,36 +5775,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C140" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D140" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E140" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F140" t="n">
-        <v>76.1075</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>360.0666666666667</v>
+        <v>-45377.96449203998</v>
       </c>
       <c r="H140" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>357</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,36 +5816,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C141" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D141" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E141" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F141" t="n">
-        <v>24.1377</v>
+        <v>2.159</v>
       </c>
       <c r="G141" t="n">
-        <v>360.1333333333333</v>
+        <v>-45380.12349203998</v>
       </c>
       <c r="H141" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>357</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,36 +5857,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C142" t="n">
         <v>359</v>
       </c>
       <c r="D142" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E142" t="n">
         <v>359</v>
       </c>
       <c r="F142" t="n">
-        <v>3173.0918</v>
+        <v>4991.7239</v>
       </c>
       <c r="G142" t="n">
-        <v>360.0666666666667</v>
+        <v>-45380.12349203998</v>
       </c>
       <c r="H142" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>357</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,36 +5898,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C143" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D143" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E143" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F143" t="n">
-        <v>2911.9999</v>
+        <v>79.92870000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>359.9333333333333</v>
+        <v>-45460.05219203998</v>
       </c>
       <c r="H143" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>357</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,36 +5939,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C144" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D144" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E144" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>13724.3553</v>
       </c>
       <c r="G144" t="n">
-        <v>359.9333333333333</v>
+        <v>-45460.05219203998</v>
       </c>
       <c r="H144" t="n">
-        <v>359.95</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>357</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,36 +5980,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C145" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D145" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E145" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F145" t="n">
-        <v>425.9592</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>359.8</v>
+        <v>-45459.05219203998</v>
       </c>
       <c r="H145" t="n">
-        <v>359.95</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>357</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,36 +6021,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C146" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D146" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E146" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>1686.9759</v>
       </c>
       <c r="G146" t="n">
-        <v>359.8</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H146" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>357</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6120,24 +6074,27 @@
         <v>358</v>
       </c>
       <c r="F147" t="n">
-        <v>393.6402</v>
+        <v>370.2049</v>
       </c>
       <c r="G147" t="n">
-        <v>359.6666666666667</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H147" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>357</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,36 +6103,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C148" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D148" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E148" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>40.7455</v>
       </c>
       <c r="G148" t="n">
-        <v>359.6</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H148" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>357</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6184,36 +6144,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C149" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D149" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E149" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F149" t="n">
-        <v>1.3777</v>
+        <v>123.453</v>
       </c>
       <c r="G149" t="n">
-        <v>359.6</v>
+        <v>-47022.57509203997</v>
       </c>
       <c r="H149" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>357</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,36 +6185,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C150" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D150" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E150" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F150" t="n">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="G150" t="n">
-        <v>359.5333333333334</v>
+        <v>-47022.57509203997</v>
       </c>
       <c r="H150" t="n">
-        <v>360.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>357</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6260,36 +6226,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C151" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D151" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E151" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>359.6</v>
+        <v>-50022.57509203997</v>
       </c>
       <c r="H151" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>357</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,24 +6279,27 @@
         <v>359</v>
       </c>
       <c r="F152" t="n">
-        <v>746.1553</v>
+        <v>130</v>
       </c>
       <c r="G152" t="n">
-        <v>359.6</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H152" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>357</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,24 +6320,27 @@
         <v>359</v>
       </c>
       <c r="F153" t="n">
-        <v>1081.3876</v>
+        <v>1056.7848</v>
       </c>
       <c r="G153" t="n">
-        <v>359.4666666666666</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H153" t="n">
-        <v>359.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>357</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6386,24 +6361,27 @@
         <v>359</v>
       </c>
       <c r="F154" t="n">
-        <v>86</v>
+        <v>3513.4322</v>
       </c>
       <c r="G154" t="n">
-        <v>359.4666666666666</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H154" t="n">
-        <v>359.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>357</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,36 +6390,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C155" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D155" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E155" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F155" t="n">
-        <v>505.7204</v>
+        <v>2702.2486</v>
       </c>
       <c r="G155" t="n">
-        <v>359.4</v>
+        <v>-47190.32649203997</v>
       </c>
       <c r="H155" t="n">
-        <v>359.85</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>357</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6450,36 +6431,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C156" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D156" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E156" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F156" t="n">
-        <v>102.7993</v>
+        <v>1947.5111</v>
       </c>
       <c r="G156" t="n">
-        <v>359.2666666666667</v>
+        <v>-47190.32649203997</v>
       </c>
       <c r="H156" t="n">
-        <v>359.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>357</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,36 +6472,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C157" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D157" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E157" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F157" t="n">
-        <v>916.0468</v>
+        <v>596.0362</v>
       </c>
       <c r="G157" t="n">
-        <v>359.2666666666667</v>
+        <v>-46594.29029203997</v>
       </c>
       <c r="H157" t="n">
-        <v>359.8</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>357</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,36 +6513,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D158" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E158" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F158" t="n">
-        <v>711.4961</v>
+        <v>1110.238</v>
       </c>
       <c r="G158" t="n">
-        <v>359.2666666666667</v>
+        <v>-47704.52829203997</v>
       </c>
       <c r="H158" t="n">
-        <v>359.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>357</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,42 +6554,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C159" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D159" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E159" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F159" t="n">
-        <v>5756.716</v>
+        <v>3.7624</v>
       </c>
       <c r="G159" t="n">
-        <v>359.1333333333333</v>
+        <v>-47700.76589203997</v>
       </c>
       <c r="H159" t="n">
-        <v>359.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>359</v>
-      </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+        <v>357</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,42 +6595,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C160" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D160" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E160" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F160" t="n">
-        <v>600</v>
+        <v>1399.5899</v>
       </c>
       <c r="G160" t="n">
-        <v>359.0666666666667</v>
+        <v>-49100.35579203997</v>
       </c>
       <c r="H160" t="n">
-        <v>359.65</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>358</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+        <v>357</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6652,7 +6636,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C161" t="n">
         <v>360</v>
@@ -6661,33 +6645,30 @@
         <v>360</v>
       </c>
       <c r="E161" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F161" t="n">
-        <v>6.1</v>
+        <v>0.0001</v>
       </c>
       <c r="G161" t="n">
-        <v>359.0666666666667</v>
+        <v>-49100.35579203997</v>
       </c>
       <c r="H161" t="n">
-        <v>359.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>358</v>
-      </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+        <v>357</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,7 +6677,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C162" t="n">
         <v>361</v>
@@ -6705,33 +6686,1219 @@
         <v>361</v>
       </c>
       <c r="E162" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F162" t="n">
+        <v>37.6888</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-49062.66699203997</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>357</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>360</v>
+      </c>
+      <c r="C163" t="n">
+        <v>360</v>
+      </c>
+      <c r="D163" t="n">
+        <v>360</v>
+      </c>
+      <c r="E163" t="n">
+        <v>359</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4315.9733</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-53378.64029203996</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>357</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>361</v>
+      </c>
+      <c r="C164" t="n">
+        <v>361</v>
+      </c>
+      <c r="D164" t="n">
+        <v>361</v>
+      </c>
+      <c r="E164" t="n">
+        <v>361</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-53368.64029203996</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>357</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>359</v>
+      </c>
+      <c r="C165" t="n">
+        <v>359</v>
+      </c>
+      <c r="D165" t="n">
+        <v>359</v>
+      </c>
+      <c r="E165" t="n">
+        <v>359</v>
+      </c>
+      <c r="F165" t="n">
+        <v>170</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-53538.64029203996</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>357</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>359</v>
+      </c>
+      <c r="C166" t="n">
+        <v>359</v>
+      </c>
+      <c r="D166" t="n">
+        <v>359</v>
+      </c>
+      <c r="E166" t="n">
+        <v>359</v>
+      </c>
+      <c r="F166" t="n">
+        <v>180</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-53538.64029203996</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>357</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>361</v>
+      </c>
+      <c r="C167" t="n">
+        <v>361</v>
+      </c>
+      <c r="D167" t="n">
+        <v>361</v>
+      </c>
+      <c r="E167" t="n">
+        <v>361</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-53537.64029203996</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>357</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>359</v>
+      </c>
+      <c r="C168" t="n">
+        <v>359</v>
+      </c>
+      <c r="D168" t="n">
+        <v>359</v>
+      </c>
+      <c r="E168" t="n">
+        <v>359</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-53540.64029203996</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>357</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>360</v>
+      </c>
+      <c r="C169" t="n">
+        <v>359</v>
+      </c>
+      <c r="D169" t="n">
+        <v>360</v>
+      </c>
+      <c r="E169" t="n">
+        <v>359</v>
+      </c>
+      <c r="F169" t="n">
+        <v>76.1075</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-53540.64029203996</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>357</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>361</v>
+      </c>
+      <c r="C170" t="n">
+        <v>361</v>
+      </c>
+      <c r="D170" t="n">
+        <v>361</v>
+      </c>
+      <c r="E170" t="n">
+        <v>361</v>
+      </c>
+      <c r="F170" t="n">
+        <v>24.1377</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-53516.50259203996</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>357</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>360</v>
+      </c>
+      <c r="C171" t="n">
+        <v>359</v>
+      </c>
+      <c r="D171" t="n">
+        <v>360</v>
+      </c>
+      <c r="E171" t="n">
+        <v>359</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3173.0918</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-56689.59439203997</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>357</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>360</v>
+      </c>
+      <c r="C172" t="n">
+        <v>359</v>
+      </c>
+      <c r="D172" t="n">
+        <v>360</v>
+      </c>
+      <c r="E172" t="n">
+        <v>359</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2911.9999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-56689.59439203997</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>357</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>360</v>
+      </c>
+      <c r="C173" t="n">
+        <v>360</v>
+      </c>
+      <c r="D173" t="n">
+        <v>360</v>
+      </c>
+      <c r="E173" t="n">
+        <v>360</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-56688.59439203997</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>357</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>359</v>
+      </c>
+      <c r="C174" t="n">
+        <v>359</v>
+      </c>
+      <c r="D174" t="n">
+        <v>359</v>
+      </c>
+      <c r="E174" t="n">
+        <v>359</v>
+      </c>
+      <c r="F174" t="n">
+        <v>425.9592</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-57114.55359203996</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>357</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>360</v>
+      </c>
+      <c r="C175" t="n">
+        <v>360</v>
+      </c>
+      <c r="D175" t="n">
+        <v>360</v>
+      </c>
+      <c r="E175" t="n">
+        <v>360</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-57113.55359203996</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>357</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>358</v>
+      </c>
+      <c r="C176" t="n">
+        <v>358</v>
+      </c>
+      <c r="D176" t="n">
+        <v>358</v>
+      </c>
+      <c r="E176" t="n">
+        <v>358</v>
+      </c>
+      <c r="F176" t="n">
+        <v>393.6402</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-57507.19379203997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>357</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>360</v>
+      </c>
+      <c r="C177" t="n">
+        <v>360</v>
+      </c>
+      <c r="D177" t="n">
+        <v>360</v>
+      </c>
+      <c r="E177" t="n">
+        <v>360</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>357</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>360</v>
+      </c>
+      <c r="C178" t="n">
+        <v>360</v>
+      </c>
+      <c r="D178" t="n">
+        <v>360</v>
+      </c>
+      <c r="E178" t="n">
+        <v>360</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.3777</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>357</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>360</v>
+      </c>
+      <c r="C179" t="n">
+        <v>360</v>
+      </c>
+      <c r="D179" t="n">
+        <v>360</v>
+      </c>
+      <c r="E179" t="n">
+        <v>360</v>
+      </c>
+      <c r="F179" t="n">
+        <v>99</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>357</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>360</v>
+      </c>
+      <c r="C180" t="n">
+        <v>360</v>
+      </c>
+      <c r="D180" t="n">
+        <v>360</v>
+      </c>
+      <c r="E180" t="n">
+        <v>360</v>
+      </c>
+      <c r="F180" t="n">
+        <v>200</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>357</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>359</v>
+      </c>
+      <c r="C181" t="n">
+        <v>359</v>
+      </c>
+      <c r="D181" t="n">
+        <v>359</v>
+      </c>
+      <c r="E181" t="n">
+        <v>359</v>
+      </c>
+      <c r="F181" t="n">
+        <v>746.1553</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>357</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>359</v>
+      </c>
+      <c r="C182" t="n">
+        <v>359</v>
+      </c>
+      <c r="D182" t="n">
+        <v>359</v>
+      </c>
+      <c r="E182" t="n">
+        <v>359</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1081.3876</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>357</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>359</v>
+      </c>
+      <c r="C183" t="n">
+        <v>359</v>
+      </c>
+      <c r="D183" t="n">
+        <v>359</v>
+      </c>
+      <c r="E183" t="n">
+        <v>359</v>
+      </c>
+      <c r="F183" t="n">
+        <v>86</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>357</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>358</v>
+      </c>
+      <c r="C184" t="n">
+        <v>358</v>
+      </c>
+      <c r="D184" t="n">
+        <v>358</v>
+      </c>
+      <c r="E184" t="n">
+        <v>358</v>
+      </c>
+      <c r="F184" t="n">
+        <v>505.7204</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-58758.06949203996</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>357</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>359</v>
+      </c>
+      <c r="C185" t="n">
+        <v>359</v>
+      </c>
+      <c r="D185" t="n">
+        <v>359</v>
+      </c>
+      <c r="E185" t="n">
+        <v>359</v>
+      </c>
+      <c r="F185" t="n">
+        <v>102.7993</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>357</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>359</v>
+      </c>
+      <c r="C186" t="n">
+        <v>359</v>
+      </c>
+      <c r="D186" t="n">
+        <v>359</v>
+      </c>
+      <c r="E186" t="n">
+        <v>359</v>
+      </c>
+      <c r="F186" t="n">
+        <v>916.0468</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>357</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>359</v>
+      </c>
+      <c r="C187" t="n">
+        <v>359</v>
+      </c>
+      <c r="D187" t="n">
+        <v>359</v>
+      </c>
+      <c r="E187" t="n">
+        <v>359</v>
+      </c>
+      <c r="F187" t="n">
+        <v>711.4961</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>357</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>359</v>
+      </c>
+      <c r="C188" t="n">
+        <v>358</v>
+      </c>
+      <c r="D188" t="n">
+        <v>359</v>
+      </c>
+      <c r="E188" t="n">
+        <v>358</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5756.716</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-64411.98619203996</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>357</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>358</v>
+      </c>
+      <c r="C189" t="n">
+        <v>358</v>
+      </c>
+      <c r="D189" t="n">
+        <v>358</v>
+      </c>
+      <c r="E189" t="n">
+        <v>358</v>
+      </c>
+      <c r="F189" t="n">
+        <v>600</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-64411.98619203996</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>357</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>359</v>
+      </c>
+      <c r="C190" t="n">
+        <v>360</v>
+      </c>
+      <c r="D190" t="n">
+        <v>360</v>
+      </c>
+      <c r="E190" t="n">
+        <v>359</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-64405.88619203996</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>357</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>360</v>
+      </c>
+      <c r="C191" t="n">
+        <v>361</v>
+      </c>
+      <c r="D191" t="n">
+        <v>361</v>
+      </c>
+      <c r="E191" t="n">
+        <v>360</v>
+      </c>
+      <c r="F191" t="n">
         <v>263.3646</v>
       </c>
-      <c r="G162" t="n">
-        <v>359.2666666666667</v>
-      </c>
-      <c r="H162" t="n">
-        <v>359.5833333333333</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>360</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="G191" t="n">
+        <v>-64142.52159203996</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>357</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,25 +441,25 @@
         <v>360</v>
       </c>
       <c r="C2" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D2" t="n">
         <v>360</v>
       </c>
       <c r="E2" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F2" t="n">
-        <v>2880</v>
+        <v>543.1654</v>
       </c>
       <c r="G2" t="n">
-        <v>-58803.62261111999</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F3" t="n">
-        <v>1513.8684</v>
+        <v>502.1819</v>
       </c>
       <c r="G3" t="n">
-        <v>-58803.62261111999</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D4" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E4" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F4" t="n">
-        <v>3.3016</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-58800.32101112</v>
+        <v>-79935.00991112001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C5" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E5" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
-        <v>-68800.32101111999</v>
+        <v>-79990.00991112001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C6" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E6" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4231.4083</v>
       </c>
       <c r="G6" t="n">
-        <v>-68799.32101111999</v>
+        <v>-75758.60161112002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D7" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E7" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F7" t="n">
-        <v>947.9256</v>
+        <v>321.9543</v>
       </c>
       <c r="G7" t="n">
-        <v>-68799.32101111999</v>
+        <v>-76080.55591112001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C8" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D8" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E8" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F8" t="n">
-        <v>3635.6043</v>
+        <v>500</v>
       </c>
       <c r="G8" t="n">
-        <v>-72434.92531111999</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F9" t="n">
-        <v>10000.3183</v>
+        <v>300</v>
       </c>
       <c r="G9" t="n">
-        <v>-82435.24361111999</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C10" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D10" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E10" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>4066.0823</v>
       </c>
       <c r="G10" t="n">
-        <v>-82434.24361111999</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C11" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D11" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E11" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F11" t="n">
-        <v>99.4699</v>
+        <v>192.1197</v>
       </c>
       <c r="G11" t="n">
-        <v>-82533.71351111999</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C12" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D12" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E12" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F12" t="n">
-        <v>89</v>
+        <v>3319.0279</v>
       </c>
       <c r="G12" t="n">
-        <v>-82622.71351111999</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,133 +827,155 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C13" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E13" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F13" t="n">
-        <v>1908.8833</v>
+        <v>1444</v>
       </c>
       <c r="G13" t="n">
-        <v>-82622.71351111999</v>
+        <v>-75328.67561112001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>356</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E14" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F14" t="n">
-        <v>548</v>
+        <v>7656.81</v>
       </c>
       <c r="G14" t="n">
-        <v>-82622.71351111999</v>
+        <v>-82985.48561112001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>357</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C15" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D15" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E15" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F15" t="n">
-        <v>19.6022</v>
+        <v>1193.114</v>
       </c>
       <c r="G15" t="n">
-        <v>-82603.11131112</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>355</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C16" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D16" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F16" t="n">
-        <v>45.5081</v>
+        <v>18.778</v>
       </c>
       <c r="G16" t="n">
-        <v>-82648.61941112</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,10 +985,15 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -964,16 +1006,16 @@
         <v>359</v>
       </c>
       <c r="D17" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F17" t="n">
-        <v>1187.4232</v>
+        <v>3220</v>
       </c>
       <c r="G17" t="n">
-        <v>-82648.61941112</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1025,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D18" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3044.7141</v>
       </c>
       <c r="G18" t="n">
-        <v>-82647.61941112</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,10 +1065,15 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1031,19 +1083,19 @@
         <v>359</v>
       </c>
       <c r="C19" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D19" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="n">
         <v>359</v>
       </c>
       <c r="F19" t="n">
-        <v>1736</v>
+        <v>896.6629</v>
       </c>
       <c r="G19" t="n">
-        <v>-82647.61941112</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1105,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C20" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E20" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F20" t="n">
-        <v>249.6355</v>
+        <v>2128.9233</v>
       </c>
       <c r="G20" t="n">
-        <v>-82897.25491112001</v>
+        <v>-80701.29491112</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1145,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C21" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E21" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-82896.25491112001</v>
+        <v>-80700.29491112</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,17 +1185,22 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22" t="n">
         <v>359</v>
@@ -1142,13 +1209,13 @@
         <v>359</v>
       </c>
       <c r="E22" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F22" t="n">
-        <v>335.8521</v>
+        <v>1962.8919</v>
       </c>
       <c r="G22" t="n">
-        <v>-83232.10701112001</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1225,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D23" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E23" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F23" t="n">
-        <v>6442.7894</v>
+        <v>635.2785</v>
       </c>
       <c r="G23" t="n">
-        <v>-76789.31761112002</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,17 +1265,22 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24" t="n">
         <v>360</v>
@@ -1212,13 +1289,13 @@
         <v>360</v>
       </c>
       <c r="E24" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F24" t="n">
-        <v>695.9731</v>
+        <v>10693.248</v>
       </c>
       <c r="G24" t="n">
-        <v>-76789.31761112002</v>
+        <v>-68044.15501111999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,10 +1305,15 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1241,19 +1323,19 @@
         <v>360</v>
       </c>
       <c r="C25" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D25" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E25" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F25" t="n">
-        <v>908.6306</v>
+        <v>5269.4075</v>
       </c>
       <c r="G25" t="n">
-        <v>-77697.94821112002</v>
+        <v>-62774.74751111999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1345,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C26" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D26" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E26" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F26" t="n">
-        <v>1941.0938</v>
+        <v>1.1818</v>
       </c>
       <c r="G26" t="n">
-        <v>-77697.94821112002</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1385,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C27" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D27" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E27" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>2476.1537</v>
       </c>
       <c r="G27" t="n">
-        <v>-77697.94821112002</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1425,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C28" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D28" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E28" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F28" t="n">
-        <v>2829.2687</v>
+        <v>4048.62222458</v>
       </c>
       <c r="G28" t="n">
-        <v>-77697.94821112002</v>
+        <v>-58727.30708653999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1465,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C29" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D29" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E29" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-79697.94821112002</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1505,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C30" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D30" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E30" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F30" t="n">
-        <v>373.3362</v>
+        <v>1831.98789311</v>
       </c>
       <c r="G30" t="n">
-        <v>-79697.94821112002</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1545,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C31" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D31" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E31" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F31" t="n">
-        <v>1085.0043</v>
+        <v>3445.77961432</v>
       </c>
       <c r="G31" t="n">
-        <v>-78612.94391112002</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1585,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C32" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D32" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E32" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F32" t="n">
-        <v>604.9766</v>
+        <v>5494.5054945</v>
       </c>
       <c r="G32" t="n">
-        <v>-79217.92051112001</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1625,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C33" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D33" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E33" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F33" t="n">
-        <v>731.0111000000001</v>
+        <v>927.4065000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-78486.90941112001</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1665,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C34" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D34" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E34" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F34" t="n">
-        <v>1075</v>
+        <v>24.4823</v>
       </c>
       <c r="G34" t="n">
-        <v>-79561.90941112001</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1705,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C35" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D35" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E35" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F35" t="n">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-78559.90941112001</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1745,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C36" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E36" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F36" t="n">
-        <v>546.3169</v>
+        <v>2.7673</v>
       </c>
       <c r="G36" t="n">
-        <v>-79106.22631112002</v>
+        <v>-53259.05119203999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,10 +1785,15 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,19 +1803,19 @@
         <v>360</v>
       </c>
       <c r="C37" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D37" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E37" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F37" t="n">
-        <v>754.9471</v>
+        <v>165.7978</v>
       </c>
       <c r="G37" t="n">
-        <v>-78351.27921112001</v>
+        <v>-53093.25339203999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,10 +1825,15 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,19 +1843,19 @@
         <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D38" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E38" t="n">
         <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>115.4598</v>
+        <v>245.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>-78351.27921112001</v>
+        <v>-53339.25329203999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,10 +1865,15 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1740,10 +1892,10 @@
         <v>361</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>148.2026</v>
       </c>
       <c r="G39" t="n">
-        <v>-78351.27921112001</v>
+        <v>-53191.05069203999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,10 +1905,15 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1923,19 @@
         <v>360</v>
       </c>
       <c r="C40" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D40" t="n">
         <v>360</v>
       </c>
       <c r="E40" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F40" t="n">
-        <v>1042.3834</v>
+        <v>1483.181</v>
       </c>
       <c r="G40" t="n">
-        <v>-79393.66261112002</v>
+        <v>-54674.23169203999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1945,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D41" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E41" t="n">
         <v>361</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>137.0562</v>
       </c>
       <c r="G41" t="n">
-        <v>-79392.66261112002</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +1985,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C42" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D42" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E42" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F42" t="n">
-        <v>1.1819</v>
+        <v>528</v>
       </c>
       <c r="G42" t="n">
-        <v>-79393.84451112001</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,45 +2025,53 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D43" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E43" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>37.162</v>
       </c>
       <c r="G43" t="n">
-        <v>-79392.84451112001</v>
+        <v>-54574.33749203999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1906,19 +2081,19 @@
         <v>360</v>
       </c>
       <c r="C44" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D44" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E44" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F44" t="n">
-        <v>543.1654</v>
+        <v>35.5532</v>
       </c>
       <c r="G44" t="n">
-        <v>-79936.00991112001</v>
+        <v>-54538.78429203999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2107,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C45" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D45" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E45" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F45" t="n">
-        <v>502.1819</v>
+        <v>161.55</v>
       </c>
       <c r="G45" t="n">
-        <v>-79936.00991112001</v>
+        <v>-54700.33429203999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2143,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D46" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E46" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>163.2658</v>
       </c>
       <c r="G46" t="n">
-        <v>-79935.00991112001</v>
+        <v>-54537.06849203999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2179,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C47" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D47" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E47" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F47" t="n">
-        <v>55</v>
+        <v>1291.8739</v>
       </c>
       <c r="G47" t="n">
-        <v>-79990.00991112001</v>
+        <v>-55828.94239203999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2215,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E48" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F48" t="n">
-        <v>4231.4083</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>-75758.60161112002</v>
+        <v>-55827.94239203999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2251,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C49" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D49" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E49" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F49" t="n">
-        <v>321.9543</v>
+        <v>280</v>
       </c>
       <c r="G49" t="n">
-        <v>-76080.55591112001</v>
+        <v>-56107.94239203999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2287,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C50" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E50" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>2997.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>-76580.55591112001</v>
+        <v>-53109.94249203998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2323,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C51" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D51" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E51" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>140.1444</v>
       </c>
       <c r="G51" t="n">
-        <v>-76580.55591112001</v>
+        <v>-53250.08689203998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2359,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C52" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D52" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E52" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F52" t="n">
-        <v>4066.0823</v>
+        <v>660</v>
       </c>
       <c r="G52" t="n">
-        <v>-76580.55591112001</v>
+        <v>-52590.08689203998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2395,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C53" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E53" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>192.1197</v>
+        <v>234.0368</v>
       </c>
       <c r="G53" t="n">
-        <v>-76772.67561112001</v>
+        <v>-52824.12369203998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2431,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C54" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D54" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E54" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F54" t="n">
-        <v>3319.0279</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-76772.67561112001</v>
+        <v>-52823.12369203998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2467,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C55" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D55" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E55" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F55" t="n">
-        <v>1444</v>
+        <v>172.7799</v>
       </c>
       <c r="G55" t="n">
-        <v>-75328.67561112001</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,67 +2503,65 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C56" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E56" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F56" t="n">
-        <v>7656.81</v>
+        <v>178</v>
       </c>
       <c r="G56" t="n">
-        <v>-82985.48561112001</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>357</v>
-      </c>
-      <c r="K56" t="n">
-        <v>357</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C57" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D57" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E57" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F57" t="n">
-        <v>1193.114</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>-81792.37161112</v>
+        <v>-52994.90359203998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2386,39 +2570,34 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>357</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C58" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D58" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E58" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F58" t="n">
-        <v>18.778</v>
+        <v>3064.7302</v>
       </c>
       <c r="G58" t="n">
-        <v>-81792.37161112</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2427,17 +2606,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>357</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2450,59 +2624,52 @@
         <v>359</v>
       </c>
       <c r="D59" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F59" t="n">
-        <v>3220</v>
+        <v>225.0717</v>
       </c>
       <c r="G59" t="n">
-        <v>-78572.37161112</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>357</v>
-      </c>
-      <c r="K59" t="n">
-        <v>357</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C60" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D60" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E60" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F60" t="n">
-        <v>3044.7141</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-78572.37161112</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2511,82 +2678,70 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>357</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F61" t="n">
-        <v>896.6629</v>
+        <v>3109.7679558</v>
       </c>
       <c r="G61" t="n">
-        <v>-78572.37161112</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>359</v>
-      </c>
-      <c r="K61" t="n">
-        <v>357</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C62" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D62" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E62" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>2128.9233</v>
+        <v>22.6882</v>
       </c>
       <c r="G62" t="n">
-        <v>-80701.29491112</v>
+        <v>-56081.32199203998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2595,82 +2750,70 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>357</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C63" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D63" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E63" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>1395</v>
       </c>
       <c r="G63" t="n">
-        <v>-80700.29491112</v>
+        <v>-57476.32199203998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>356</v>
-      </c>
-      <c r="K63" t="n">
-        <v>357</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C64" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D64" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E64" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F64" t="n">
-        <v>1962.8919</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>-78737.40301112</v>
+        <v>-57475.32199203998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2679,60 +2822,48 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>357</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C65" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E65" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F65" t="n">
-        <v>635.2785</v>
+        <v>1899.7177</v>
       </c>
       <c r="G65" t="n">
-        <v>-78737.40301112</v>
+        <v>-59375.03969203998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>359</v>
-      </c>
-      <c r="K65" t="n">
-        <v>357</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2742,62 +2873,55 @@
         <v>359</v>
       </c>
       <c r="C66" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D66" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E66" t="n">
         <v>359</v>
       </c>
       <c r="F66" t="n">
-        <v>10693.248</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>-68044.15501111999</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>359</v>
-      </c>
-      <c r="K66" t="n">
-        <v>357</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C67" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D67" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E67" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F67" t="n">
-        <v>5269.4075</v>
+        <v>51.07</v>
       </c>
       <c r="G67" t="n">
-        <v>-62774.74751111999</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2806,17 +2930,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>357</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2835,10 +2954,10 @@
         <v>360</v>
       </c>
       <c r="F68" t="n">
-        <v>1.1818</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-62775.92931111999</v>
+        <v>-59274.03969203998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2847,39 +2966,34 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>357</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C69" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E69" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F69" t="n">
-        <v>2476.1537</v>
+        <v>387.4581</v>
       </c>
       <c r="G69" t="n">
-        <v>-62775.92931111999</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2888,39 +3002,34 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>357</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C70" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D70" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E70" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F70" t="n">
-        <v>4048.62222458</v>
+        <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>-58727.30708653999</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2929,39 +3038,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>357</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C71" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D71" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E71" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>754.6732</v>
       </c>
       <c r="G71" t="n">
-        <v>-58726.30708653999</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2970,39 +3074,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>357</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C72" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D72" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E72" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F72" t="n">
-        <v>1831.98789311</v>
+        <v>221.6</v>
       </c>
       <c r="G72" t="n">
-        <v>-58726.30708653999</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3011,39 +3110,34 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>357</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C73" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D73" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E73" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F73" t="n">
-        <v>3445.77961432</v>
+        <v>52.8897</v>
       </c>
       <c r="G73" t="n">
-        <v>-58726.30708653999</v>
+        <v>-59714.38749203998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3052,181 +3146,180 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>357</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C74" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D74" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E74" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F74" t="n">
-        <v>5494.5054945</v>
+        <v>23.2664</v>
       </c>
       <c r="G74" t="n">
-        <v>-53231.80159203998</v>
+        <v>-59691.12109203998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>358</v>
+      </c>
       <c r="K74" t="n">
-        <v>357</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C75" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D75" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E75" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F75" t="n">
-        <v>927.4065000000001</v>
+        <v>252.97</v>
       </c>
       <c r="G75" t="n">
-        <v>-53231.80159203998</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>359</v>
+      </c>
       <c r="K75" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C76" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D76" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E76" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F76" t="n">
-        <v>24.4823</v>
+        <v>635.7919000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-53256.28389203999</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>358</v>
+      </c>
       <c r="K76" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C77" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D77" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2019.4653</v>
       </c>
       <c r="G77" t="n">
-        <v>-53256.28389203999</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>358</v>
+      </c>
       <c r="K77" t="n">
-        <v>357</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3245,10 +3338,10 @@
         <v>361</v>
       </c>
       <c r="F78" t="n">
-        <v>2.7673</v>
+        <v>200</v>
       </c>
       <c r="G78" t="n">
-        <v>-53259.05119203999</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3258,38 +3351,39 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C79" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D79" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E79" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F79" t="n">
-        <v>165.7978</v>
+        <v>354.0166</v>
       </c>
       <c r="G79" t="n">
-        <v>-53093.25339203999</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3299,38 +3393,39 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D80" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E80" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F80" t="n">
-        <v>245.9999</v>
+        <v>14</v>
       </c>
       <c r="G80" t="n">
-        <v>-53339.25329203999</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3339,17 +3434,12 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>357</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3359,19 +3449,19 @@
         <v>361</v>
       </c>
       <c r="C81" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D81" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E81" t="n">
         <v>361</v>
       </c>
       <c r="F81" t="n">
-        <v>148.2026</v>
+        <v>8398.0321</v>
       </c>
       <c r="G81" t="n">
-        <v>-53191.05069203999</v>
+        <v>-49526.59369203998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3380,17 +3470,12 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>357</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3409,10 +3494,10 @@
         <v>360</v>
       </c>
       <c r="F82" t="n">
-        <v>1483.181</v>
+        <v>24.2655</v>
       </c>
       <c r="G82" t="n">
-        <v>-54674.23169203999</v>
+        <v>-49550.85919203998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3421,39 +3506,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>357</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C83" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D83" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E83" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F83" t="n">
-        <v>137.0562</v>
+        <v>917.3861000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-54537.17549203999</v>
+        <v>-49550.85919203998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3462,39 +3542,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>357</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C84" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D84" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E84" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F84" t="n">
-        <v>528</v>
+        <v>1970.3388</v>
       </c>
       <c r="G84" t="n">
-        <v>-54537.17549203999</v>
+        <v>-47580.52039203999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3503,27 +3578,22 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>357</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C85" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D85" t="n">
         <v>362</v>
@@ -3532,10 +3602,10 @@
         <v>360</v>
       </c>
       <c r="F85" t="n">
-        <v>37.162</v>
+        <v>5472.5353</v>
       </c>
       <c r="G85" t="n">
-        <v>-54574.33749203999</v>
+        <v>-47580.52039203999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3544,17 +3614,12 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>357</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3564,19 +3629,19 @@
         <v>360</v>
       </c>
       <c r="C86" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D86" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E86" t="n">
         <v>360</v>
       </c>
       <c r="F86" t="n">
-        <v>35.5532</v>
+        <v>60</v>
       </c>
       <c r="G86" t="n">
-        <v>-54538.78429203999</v>
+        <v>-47640.52039203999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3585,39 +3650,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>357</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C87" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D87" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E87" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>161.55</v>
+        <v>8758.248100000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-54700.33429203999</v>
+        <v>-38882.27229203998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3626,39 +3686,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>357</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C88" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D88" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E88" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F88" t="n">
-        <v>163.2658</v>
+        <v>1784.3618</v>
       </c>
       <c r="G88" t="n">
-        <v>-54537.06849203999</v>
+        <v>-40666.63409203998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3667,39 +3722,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>357</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C89" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D89" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E89" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F89" t="n">
-        <v>1291.8739</v>
+        <v>2565.4407</v>
       </c>
       <c r="G89" t="n">
-        <v>-55828.94239203999</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3708,140 +3758,120 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>357</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C90" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D90" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E90" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>270.8815</v>
       </c>
       <c r="G90" t="n">
-        <v>-55827.94239203999</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>357</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C91" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D91" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E91" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F91" t="n">
-        <v>280</v>
+        <v>398.9476</v>
       </c>
       <c r="G91" t="n">
-        <v>-56107.94239203999</v>
+        <v>-38101.19339203998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>357</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C92" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D92" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E92" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>2997.9999</v>
+        <v>2777.7777</v>
       </c>
       <c r="G92" t="n">
-        <v>-53109.94249203998</v>
+        <v>-40878.97109203998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>357</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3860,51 +3890,46 @@
         <v>360</v>
       </c>
       <c r="F93" t="n">
-        <v>140.1444</v>
+        <v>270.2043</v>
       </c>
       <c r="G93" t="n">
-        <v>-53250.08689203998</v>
+        <v>-41149.17539203998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>357</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C94" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D94" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E94" t="n">
         <v>360</v>
       </c>
       <c r="F94" t="n">
-        <v>660</v>
+        <v>205.0404</v>
       </c>
       <c r="G94" t="n">
-        <v>-52590.08689203998</v>
+        <v>-41149.17539203998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3913,17 +3938,12 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>357</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3933,19 +3953,19 @@
         <v>361</v>
       </c>
       <c r="C95" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D95" t="n">
         <v>361</v>
       </c>
       <c r="E95" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F95" t="n">
-        <v>234.0368</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-52824.12369203998</v>
+        <v>-41148.17539203998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3954,39 +3974,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>357</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C96" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D96" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E96" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>5951.5441</v>
       </c>
       <c r="G96" t="n">
-        <v>-52823.12369203998</v>
+        <v>-41148.17539203998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3995,17 +4010,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>357</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4015,19 +4025,19 @@
         <v>360</v>
       </c>
       <c r="C97" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D97" t="n">
         <v>360</v>
       </c>
       <c r="E97" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F97" t="n">
-        <v>172.7799</v>
+        <v>4230.7891</v>
       </c>
       <c r="G97" t="n">
-        <v>-52995.90359203998</v>
+        <v>-45378.96449203998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4036,39 +4046,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>357</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F98" t="n">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-52995.90359203998</v>
+        <v>-45377.96449203998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4077,39 +4082,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>357</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C99" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D99" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E99" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2.159</v>
       </c>
       <c r="G99" t="n">
-        <v>-52994.90359203998</v>
+        <v>-45380.12349203998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4118,39 +4118,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>357</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C100" t="n">
         <v>359</v>
       </c>
       <c r="D100" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E100" t="n">
         <v>359</v>
       </c>
       <c r="F100" t="n">
-        <v>3064.7302</v>
+        <v>4991.7239</v>
       </c>
       <c r="G100" t="n">
-        <v>-56059.63379203998</v>
+        <v>-45380.12349203998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4159,39 +4154,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>357</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C101" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D101" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E101" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F101" t="n">
-        <v>225.0717</v>
+        <v>79.92870000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-56059.63379203998</v>
+        <v>-45460.05219203998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4200,39 +4190,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>357</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C102" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D102" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E102" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>13724.3553</v>
       </c>
       <c r="G102" t="n">
-        <v>-56058.63379203998</v>
+        <v>-45460.05219203998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4241,39 +4226,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>357</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C103" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D103" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E103" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F103" t="n">
-        <v>3109.7679558</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>-56058.63379203998</v>
+        <v>-45459.05219203998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4282,39 +4262,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>357</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C104" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D104" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E104" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F104" t="n">
-        <v>22.6882</v>
+        <v>1686.9759</v>
       </c>
       <c r="G104" t="n">
-        <v>-56081.32199203998</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4323,39 +4298,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>357</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F105" t="n">
-        <v>1395</v>
+        <v>370.2049</v>
       </c>
       <c r="G105" t="n">
-        <v>-57476.32199203998</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4364,39 +4334,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>357</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C106" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D106" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E106" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>40.7455</v>
       </c>
       <c r="G106" t="n">
-        <v>-57475.32199203998</v>
+        <v>-47146.02809203997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4405,58 +4370,52 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>357</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C107" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D107" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E107" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F107" t="n">
-        <v>1899.7177</v>
+        <v>123.453</v>
       </c>
       <c r="G107" t="n">
-        <v>-59375.03969203998</v>
+        <v>-47022.57509203997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>358</v>
+      </c>
       <c r="K107" t="n">
-        <v>357</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4475,10 +4434,10 @@
         <v>359</v>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="G108" t="n">
-        <v>-59275.03969203998</v>
+        <v>-47022.57509203997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4488,38 +4447,39 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C109" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D109" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E109" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F109" t="n">
-        <v>51.07</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="n">
-        <v>-59275.03969203998</v>
+        <v>-50022.57509203997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4529,48 +4489,51 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C110" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D110" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E110" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="G110" t="n">
-        <v>-59274.03969203998</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>357</v>
+      </c>
       <c r="K110" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4580,6 +4543,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4598,20 +4562,22 @@
         <v>359</v>
       </c>
       <c r="F111" t="n">
-        <v>387.4581</v>
+        <v>1056.7848</v>
       </c>
       <c r="G111" t="n">
-        <v>-59661.49779203998</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>359</v>
+      </c>
       <c r="K111" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4621,6 +4587,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4639,10 +4606,10 @@
         <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>3513.4322</v>
       </c>
       <c r="G112" t="n">
-        <v>-59661.49779203998</v>
+        <v>-49892.57509203997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4652,7 +4619,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4662,28 +4629,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C113" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D113" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E113" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F113" t="n">
-        <v>754.6732</v>
+        <v>2702.2486</v>
       </c>
       <c r="G113" t="n">
-        <v>-59661.49779203998</v>
+        <v>-47190.32649203997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4693,7 +4661,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4703,28 +4671,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C114" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D114" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E114" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F114" t="n">
-        <v>221.6</v>
+        <v>1947.5111</v>
       </c>
       <c r="G114" t="n">
-        <v>-59661.49779203998</v>
+        <v>-47190.32649203997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4734,7 +4703,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4744,38 +4713,41 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C115" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D115" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E115" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F115" t="n">
-        <v>52.8897</v>
+        <v>596.0362</v>
       </c>
       <c r="G115" t="n">
-        <v>-59714.38749203998</v>
+        <v>-46594.29029203997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>360</v>
+      </c>
       <c r="K115" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4785,28 +4757,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C116" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E116" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F116" t="n">
-        <v>23.2664</v>
+        <v>1110.238</v>
       </c>
       <c r="G116" t="n">
-        <v>-59691.12109203998</v>
+        <v>-47704.52829203997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4816,7 +4789,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4826,38 +4799,41 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C117" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D117" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E117" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F117" t="n">
-        <v>252.97</v>
+        <v>3.7624</v>
       </c>
       <c r="G117" t="n">
-        <v>-59944.09109203998</v>
+        <v>-47700.76589203997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>360</v>
+      </c>
       <c r="K117" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4867,38 +4843,39 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C118" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D118" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E118" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F118" t="n">
-        <v>635.7919000000001</v>
+        <v>1399.5899</v>
       </c>
       <c r="G118" t="n">
-        <v>-59944.09109203998</v>
+        <v>-49100.35579203997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4908,38 +4885,41 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C119" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D119" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E119" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F119" t="n">
-        <v>2019.4653</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>-57924.62579203998</v>
+        <v>-49100.35579203997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>360</v>
+      </c>
       <c r="K119" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4949,6 +4929,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4967,10 +4948,10 @@
         <v>361</v>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>37.6888</v>
       </c>
       <c r="G120" t="n">
-        <v>-57924.62579203998</v>
+        <v>-49062.66699203997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4980,7 +4961,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4990,28 +4971,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C121" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D121" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E121" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F121" t="n">
-        <v>354.0166</v>
+        <v>4315.9733</v>
       </c>
       <c r="G121" t="n">
-        <v>-57924.62579203998</v>
+        <v>-53378.64029203996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5021,7 +5003,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5031,6 +5013,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5049,10 +5032,10 @@
         <v>361</v>
       </c>
       <c r="F122" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-57924.62579203998</v>
+        <v>-53368.64029203996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5062,7 +5045,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5072,110 +5055,107 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C123" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D123" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E123" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F123" t="n">
-        <v>8398.0321</v>
+        <v>170</v>
       </c>
       <c r="G123" t="n">
-        <v>-49526.59369203998</v>
+        <v>-53538.64029203996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9977932960893855</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C124" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D124" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E124" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F124" t="n">
-        <v>24.2655</v>
+        <v>180</v>
       </c>
       <c r="G124" t="n">
-        <v>-49550.85919203998</v>
+        <v>-53538.64029203996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>357</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C125" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D125" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E125" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F125" t="n">
-        <v>917.3861000000001</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-49550.85919203998</v>
+        <v>-53537.64029203996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5184,58 +5164,48 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>357</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C126" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D126" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E126" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F126" t="n">
-        <v>1970.3388</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>-47580.52039203999</v>
+        <v>-53540.64029203996</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>357</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5245,60 +5215,55 @@
         <v>360</v>
       </c>
       <c r="C127" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D127" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E127" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F127" t="n">
-        <v>5472.5353</v>
+        <v>76.1075</v>
       </c>
       <c r="G127" t="n">
-        <v>-47580.52039203999</v>
+        <v>-53540.64029203996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>357</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F128" t="n">
-        <v>60</v>
+        <v>24.1377</v>
       </c>
       <c r="G128" t="n">
-        <v>-47640.52039203999</v>
+        <v>-53516.50259203996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5307,17 +5272,12 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>357</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5327,60 +5287,55 @@
         <v>360</v>
       </c>
       <c r="C129" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D129" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E129" t="n">
         <v>359</v>
       </c>
       <c r="F129" t="n">
-        <v>8758.248100000001</v>
+        <v>3173.0918</v>
       </c>
       <c r="G129" t="n">
-        <v>-38882.27229203998</v>
+        <v>-56689.59439203997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>357</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C130" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D130" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E130" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F130" t="n">
-        <v>1784.3618</v>
+        <v>2911.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>-40666.63409203998</v>
+        <v>-56689.59439203997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5389,39 +5344,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>357</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C131" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D131" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E131" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F131" t="n">
-        <v>2565.4407</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-38101.19339203998</v>
+        <v>-56688.59439203997</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5430,39 +5380,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>357</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C132" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D132" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E132" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F132" t="n">
-        <v>270.8815</v>
+        <v>425.9592</v>
       </c>
       <c r="G132" t="n">
-        <v>-38101.19339203998</v>
+        <v>-57114.55359203996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5471,39 +5416,34 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>357</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C133" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D133" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E133" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F133" t="n">
-        <v>398.9476</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>-38101.19339203998</v>
+        <v>-57113.55359203996</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5512,39 +5452,34 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>357</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C134" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D134" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E134" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F134" t="n">
-        <v>2777.7777</v>
+        <v>393.6402</v>
       </c>
       <c r="G134" t="n">
-        <v>-40878.97109203998</v>
+        <v>-57507.19379203997</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5553,17 +5488,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>357</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5582,10 +5512,10 @@
         <v>360</v>
       </c>
       <c r="F135" t="n">
-        <v>270.2043</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>-41149.17539203998</v>
+        <v>-57506.19379203997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5594,17 +5524,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>357</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5623,10 +5548,10 @@
         <v>360</v>
       </c>
       <c r="F136" t="n">
-        <v>205.0404</v>
+        <v>1.3777</v>
       </c>
       <c r="G136" t="n">
-        <v>-41149.17539203998</v>
+        <v>-57506.19379203997</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5635,39 +5560,34 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>357</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C137" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D137" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E137" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G137" t="n">
-        <v>-41148.17539203998</v>
+        <v>-57506.19379203997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5676,17 +5596,12 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>357</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5696,19 +5611,19 @@
         <v>360</v>
       </c>
       <c r="C138" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D138" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E138" t="n">
         <v>360</v>
       </c>
       <c r="F138" t="n">
-        <v>5951.5441</v>
+        <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>-41148.17539203998</v>
+        <v>-57506.19379203997</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5717,39 +5632,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>357</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C139" t="n">
         <v>359</v>
       </c>
       <c r="D139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E139" t="n">
         <v>359</v>
       </c>
       <c r="F139" t="n">
-        <v>4230.7891</v>
+        <v>746.1553</v>
       </c>
       <c r="G139" t="n">
-        <v>-45378.96449203998</v>
+        <v>-58252.34909203996</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5758,39 +5668,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>357</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>1081.3876</v>
       </c>
       <c r="G140" t="n">
-        <v>-45377.96449203998</v>
+        <v>-58252.34909203996</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5799,17 +5704,12 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>357</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5828,10 +5728,10 @@
         <v>359</v>
       </c>
       <c r="F141" t="n">
-        <v>2.159</v>
+        <v>86</v>
       </c>
       <c r="G141" t="n">
-        <v>-45380.12349203998</v>
+        <v>-58252.34909203996</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5840,39 +5740,34 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>357</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C142" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D142" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E142" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F142" t="n">
-        <v>4991.7239</v>
+        <v>505.7204</v>
       </c>
       <c r="G142" t="n">
-        <v>-45380.12349203998</v>
+        <v>-58758.06949203996</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5881,58 +5776,52 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>357</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C143" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D143" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E143" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F143" t="n">
-        <v>79.92870000000001</v>
+        <v>102.7993</v>
       </c>
       <c r="G143" t="n">
-        <v>-45460.05219203998</v>
+        <v>-58655.27019203996</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>358</v>
+      </c>
       <c r="K143" t="n">
-        <v>357</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5942,120 +5831,129 @@
         <v>359</v>
       </c>
       <c r="C144" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D144" t="n">
         <v>359</v>
       </c>
       <c r="E144" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F144" t="n">
-        <v>13724.3553</v>
+        <v>916.0468</v>
       </c>
       <c r="G144" t="n">
-        <v>-45460.05219203998</v>
+        <v>-58655.27019203996</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>359</v>
+      </c>
       <c r="K144" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>711.4961</v>
       </c>
       <c r="G145" t="n">
-        <v>-45459.05219203998</v>
+        <v>-58655.27019203996</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>359</v>
+      </c>
       <c r="K145" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C146" t="n">
         <v>358</v>
       </c>
       <c r="D146" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E146" t="n">
         <v>358</v>
       </c>
       <c r="F146" t="n">
-        <v>1686.9759</v>
+        <v>5756.716</v>
       </c>
       <c r="G146" t="n">
-        <v>-47146.02809203997</v>
+        <v>-64411.98619203996</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>359</v>
+      </c>
       <c r="K146" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6074,20 +5972,22 @@
         <v>358</v>
       </c>
       <c r="F147" t="n">
-        <v>370.2049</v>
+        <v>600</v>
       </c>
       <c r="G147" t="n">
-        <v>-47146.02809203997</v>
+        <v>-64411.98619203996</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>358</v>
+      </c>
       <c r="K147" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6097,6 +5997,7 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6106,29 +6007,31 @@
         <v>359</v>
       </c>
       <c r="C148" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D148" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E148" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F148" t="n">
-        <v>40.7455</v>
+        <v>6.1</v>
       </c>
       <c r="G148" t="n">
-        <v>-47146.02809203997</v>
+        <v>-64405.88619203996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>358</v>
+      </c>
       <c r="K148" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6138,38 +6041,41 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C149" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D149" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E149" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F149" t="n">
-        <v>123.453</v>
+        <v>263.3646</v>
       </c>
       <c r="G149" t="n">
-        <v>-47022.57509203997</v>
+        <v>-64142.52159203996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>360</v>
+      </c>
       <c r="K149" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6179,1728 +6085,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>359</v>
-      </c>
-      <c r="C150" t="n">
-        <v>359</v>
-      </c>
-      <c r="D150" t="n">
-        <v>359</v>
-      </c>
-      <c r="E150" t="n">
-        <v>359</v>
-      </c>
-      <c r="F150" t="n">
-        <v>449</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-47022.57509203997</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>357</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>358</v>
-      </c>
-      <c r="C151" t="n">
-        <v>357</v>
-      </c>
-      <c r="D151" t="n">
-        <v>358</v>
-      </c>
-      <c r="E151" t="n">
-        <v>357</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-50022.57509203997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>357</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>359</v>
-      </c>
-      <c r="C152" t="n">
-        <v>359</v>
-      </c>
-      <c r="D152" t="n">
-        <v>359</v>
-      </c>
-      <c r="E152" t="n">
-        <v>359</v>
-      </c>
-      <c r="F152" t="n">
-        <v>130</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>357</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>359</v>
-      </c>
-      <c r="C153" t="n">
-        <v>359</v>
-      </c>
-      <c r="D153" t="n">
-        <v>359</v>
-      </c>
-      <c r="E153" t="n">
-        <v>359</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1056.7848</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>357</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>359</v>
-      </c>
-      <c r="C154" t="n">
-        <v>359</v>
-      </c>
-      <c r="D154" t="n">
-        <v>359</v>
-      </c>
-      <c r="E154" t="n">
-        <v>359</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3513.4322</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>357</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>360</v>
-      </c>
-      <c r="C155" t="n">
-        <v>360</v>
-      </c>
-      <c r="D155" t="n">
-        <v>360</v>
-      </c>
-      <c r="E155" t="n">
-        <v>360</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2702.2486</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-47190.32649203997</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>357</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>360</v>
-      </c>
-      <c r="C156" t="n">
-        <v>360</v>
-      </c>
-      <c r="D156" t="n">
-        <v>360</v>
-      </c>
-      <c r="E156" t="n">
-        <v>360</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1947.5111</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-47190.32649203997</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>357</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>360</v>
-      </c>
-      <c r="C157" t="n">
-        <v>361</v>
-      </c>
-      <c r="D157" t="n">
-        <v>361</v>
-      </c>
-      <c r="E157" t="n">
-        <v>360</v>
-      </c>
-      <c r="F157" t="n">
-        <v>596.0362</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-46594.29029203997</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>357</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>360</v>
-      </c>
-      <c r="C158" t="n">
-        <v>360</v>
-      </c>
-      <c r="D158" t="n">
-        <v>360</v>
-      </c>
-      <c r="E158" t="n">
-        <v>360</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1110.238</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-47704.52829203997</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>357</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>362</v>
-      </c>
-      <c r="C159" t="n">
-        <v>361</v>
-      </c>
-      <c r="D159" t="n">
-        <v>362</v>
-      </c>
-      <c r="E159" t="n">
-        <v>361</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3.7624</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-47700.76589203997</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>357</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>360</v>
-      </c>
-      <c r="C160" t="n">
-        <v>360</v>
-      </c>
-      <c r="D160" t="n">
-        <v>360</v>
-      </c>
-      <c r="E160" t="n">
-        <v>360</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1399.5899</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-49100.35579203997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>357</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>360</v>
-      </c>
-      <c r="C161" t="n">
-        <v>360</v>
-      </c>
-      <c r="D161" t="n">
-        <v>360</v>
-      </c>
-      <c r="E161" t="n">
-        <v>360</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-49100.35579203997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>357</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>361</v>
-      </c>
-      <c r="C162" t="n">
-        <v>361</v>
-      </c>
-      <c r="D162" t="n">
-        <v>361</v>
-      </c>
-      <c r="E162" t="n">
-        <v>361</v>
-      </c>
-      <c r="F162" t="n">
-        <v>37.6888</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-49062.66699203997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>357</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>360</v>
-      </c>
-      <c r="C163" t="n">
-        <v>360</v>
-      </c>
-      <c r="D163" t="n">
-        <v>360</v>
-      </c>
-      <c r="E163" t="n">
-        <v>359</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4315.9733</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-53378.64029203996</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>357</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>361</v>
-      </c>
-      <c r="C164" t="n">
-        <v>361</v>
-      </c>
-      <c r="D164" t="n">
-        <v>361</v>
-      </c>
-      <c r="E164" t="n">
-        <v>361</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-53368.64029203996</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>357</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>359</v>
-      </c>
-      <c r="C165" t="n">
-        <v>359</v>
-      </c>
-      <c r="D165" t="n">
-        <v>359</v>
-      </c>
-      <c r="E165" t="n">
-        <v>359</v>
-      </c>
-      <c r="F165" t="n">
-        <v>170</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-53538.64029203996</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>357</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>359</v>
-      </c>
-      <c r="C166" t="n">
-        <v>359</v>
-      </c>
-      <c r="D166" t="n">
-        <v>359</v>
-      </c>
-      <c r="E166" t="n">
-        <v>359</v>
-      </c>
-      <c r="F166" t="n">
-        <v>180</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-53538.64029203996</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>357</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>361</v>
-      </c>
-      <c r="C167" t="n">
-        <v>361</v>
-      </c>
-      <c r="D167" t="n">
-        <v>361</v>
-      </c>
-      <c r="E167" t="n">
-        <v>361</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-53537.64029203996</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>357</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>359</v>
-      </c>
-      <c r="C168" t="n">
-        <v>359</v>
-      </c>
-      <c r="D168" t="n">
-        <v>359</v>
-      </c>
-      <c r="E168" t="n">
-        <v>359</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-53540.64029203996</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>357</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>360</v>
-      </c>
-      <c r="C169" t="n">
-        <v>359</v>
-      </c>
-      <c r="D169" t="n">
-        <v>360</v>
-      </c>
-      <c r="E169" t="n">
-        <v>359</v>
-      </c>
-      <c r="F169" t="n">
-        <v>76.1075</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-53540.64029203996</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>357</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>361</v>
-      </c>
-      <c r="C170" t="n">
-        <v>361</v>
-      </c>
-      <c r="D170" t="n">
-        <v>361</v>
-      </c>
-      <c r="E170" t="n">
-        <v>361</v>
-      </c>
-      <c r="F170" t="n">
-        <v>24.1377</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-53516.50259203996</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>357</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>360</v>
-      </c>
-      <c r="C171" t="n">
-        <v>359</v>
-      </c>
-      <c r="D171" t="n">
-        <v>360</v>
-      </c>
-      <c r="E171" t="n">
-        <v>359</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3173.0918</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-56689.59439203997</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>357</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>360</v>
-      </c>
-      <c r="C172" t="n">
-        <v>359</v>
-      </c>
-      <c r="D172" t="n">
-        <v>360</v>
-      </c>
-      <c r="E172" t="n">
-        <v>359</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2911.9999</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-56689.59439203997</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>357</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>360</v>
-      </c>
-      <c r="C173" t="n">
-        <v>360</v>
-      </c>
-      <c r="D173" t="n">
-        <v>360</v>
-      </c>
-      <c r="E173" t="n">
-        <v>360</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-56688.59439203997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>357</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>359</v>
-      </c>
-      <c r="C174" t="n">
-        <v>359</v>
-      </c>
-      <c r="D174" t="n">
-        <v>359</v>
-      </c>
-      <c r="E174" t="n">
-        <v>359</v>
-      </c>
-      <c r="F174" t="n">
-        <v>425.9592</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-57114.55359203996</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>357</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>360</v>
-      </c>
-      <c r="C175" t="n">
-        <v>360</v>
-      </c>
-      <c r="D175" t="n">
-        <v>360</v>
-      </c>
-      <c r="E175" t="n">
-        <v>360</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-57113.55359203996</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>357</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>358</v>
-      </c>
-      <c r="C176" t="n">
-        <v>358</v>
-      </c>
-      <c r="D176" t="n">
-        <v>358</v>
-      </c>
-      <c r="E176" t="n">
-        <v>358</v>
-      </c>
-      <c r="F176" t="n">
-        <v>393.6402</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-57507.19379203997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>357</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>360</v>
-      </c>
-      <c r="C177" t="n">
-        <v>360</v>
-      </c>
-      <c r="D177" t="n">
-        <v>360</v>
-      </c>
-      <c r="E177" t="n">
-        <v>360</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>357</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>360</v>
-      </c>
-      <c r="C178" t="n">
-        <v>360</v>
-      </c>
-      <c r="D178" t="n">
-        <v>360</v>
-      </c>
-      <c r="E178" t="n">
-        <v>360</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1.3777</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>357</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>360</v>
-      </c>
-      <c r="C179" t="n">
-        <v>360</v>
-      </c>
-      <c r="D179" t="n">
-        <v>360</v>
-      </c>
-      <c r="E179" t="n">
-        <v>360</v>
-      </c>
-      <c r="F179" t="n">
-        <v>99</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>357</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>360</v>
-      </c>
-      <c r="C180" t="n">
-        <v>360</v>
-      </c>
-      <c r="D180" t="n">
-        <v>360</v>
-      </c>
-      <c r="E180" t="n">
-        <v>360</v>
-      </c>
-      <c r="F180" t="n">
-        <v>200</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>357</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>359</v>
-      </c>
-      <c r="C181" t="n">
-        <v>359</v>
-      </c>
-      <c r="D181" t="n">
-        <v>359</v>
-      </c>
-      <c r="E181" t="n">
-        <v>359</v>
-      </c>
-      <c r="F181" t="n">
-        <v>746.1553</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>357</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>359</v>
-      </c>
-      <c r="C182" t="n">
-        <v>359</v>
-      </c>
-      <c r="D182" t="n">
-        <v>359</v>
-      </c>
-      <c r="E182" t="n">
-        <v>359</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1081.3876</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>357</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>359</v>
-      </c>
-      <c r="C183" t="n">
-        <v>359</v>
-      </c>
-      <c r="D183" t="n">
-        <v>359</v>
-      </c>
-      <c r="E183" t="n">
-        <v>359</v>
-      </c>
-      <c r="F183" t="n">
-        <v>86</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>357</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>358</v>
-      </c>
-      <c r="C184" t="n">
-        <v>358</v>
-      </c>
-      <c r="D184" t="n">
-        <v>358</v>
-      </c>
-      <c r="E184" t="n">
-        <v>358</v>
-      </c>
-      <c r="F184" t="n">
-        <v>505.7204</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-58758.06949203996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>357</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>359</v>
-      </c>
-      <c r="C185" t="n">
-        <v>359</v>
-      </c>
-      <c r="D185" t="n">
-        <v>359</v>
-      </c>
-      <c r="E185" t="n">
-        <v>359</v>
-      </c>
-      <c r="F185" t="n">
-        <v>102.7993</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>357</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>359</v>
-      </c>
-      <c r="C186" t="n">
-        <v>359</v>
-      </c>
-      <c r="D186" t="n">
-        <v>359</v>
-      </c>
-      <c r="E186" t="n">
-        <v>359</v>
-      </c>
-      <c r="F186" t="n">
-        <v>916.0468</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>357</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>359</v>
-      </c>
-      <c r="C187" t="n">
-        <v>359</v>
-      </c>
-      <c r="D187" t="n">
-        <v>359</v>
-      </c>
-      <c r="E187" t="n">
-        <v>359</v>
-      </c>
-      <c r="F187" t="n">
-        <v>711.4961</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>357</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>359</v>
-      </c>
-      <c r="C188" t="n">
-        <v>358</v>
-      </c>
-      <c r="D188" t="n">
-        <v>359</v>
-      </c>
-      <c r="E188" t="n">
-        <v>358</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5756.716</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-64411.98619203996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>357</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>358</v>
-      </c>
-      <c r="C189" t="n">
-        <v>358</v>
-      </c>
-      <c r="D189" t="n">
-        <v>358</v>
-      </c>
-      <c r="E189" t="n">
-        <v>358</v>
-      </c>
-      <c r="F189" t="n">
-        <v>600</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-64411.98619203996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>357</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>359</v>
-      </c>
-      <c r="C190" t="n">
-        <v>360</v>
-      </c>
-      <c r="D190" t="n">
-        <v>360</v>
-      </c>
-      <c r="E190" t="n">
-        <v>359</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-64405.88619203996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>357</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>360</v>
-      </c>
-      <c r="C191" t="n">
-        <v>361</v>
-      </c>
-      <c r="D191" t="n">
-        <v>361</v>
-      </c>
-      <c r="E191" t="n">
-        <v>360</v>
-      </c>
-      <c r="F191" t="n">
-        <v>263.3646</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-64142.52159203996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>357</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C2" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D2" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E2" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F2" t="n">
-        <v>543.1654</v>
+        <v>111.4368</v>
       </c>
       <c r="G2" t="n">
-        <v>-79936.00991112001</v>
+        <v>-20782.56401112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C3" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D3" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E3" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F3" t="n">
-        <v>502.1819</v>
+        <v>301.1818</v>
       </c>
       <c r="G3" t="n">
-        <v>-79936.00991112001</v>
+        <v>-21083.74581112</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E4" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>51.8359</v>
       </c>
       <c r="G4" t="n">
-        <v>-79935.00991112001</v>
+        <v>-21031.90991112</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C5" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D5" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E5" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="G5" t="n">
-        <v>-79990.00991112001</v>
+        <v>-21481.90991112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C6" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D6" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E6" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F6" t="n">
-        <v>4231.4083</v>
+        <v>43.4476</v>
       </c>
       <c r="G6" t="n">
-        <v>-75758.60161112002</v>
+        <v>-21438.46231112</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C7" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D7" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E7" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F7" t="n">
-        <v>321.9543</v>
+        <v>67.3395</v>
       </c>
       <c r="G7" t="n">
-        <v>-76080.55591112001</v>
+        <v>-21438.46231112</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C8" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D8" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E8" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>8529.6049</v>
       </c>
       <c r="G8" t="n">
-        <v>-76580.55591112001</v>
+        <v>-21438.46231112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>2.0906</v>
       </c>
       <c r="G9" t="n">
-        <v>-76580.55591112001</v>
+        <v>-21438.46231112</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C10" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D10" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E10" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F10" t="n">
-        <v>4066.0823</v>
+        <v>10307.2175</v>
       </c>
       <c r="G10" t="n">
-        <v>-76580.55591112001</v>
+        <v>-31745.67981112</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C11" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D11" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E11" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F11" t="n">
-        <v>192.1197</v>
+        <v>18.6721</v>
       </c>
       <c r="G11" t="n">
-        <v>-76772.67561112001</v>
+        <v>-31727.00771112</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C12" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E12" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F12" t="n">
-        <v>3319.0279</v>
+        <v>347.094</v>
       </c>
       <c r="G12" t="n">
-        <v>-76772.67561112001</v>
+        <v>-32074.10171112001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,38 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E13" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F13" t="n">
-        <v>1444</v>
+        <v>9987.968500000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-75328.67561112001</v>
+        <v>-42062.07021112001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>356</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -876,38 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C14" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D14" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E14" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F14" t="n">
-        <v>7656.81</v>
+        <v>56.5454</v>
       </c>
       <c r="G14" t="n">
-        <v>-82985.48561112001</v>
+        <v>-42005.52481112001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>357</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,38 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C15" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D15" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E15" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F15" t="n">
-        <v>1193.114</v>
+        <v>91.2119</v>
       </c>
       <c r="G15" t="n">
-        <v>-81792.37161112</v>
+        <v>-41914.31291112</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>355</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -960,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C16" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D16" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E16" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F16" t="n">
-        <v>18.778</v>
+        <v>45.9925</v>
       </c>
       <c r="G16" t="n">
-        <v>-81792.37161112</v>
+        <v>-41960.30541112</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -985,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1000,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C17" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D17" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E17" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F17" t="n">
-        <v>3220</v>
+        <v>141.6407</v>
       </c>
       <c r="G17" t="n">
-        <v>-78572.37161112</v>
+        <v>-41960.30541112</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1025,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1040,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F18" t="n">
-        <v>3044.7141</v>
+        <v>8.552899999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-78572.37161112</v>
+        <v>-41960.30541112</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1065,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C19" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D19" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E19" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F19" t="n">
-        <v>896.6629</v>
+        <v>9.5785</v>
       </c>
       <c r="G19" t="n">
-        <v>-78572.37161112</v>
+        <v>-41950.72691112</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1105,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1120,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C20" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D20" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E20" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F20" t="n">
-        <v>2128.9233</v>
+        <v>35.8384</v>
       </c>
       <c r="G20" t="n">
-        <v>-80701.29491112</v>
+        <v>-41986.56531112</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1145,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1160,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C21" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D21" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E21" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1302.7656</v>
       </c>
       <c r="G21" t="n">
-        <v>-80700.29491112</v>
+        <v>-43289.33091112</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1185,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1200,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C22" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D22" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E22" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F22" t="n">
-        <v>1962.8919</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-78737.40301112</v>
+        <v>-43288.33091112</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1225,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1240,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C23" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D23" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E23" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F23" t="n">
-        <v>635.2785</v>
+        <v>12421.0172</v>
       </c>
       <c r="G23" t="n">
-        <v>-78737.40301112</v>
+        <v>-55709.34811112</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1265,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1280,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C24" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D24" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E24" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F24" t="n">
-        <v>10693.248</v>
+        <v>41.6463</v>
       </c>
       <c r="G24" t="n">
-        <v>-68044.15501111999</v>
+        <v>-55667.70181112</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1305,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C25" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D25" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E25" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F25" t="n">
-        <v>5269.4075</v>
+        <v>366.3149</v>
       </c>
       <c r="G25" t="n">
-        <v>-62774.74751111999</v>
+        <v>-55667.70181112</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1345,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1360,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C26" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D26" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E26" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1818</v>
+        <v>265.3093</v>
       </c>
       <c r="G26" t="n">
-        <v>-62775.92931111999</v>
+        <v>-55667.70181112</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1385,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1400,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C27" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D27" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E27" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F27" t="n">
-        <v>2476.1537</v>
+        <v>19.0198</v>
       </c>
       <c r="G27" t="n">
-        <v>-62775.92931111999</v>
+        <v>-55648.68201112</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1425,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1440,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E28" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F28" t="n">
-        <v>4048.62222458</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-58727.30708653999</v>
+        <v>-55648.68201112</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1465,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1480,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D29" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E29" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.9802</v>
       </c>
       <c r="G29" t="n">
-        <v>-58726.30708653999</v>
+        <v>-55649.66221112</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1523,19 +1449,19 @@
         <v>361</v>
       </c>
       <c r="C30" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D30" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E30" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F30" t="n">
-        <v>1831.98789311</v>
+        <v>3153.9604</v>
       </c>
       <c r="G30" t="n">
-        <v>-58726.30708653999</v>
+        <v>-58803.62261111999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1545,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1560,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C31" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D31" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E31" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F31" t="n">
-        <v>3445.77961432</v>
+        <v>2880</v>
       </c>
       <c r="G31" t="n">
-        <v>-58726.30708653999</v>
+        <v>-58803.62261111999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1585,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C32" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D32" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E32" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F32" t="n">
-        <v>5494.5054945</v>
+        <v>1513.8684</v>
       </c>
       <c r="G32" t="n">
-        <v>-53231.80159203998</v>
+        <v>-58803.62261111999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1625,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1640,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C33" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D33" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E33" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F33" t="n">
-        <v>927.4065000000001</v>
+        <v>3.3016</v>
       </c>
       <c r="G33" t="n">
-        <v>-53231.80159203998</v>
+        <v>-58800.32101112</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1665,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C34" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D34" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E34" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F34" t="n">
-        <v>24.4823</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>-53256.28389203999</v>
+        <v>-68800.32101111999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1705,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1735,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-53256.28389203999</v>
+        <v>-68799.32101111999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1745,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1763,19 +1665,19 @@
         <v>361</v>
       </c>
       <c r="C36" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D36" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E36" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F36" t="n">
-        <v>2.7673</v>
+        <v>947.9256</v>
       </c>
       <c r="G36" t="n">
-        <v>-53259.05119203999</v>
+        <v>-68799.32101111999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1785,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1803,19 +1701,19 @@
         <v>360</v>
       </c>
       <c r="C37" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D37" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37" t="n">
-        <v>165.7978</v>
+        <v>3635.6043</v>
       </c>
       <c r="G37" t="n">
-        <v>-53093.25339203999</v>
+        <v>-72434.92531111999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1825,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1840,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E38" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F38" t="n">
-        <v>245.9999</v>
+        <v>10000.3183</v>
       </c>
       <c r="G38" t="n">
-        <v>-53339.25329203999</v>
+        <v>-82435.24361111999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1865,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1892,10 +1782,10 @@
         <v>361</v>
       </c>
       <c r="F39" t="n">
-        <v>148.2026</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-53191.05069203999</v>
+        <v>-82434.24361111999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1905,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1920,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E40" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F40" t="n">
-        <v>1483.181</v>
+        <v>99.4699</v>
       </c>
       <c r="G40" t="n">
-        <v>-54674.23169203999</v>
+        <v>-82533.71351111999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1945,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C41" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D41" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E41" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F41" t="n">
-        <v>137.0562</v>
+        <v>89</v>
       </c>
       <c r="G41" t="n">
-        <v>-54537.17549203999</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1985,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C42" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D42" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E42" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F42" t="n">
-        <v>528</v>
+        <v>1908.8833</v>
       </c>
       <c r="G42" t="n">
-        <v>-54537.17549203999</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2025,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2040,37 +1914,35 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C43" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D43" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E43" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F43" t="n">
-        <v>37.162</v>
+        <v>548</v>
       </c>
       <c r="G43" t="n">
-        <v>-54574.33749203999</v>
+        <v>-82622.71351111999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
       <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2090,10 +1962,10 @@
         <v>360</v>
       </c>
       <c r="F44" t="n">
-        <v>35.5532</v>
+        <v>19.6022</v>
       </c>
       <c r="G44" t="n">
-        <v>-54538.78429203999</v>
+        <v>-82603.11131112</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2114,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D45" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E45" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F45" t="n">
-        <v>161.55</v>
+        <v>45.5081</v>
       </c>
       <c r="G45" t="n">
-        <v>-54700.33429203999</v>
+        <v>-82648.61941112</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2150,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C46" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D46" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E46" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F46" t="n">
-        <v>163.2658</v>
+        <v>1187.4232</v>
       </c>
       <c r="G46" t="n">
-        <v>-54537.06849203999</v>
+        <v>-82648.61941112</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2186,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C47" t="n">
         <v>360</v>
       </c>
       <c r="D47" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E47" t="n">
         <v>360</v>
       </c>
       <c r="F47" t="n">
-        <v>1291.8739</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-55828.94239203999</v>
+        <v>-82647.61941112</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2222,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C48" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D48" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>1736</v>
       </c>
       <c r="G48" t="n">
-        <v>-55827.94239203999</v>
+        <v>-82647.61941112</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2258,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D49" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F49" t="n">
-        <v>280</v>
+        <v>249.6355</v>
       </c>
       <c r="G49" t="n">
-        <v>-56107.94239203999</v>
+        <v>-82897.25491112001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2297,19 +2169,19 @@
         <v>360</v>
       </c>
       <c r="C50" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E50" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F50" t="n">
-        <v>2997.9999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-53109.94249203998</v>
+        <v>-82896.25491112001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2330,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D51" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E51" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F51" t="n">
-        <v>140.1444</v>
+        <v>335.8521</v>
       </c>
       <c r="G51" t="n">
-        <v>-53250.08689203998</v>
+        <v>-83232.10701112001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2366,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C52" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D52" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E52" t="n">
         <v>360</v>
       </c>
       <c r="F52" t="n">
-        <v>660</v>
+        <v>6442.7894</v>
       </c>
       <c r="G52" t="n">
-        <v>-52590.08689203998</v>
+        <v>-76789.31761112002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2402,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" t="n">
         <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E53" t="n">
         <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>234.0368</v>
+        <v>695.9731</v>
       </c>
       <c r="G53" t="n">
-        <v>-52824.12369203998</v>
+        <v>-76789.31761112002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2438,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D54" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E54" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>908.6306</v>
       </c>
       <c r="G54" t="n">
-        <v>-52823.12369203998</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2474,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D55" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E55" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F55" t="n">
-        <v>172.7799</v>
+        <v>1941.0938</v>
       </c>
       <c r="G55" t="n">
-        <v>-52995.90359203998</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2510,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D56" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E56" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F56" t="n">
-        <v>178</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>-52995.90359203998</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2546,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C57" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D57" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E57" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2829.2687</v>
       </c>
       <c r="G57" t="n">
-        <v>-52994.90359203998</v>
+        <v>-77697.94821112002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2582,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C58" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D58" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E58" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F58" t="n">
-        <v>3064.7302</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-56059.63379203998</v>
+        <v>-79697.94821112002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2618,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C59" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E59" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F59" t="n">
-        <v>225.0717</v>
+        <v>373.3362</v>
       </c>
       <c r="G59" t="n">
-        <v>-56059.63379203998</v>
+        <v>-79697.94821112002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2654,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C60" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D60" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E60" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1085.0043</v>
       </c>
       <c r="G60" t="n">
-        <v>-56058.63379203998</v>
+        <v>-78612.94391112002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2690,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C61" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D61" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E61" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F61" t="n">
-        <v>3109.7679558</v>
+        <v>604.9766</v>
       </c>
       <c r="G61" t="n">
-        <v>-56058.63379203998</v>
+        <v>-79217.92051112001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2726,7 +2598,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C62" t="n">
         <v>360</v>
@@ -2735,13 +2607,13 @@
         <v>360</v>
       </c>
       <c r="E62" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F62" t="n">
-        <v>22.6882</v>
+        <v>731.0111000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>-56081.32199203998</v>
+        <v>-78486.90941112001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2762,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C63" t="n">
         <v>359</v>
       </c>
       <c r="D63" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E63" t="n">
         <v>359</v>
       </c>
       <c r="F63" t="n">
-        <v>1395</v>
+        <v>1075</v>
       </c>
       <c r="G63" t="n">
-        <v>-57476.32199203998</v>
+        <v>-79561.90941112001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2798,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C64" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D64" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E64" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="G64" t="n">
-        <v>-57475.32199203998</v>
+        <v>-78559.90941112001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2837,19 +2709,19 @@
         <v>360</v>
       </c>
       <c r="C65" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D65" t="n">
         <v>360</v>
       </c>
       <c r="E65" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F65" t="n">
-        <v>1899.7177</v>
+        <v>546.3169</v>
       </c>
       <c r="G65" t="n">
-        <v>-59375.03969203998</v>
+        <v>-79106.22631112002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2870,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C66" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D66" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E66" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>754.9471</v>
       </c>
       <c r="G66" t="n">
-        <v>-59275.03969203998</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2906,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C67" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D67" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E67" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F67" t="n">
-        <v>51.07</v>
+        <v>115.4598</v>
       </c>
       <c r="G67" t="n">
-        <v>-59275.03969203998</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2942,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C68" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D68" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E68" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-59274.03969203998</v>
+        <v>-78351.27921112001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2978,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C69" t="n">
         <v>359</v>
       </c>
       <c r="D69" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E69" t="n">
         <v>359</v>
       </c>
       <c r="F69" t="n">
-        <v>387.4581</v>
+        <v>1042.3834</v>
       </c>
       <c r="G69" t="n">
-        <v>-59661.49779203998</v>
+        <v>-79393.66261112002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3014,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C70" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D70" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E70" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-59661.49779203998</v>
+        <v>-79392.66261112002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3062,10 +2934,10 @@
         <v>359</v>
       </c>
       <c r="F71" t="n">
-        <v>754.6732</v>
+        <v>1.1819</v>
       </c>
       <c r="G71" t="n">
-        <v>-59661.49779203998</v>
+        <v>-79393.84451112001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3086,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E72" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F72" t="n">
-        <v>221.6</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-59661.49779203998</v>
+        <v>-79392.84451112001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3122,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C73" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D73" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E73" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F73" t="n">
-        <v>52.8897</v>
+        <v>543.1654</v>
       </c>
       <c r="G73" t="n">
-        <v>-59714.38749203998</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3170,23 +3042,19 @@
         <v>359</v>
       </c>
       <c r="F74" t="n">
-        <v>23.2664</v>
+        <v>502.1819</v>
       </c>
       <c r="G74" t="n">
-        <v>-59691.12109203998</v>
+        <v>-79936.00991112001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>358</v>
-      </c>
-      <c r="K74" t="n">
-        <v>358</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3198,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D75" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E75" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F75" t="n">
-        <v>252.97</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-59944.09109203998</v>
+        <v>-79935.00991112001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>359</v>
-      </c>
-      <c r="K75" t="n">
-        <v>358</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3254,28 +3114,20 @@
         <v>358</v>
       </c>
       <c r="F76" t="n">
-        <v>635.7919000000001</v>
+        <v>55</v>
       </c>
       <c r="G76" t="n">
-        <v>-59944.09109203998</v>
+        <v>-79990.00991112001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>358</v>
-      </c>
-      <c r="K76" t="n">
-        <v>358</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3286,35 +3138,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C77" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D77" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E77" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F77" t="n">
-        <v>2019.4653</v>
+        <v>4231.4083</v>
       </c>
       <c r="G77" t="n">
-        <v>-57924.62579203998</v>
+        <v>-75758.60161112002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>358</v>
-      </c>
-      <c r="K77" t="n">
-        <v>358</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3326,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C78" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D78" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E78" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>321.9543</v>
       </c>
       <c r="G78" t="n">
-        <v>-57924.62579203998</v>
+        <v>-76080.55591112001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3350,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>358</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3368,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C79" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D79" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E79" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F79" t="n">
-        <v>354.0166</v>
+        <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>-57924.62579203998</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3392,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>358</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3410,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C80" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D80" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E80" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F80" t="n">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>-57924.62579203998</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3446,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C81" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D81" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E81" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F81" t="n">
-        <v>8398.0321</v>
+        <v>4066.0823</v>
       </c>
       <c r="G81" t="n">
-        <v>-49526.59369203998</v>
+        <v>-76580.55591112001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3482,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C82" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D82" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E82" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F82" t="n">
-        <v>24.2655</v>
+        <v>192.1197</v>
       </c>
       <c r="G82" t="n">
-        <v>-49550.85919203998</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3518,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C83" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D83" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E83" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F83" t="n">
-        <v>917.3861000000001</v>
+        <v>3319.0279</v>
       </c>
       <c r="G83" t="n">
-        <v>-49550.85919203998</v>
+        <v>-76772.67561112001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3554,32 +3390,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C84" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D84" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E84" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F84" t="n">
-        <v>1970.3388</v>
+        <v>1444</v>
       </c>
       <c r="G84" t="n">
-        <v>-47580.52039203999</v>
+        <v>-75328.67561112001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>356</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3590,32 +3432,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C85" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D85" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E85" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F85" t="n">
-        <v>5472.5353</v>
+        <v>7656.81</v>
       </c>
       <c r="G85" t="n">
-        <v>-47580.52039203999</v>
+        <v>-82985.48561112001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>357</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3626,32 +3474,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C86" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D86" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E86" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F86" t="n">
-        <v>60</v>
+        <v>1193.114</v>
       </c>
       <c r="G86" t="n">
-        <v>-47640.52039203999</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>355</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3662,22 +3516,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C87" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D87" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E87" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F87" t="n">
-        <v>8758.248100000001</v>
+        <v>18.778</v>
       </c>
       <c r="G87" t="n">
-        <v>-38882.27229203998</v>
+        <v>-81792.37161112</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3687,7 +3541,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3698,32 +3556,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D88" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E88" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F88" t="n">
-        <v>1784.3618</v>
+        <v>3220</v>
       </c>
       <c r="G88" t="n">
-        <v>-40666.63409203998</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>357</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3734,22 +3598,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C89" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D89" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E89" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F89" t="n">
-        <v>2565.4407</v>
+        <v>3044.7141</v>
       </c>
       <c r="G89" t="n">
-        <v>-38101.19339203998</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3759,7 +3623,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3770,32 +3638,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C90" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D90" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E90" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F90" t="n">
-        <v>270.8815</v>
+        <v>896.6629</v>
       </c>
       <c r="G90" t="n">
-        <v>-38101.19339203998</v>
+        <v>-78572.37161112</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3806,32 +3678,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C91" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D91" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E91" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F91" t="n">
-        <v>398.9476</v>
+        <v>2128.9233</v>
       </c>
       <c r="G91" t="n">
-        <v>-38101.19339203998</v>
+        <v>-80701.29491112</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>359</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3842,32 +3720,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C92" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D92" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E92" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F92" t="n">
-        <v>2777.7777</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-40878.97109203998</v>
+        <v>-80700.29491112</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>356</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3878,32 +3762,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C93" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D93" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E93" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F93" t="n">
-        <v>270.2043</v>
+        <v>1962.8919</v>
       </c>
       <c r="G93" t="n">
-        <v>-41149.17539203998</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>358</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3914,32 +3804,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F94" t="n">
-        <v>205.0404</v>
+        <v>635.2785</v>
       </c>
       <c r="G94" t="n">
-        <v>-41149.17539203998</v>
+        <v>-78737.40301112</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>359</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3950,32 +3846,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C95" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D95" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E95" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>10693.248</v>
       </c>
       <c r="G95" t="n">
-        <v>-41148.17539203998</v>
+        <v>-68044.15501111999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>359</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3998,20 +3900,26 @@
         <v>360</v>
       </c>
       <c r="F96" t="n">
-        <v>5951.5441</v>
+        <v>5269.4075</v>
       </c>
       <c r="G96" t="n">
-        <v>-41148.17539203998</v>
+        <v>-62774.74751111999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>360</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4025,29 +3933,35 @@
         <v>360</v>
       </c>
       <c r="C97" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D97" t="n">
         <v>360</v>
       </c>
       <c r="E97" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>4230.7891</v>
+        <v>1.1818</v>
       </c>
       <c r="G97" t="n">
-        <v>-45378.96449203998</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>361</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +3972,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D98" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E98" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2476.1537</v>
       </c>
       <c r="G98" t="n">
-        <v>-45377.96449203998</v>
+        <v>-62775.92931111999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4083,7 +3997,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4094,32 +4012,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C99" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D99" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E99" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F99" t="n">
-        <v>2.159</v>
+        <v>4048.62222458</v>
       </c>
       <c r="G99" t="n">
-        <v>-45380.12349203998</v>
+        <v>-58727.30708653999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>360</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4130,22 +4054,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C100" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D100" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E100" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F100" t="n">
-        <v>4991.7239</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-45380.12349203998</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4155,7 +4079,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4166,22 +4094,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C101" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D101" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E101" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F101" t="n">
-        <v>79.92870000000001</v>
+        <v>1831.98789311</v>
       </c>
       <c r="G101" t="n">
-        <v>-45460.05219203998</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4191,7 +4119,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4202,22 +4134,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C102" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D102" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E102" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F102" t="n">
-        <v>13724.3553</v>
+        <v>3445.77961432</v>
       </c>
       <c r="G102" t="n">
-        <v>-45460.05219203998</v>
+        <v>-58726.30708653999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4227,7 +4159,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4238,22 +4174,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C103" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D103" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E103" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>5494.5054945</v>
       </c>
       <c r="G103" t="n">
-        <v>-45459.05219203998</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4263,7 +4199,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +4214,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C104" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D104" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E104" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F104" t="n">
-        <v>1686.9759</v>
+        <v>927.4065000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-47146.02809203997</v>
+        <v>-53231.80159203998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4299,7 +4239,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4310,22 +4254,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C105" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D105" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E105" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F105" t="n">
-        <v>370.2049</v>
+        <v>24.4823</v>
       </c>
       <c r="G105" t="n">
-        <v>-47146.02809203997</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4335,7 +4279,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4346,22 +4294,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C106" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D106" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E106" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F106" t="n">
-        <v>40.7455</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-47146.02809203997</v>
+        <v>-53256.28389203999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4371,7 +4319,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4382,36 +4334,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C107" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D107" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E107" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F107" t="n">
-        <v>123.453</v>
+        <v>2.7673</v>
       </c>
       <c r="G107" t="n">
-        <v>-47022.57509203997</v>
+        <v>-53259.05119203999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>358</v>
-      </c>
-      <c r="K107" t="n">
-        <v>358</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4422,22 +4374,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C108" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D108" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E108" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F108" t="n">
-        <v>449</v>
+        <v>165.7978</v>
       </c>
       <c r="G108" t="n">
-        <v>-47022.57509203997</v>
+        <v>-53093.25339203999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4446,12 +4398,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>358</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4464,22 +4414,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C109" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D109" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E109" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F109" t="n">
-        <v>3000</v>
+        <v>245.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>-50022.57509203997</v>
+        <v>-53339.25329203999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4488,12 +4438,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>358</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -4506,35 +4454,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C110" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D110" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E110" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F110" t="n">
-        <v>130</v>
+        <v>148.2026</v>
       </c>
       <c r="G110" t="n">
-        <v>-49892.57509203997</v>
+        <v>-53191.05069203999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>357</v>
-      </c>
-      <c r="K110" t="n">
-        <v>358</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,35 +4494,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F111" t="n">
-        <v>1056.7848</v>
+        <v>1483.181</v>
       </c>
       <c r="G111" t="n">
-        <v>-49892.57509203997</v>
+        <v>-54674.23169203999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>359</v>
-      </c>
-      <c r="K111" t="n">
-        <v>358</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,22 +4534,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E112" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F112" t="n">
-        <v>3513.4322</v>
+        <v>137.0562</v>
       </c>
       <c r="G112" t="n">
-        <v>-49892.57509203997</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4618,9 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>358</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,22 +4574,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C113" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D113" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E113" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F113" t="n">
-        <v>2702.2486</v>
+        <v>528</v>
       </c>
       <c r="G113" t="n">
-        <v>-47190.32649203997</v>
+        <v>-54537.17549203999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4660,9 +4598,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>358</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,22 +4614,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C114" t="n">
         <v>360</v>
       </c>
       <c r="D114" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E114" t="n">
         <v>360</v>
       </c>
       <c r="F114" t="n">
-        <v>1947.5111</v>
+        <v>37.162</v>
       </c>
       <c r="G114" t="n">
-        <v>-47190.32649203997</v>
+        <v>-54574.33749203999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4702,9 +4638,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>358</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,23 +4666,19 @@
         <v>360</v>
       </c>
       <c r="F115" t="n">
-        <v>596.0362</v>
+        <v>35.5532</v>
       </c>
       <c r="G115" t="n">
-        <v>-46594.29029203997</v>
+        <v>-54538.78429203999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>360</v>
-      </c>
-      <c r="K115" t="n">
-        <v>358</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,22 +4694,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C116" t="n">
         <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E116" t="n">
         <v>360</v>
       </c>
       <c r="F116" t="n">
-        <v>1110.238</v>
+        <v>161.55</v>
       </c>
       <c r="G116" t="n">
-        <v>-47704.52829203997</v>
+        <v>-54700.33429203999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4788,9 +4718,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>358</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,35 +4734,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C117" t="n">
         <v>361</v>
       </c>
       <c r="D117" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E117" t="n">
         <v>361</v>
       </c>
       <c r="F117" t="n">
-        <v>3.7624</v>
+        <v>163.2658</v>
       </c>
       <c r="G117" t="n">
-        <v>-47700.76589203997</v>
+        <v>-54537.06849203999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>360</v>
-      </c>
-      <c r="K117" t="n">
-        <v>358</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,33 +4774,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C118" t="n">
         <v>360</v>
       </c>
       <c r="D118" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E118" t="n">
         <v>360</v>
       </c>
       <c r="F118" t="n">
-        <v>1399.5899</v>
+        <v>1291.8739</v>
       </c>
       <c r="G118" t="n">
-        <v>-49100.35579203997</v>
+        <v>-55828.94239203999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>358</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,35 +4814,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C119" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D119" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E119" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>-49100.35579203997</v>
+        <v>-55827.94239203999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>360</v>
-      </c>
-      <c r="K119" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,22 +4854,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C120" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D120" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E120" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F120" t="n">
-        <v>37.6888</v>
+        <v>280</v>
       </c>
       <c r="G120" t="n">
-        <v>-49062.66699203997</v>
+        <v>-56107.94239203999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4960,9 +4878,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>358</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4981,19 +4897,19 @@
         <v>360</v>
       </c>
       <c r="C121" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D121" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E121" t="n">
         <v>359</v>
       </c>
       <c r="F121" t="n">
-        <v>4315.9733</v>
+        <v>2997.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>-53378.64029203996</v>
+        <v>-53109.94249203998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5002,9 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>358</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,22 +4934,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C122" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D122" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E122" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>140.1444</v>
       </c>
       <c r="G122" t="n">
-        <v>-53368.64029203996</v>
+        <v>-53250.08689203998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5044,9 +4958,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>358</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,40 +4974,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C123" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D123" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E123" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F123" t="n">
-        <v>170</v>
+        <v>660</v>
       </c>
       <c r="G123" t="n">
-        <v>-53538.64029203996</v>
+        <v>-52590.08689203998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>358</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>0.9977932960893855</v>
+        <v>1</v>
       </c>
       <c r="N123" t="inlineStr"/>
     </row>
@@ -5104,32 +5014,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D124" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E124" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F124" t="n">
-        <v>180</v>
+        <v>234.0368</v>
       </c>
       <c r="G124" t="n">
-        <v>-53538.64029203996</v>
+        <v>-52824.12369203998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5140,22 +5054,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C125" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D125" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E125" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-53537.64029203996</v>
+        <v>-52823.12369203998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5165,7 +5079,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5176,32 +5094,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C126" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D126" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E126" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>172.7799</v>
       </c>
       <c r="G126" t="n">
-        <v>-53540.64029203996</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5215,29 +5137,33 @@
         <v>360</v>
       </c>
       <c r="C127" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D127" t="n">
         <v>360</v>
       </c>
       <c r="E127" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F127" t="n">
-        <v>76.1075</v>
+        <v>178</v>
       </c>
       <c r="G127" t="n">
-        <v>-53540.64029203996</v>
+        <v>-52995.90359203998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5248,22 +5174,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C128" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D128" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E128" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F128" t="n">
-        <v>24.1377</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>-53516.50259203996</v>
+        <v>-52994.90359203998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5273,7 +5199,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5296,20 +5226,24 @@
         <v>359</v>
       </c>
       <c r="F129" t="n">
-        <v>3173.0918</v>
+        <v>3064.7302</v>
       </c>
       <c r="G129" t="n">
-        <v>-56689.59439203997</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5320,22 +5254,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C130" t="n">
         <v>359</v>
       </c>
       <c r="D130" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E130" t="n">
         <v>359</v>
       </c>
       <c r="F130" t="n">
-        <v>2911.9999</v>
+        <v>225.0717</v>
       </c>
       <c r="G130" t="n">
-        <v>-56689.59439203997</v>
+        <v>-56059.63379203998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5345,7 +5279,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5294,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E131" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-56688.59439203997</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5381,7 +5319,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5392,22 +5334,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C132" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D132" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E132" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F132" t="n">
-        <v>425.9592</v>
+        <v>3109.7679558</v>
       </c>
       <c r="G132" t="n">
-        <v>-57114.55359203996</v>
+        <v>-56058.63379203998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5417,7 +5359,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5440,10 +5386,10 @@
         <v>360</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>22.6882</v>
       </c>
       <c r="G133" t="n">
-        <v>-57113.55359203996</v>
+        <v>-56081.32199203998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5453,7 +5399,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5464,22 +5414,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C134" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D134" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E134" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F134" t="n">
-        <v>393.6402</v>
+        <v>1395</v>
       </c>
       <c r="G134" t="n">
-        <v>-57507.19379203997</v>
+        <v>-57476.32199203998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5489,7 +5439,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5500,22 +5454,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C135" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E135" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>-57506.19379203997</v>
+        <v>-57475.32199203998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5525,7 +5479,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5539,19 +5497,19 @@
         <v>360</v>
       </c>
       <c r="C136" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D136" t="n">
         <v>360</v>
       </c>
       <c r="E136" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F136" t="n">
-        <v>1.3777</v>
+        <v>1899.7177</v>
       </c>
       <c r="G136" t="n">
-        <v>-57506.19379203997</v>
+        <v>-59375.03969203998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5561,7 +5519,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5572,22 +5534,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C137" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D137" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E137" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F137" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>-57506.19379203997</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5597,7 +5559,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5608,22 +5574,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C138" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D138" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E138" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>51.07</v>
       </c>
       <c r="G138" t="n">
-        <v>-57506.19379203997</v>
+        <v>-59275.03969203998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5633,7 +5599,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5644,22 +5614,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E139" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F139" t="n">
-        <v>746.1553</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-58252.34909203996</v>
+        <v>-59274.03969203998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5669,7 +5639,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5692,10 +5666,10 @@
         <v>359</v>
       </c>
       <c r="F140" t="n">
-        <v>1081.3876</v>
+        <v>387.4581</v>
       </c>
       <c r="G140" t="n">
-        <v>-58252.34909203996</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5705,7 +5679,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5728,10 +5706,10 @@
         <v>359</v>
       </c>
       <c r="F141" t="n">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="G141" t="n">
-        <v>-58252.34909203996</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5741,7 +5719,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5752,22 +5734,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C142" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D142" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E142" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F142" t="n">
-        <v>505.7204</v>
+        <v>754.6732</v>
       </c>
       <c r="G142" t="n">
-        <v>-58758.06949203996</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5777,7 +5759,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5800,24 +5786,24 @@
         <v>359</v>
       </c>
       <c r="F143" t="n">
-        <v>102.7993</v>
+        <v>221.6</v>
       </c>
       <c r="G143" t="n">
-        <v>-58655.27019203996</v>
+        <v>-59661.49779203998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>358</v>
-      </c>
-      <c r="K143" t="n">
-        <v>358</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5828,38 +5814,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C144" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D144" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E144" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F144" t="n">
-        <v>916.0468</v>
+        <v>52.8897</v>
       </c>
       <c r="G144" t="n">
-        <v>-58655.27019203996</v>
+        <v>-59714.38749203998</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>359</v>
-      </c>
-      <c r="K144" t="n">
-        <v>358</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -5884,26 +5866,22 @@
         <v>359</v>
       </c>
       <c r="F145" t="n">
-        <v>711.4961</v>
+        <v>23.2664</v>
       </c>
       <c r="G145" t="n">
-        <v>-58655.27019203996</v>
+        <v>-59691.12109203998</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>359</v>
-      </c>
-      <c r="K145" t="n">
-        <v>358</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -5916,38 +5894,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C146" t="n">
         <v>358</v>
       </c>
       <c r="D146" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E146" t="n">
         <v>358</v>
       </c>
       <c r="F146" t="n">
-        <v>5756.716</v>
+        <v>252.97</v>
       </c>
       <c r="G146" t="n">
-        <v>-64411.98619203996</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>359</v>
-      </c>
-      <c r="K146" t="n">
-        <v>358</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -5972,23 +5946,19 @@
         <v>358</v>
       </c>
       <c r="F147" t="n">
-        <v>600</v>
+        <v>635.7919000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-64411.98619203996</v>
+        <v>-59944.09109203998</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>358</v>
-      </c>
-      <c r="K147" t="n">
-        <v>358</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,35 +5974,31 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C148" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D148" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E148" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F148" t="n">
-        <v>6.1</v>
+        <v>2019.4653</v>
       </c>
       <c r="G148" t="n">
-        <v>-64405.88619203996</v>
+        <v>-57924.62579203998</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>358</v>
-      </c>
-      <c r="K148" t="n">
-        <v>358</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,7 +6014,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C149" t="n">
         <v>361</v>
@@ -6057,35 +6023,2871 @@
         <v>361</v>
       </c>
       <c r="E149" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F149" t="n">
+        <v>200</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-57924.62579203998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>361</v>
+      </c>
+      <c r="C150" t="n">
+        <v>361</v>
+      </c>
+      <c r="D150" t="n">
+        <v>361</v>
+      </c>
+      <c r="E150" t="n">
+        <v>361</v>
+      </c>
+      <c r="F150" t="n">
+        <v>354.0166</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-57924.62579203998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>361</v>
+      </c>
+      <c r="C151" t="n">
+        <v>361</v>
+      </c>
+      <c r="D151" t="n">
+        <v>361</v>
+      </c>
+      <c r="E151" t="n">
+        <v>361</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-57924.62579203998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>361</v>
+      </c>
+      <c r="C152" t="n">
+        <v>362</v>
+      </c>
+      <c r="D152" t="n">
+        <v>362</v>
+      </c>
+      <c r="E152" t="n">
+        <v>361</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8398.0321</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-49526.59369203998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>360</v>
+      </c>
+      <c r="C153" t="n">
+        <v>360</v>
+      </c>
+      <c r="D153" t="n">
+        <v>360</v>
+      </c>
+      <c r="E153" t="n">
+        <v>360</v>
+      </c>
+      <c r="F153" t="n">
+        <v>24.2655</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-49550.85919203998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>360</v>
+      </c>
+      <c r="C154" t="n">
+        <v>360</v>
+      </c>
+      <c r="D154" t="n">
+        <v>360</v>
+      </c>
+      <c r="E154" t="n">
+        <v>360</v>
+      </c>
+      <c r="F154" t="n">
+        <v>917.3861000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-49550.85919203998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>360</v>
+      </c>
+      <c r="C155" t="n">
+        <v>361</v>
+      </c>
+      <c r="D155" t="n">
+        <v>361</v>
+      </c>
+      <c r="E155" t="n">
+        <v>360</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1970.3388</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-47580.52039203999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>360</v>
+      </c>
+      <c r="C156" t="n">
+        <v>361</v>
+      </c>
+      <c r="D156" t="n">
+        <v>362</v>
+      </c>
+      <c r="E156" t="n">
+        <v>360</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5472.5353</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-47580.52039203999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>360</v>
+      </c>
+      <c r="C157" t="n">
+        <v>360</v>
+      </c>
+      <c r="D157" t="n">
+        <v>360</v>
+      </c>
+      <c r="E157" t="n">
+        <v>360</v>
+      </c>
+      <c r="F157" t="n">
+        <v>60</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-47640.52039203999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>360</v>
+      </c>
+      <c r="C158" t="n">
+        <v>363</v>
+      </c>
+      <c r="D158" t="n">
+        <v>363</v>
+      </c>
+      <c r="E158" t="n">
+        <v>359</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8758.248100000001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-38882.27229203998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>362</v>
+      </c>
+      <c r="C159" t="n">
+        <v>362</v>
+      </c>
+      <c r="D159" t="n">
+        <v>362</v>
+      </c>
+      <c r="E159" t="n">
+        <v>362</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1784.3618</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-40666.63409203998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>362</v>
+      </c>
+      <c r="C160" t="n">
+        <v>363</v>
+      </c>
+      <c r="D160" t="n">
+        <v>363</v>
+      </c>
+      <c r="E160" t="n">
+        <v>362</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2565.4407</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-38101.19339203998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>363</v>
+      </c>
+      <c r="C161" t="n">
+        <v>363</v>
+      </c>
+      <c r="D161" t="n">
+        <v>363</v>
+      </c>
+      <c r="E161" t="n">
+        <v>363</v>
+      </c>
+      <c r="F161" t="n">
+        <v>270.8815</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-38101.19339203998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>363</v>
+      </c>
+      <c r="C162" t="n">
+        <v>363</v>
+      </c>
+      <c r="D162" t="n">
+        <v>363</v>
+      </c>
+      <c r="E162" t="n">
+        <v>363</v>
+      </c>
+      <c r="F162" t="n">
+        <v>398.9476</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-38101.19339203998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>361</v>
+      </c>
+      <c r="C163" t="n">
+        <v>361</v>
+      </c>
+      <c r="D163" t="n">
+        <v>361</v>
+      </c>
+      <c r="E163" t="n">
+        <v>361</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2777.7777</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-40878.97109203998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>360</v>
+      </c>
+      <c r="C164" t="n">
+        <v>360</v>
+      </c>
+      <c r="D164" t="n">
+        <v>360</v>
+      </c>
+      <c r="E164" t="n">
+        <v>360</v>
+      </c>
+      <c r="F164" t="n">
+        <v>270.2043</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-41149.17539203998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>360</v>
+      </c>
+      <c r="C165" t="n">
+        <v>360</v>
+      </c>
+      <c r="D165" t="n">
+        <v>360</v>
+      </c>
+      <c r="E165" t="n">
+        <v>360</v>
+      </c>
+      <c r="F165" t="n">
+        <v>205.0404</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-41149.17539203998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>361</v>
+      </c>
+      <c r="C166" t="n">
+        <v>361</v>
+      </c>
+      <c r="D166" t="n">
+        <v>361</v>
+      </c>
+      <c r="E166" t="n">
+        <v>361</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-41148.17539203998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>360</v>
+      </c>
+      <c r="C167" t="n">
+        <v>361</v>
+      </c>
+      <c r="D167" t="n">
+        <v>361</v>
+      </c>
+      <c r="E167" t="n">
+        <v>360</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5951.5441</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-41148.17539203998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>360</v>
+      </c>
+      <c r="C168" t="n">
+        <v>359</v>
+      </c>
+      <c r="D168" t="n">
+        <v>360</v>
+      </c>
+      <c r="E168" t="n">
+        <v>359</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4230.7891</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-45378.96449203998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>361</v>
+      </c>
+      <c r="C169" t="n">
+        <v>361</v>
+      </c>
+      <c r="D169" t="n">
+        <v>361</v>
+      </c>
+      <c r="E169" t="n">
+        <v>361</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-45377.96449203998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>359</v>
+      </c>
+      <c r="C170" t="n">
+        <v>359</v>
+      </c>
+      <c r="D170" t="n">
+        <v>359</v>
+      </c>
+      <c r="E170" t="n">
+        <v>359</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-45380.12349203998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>359</v>
+      </c>
+      <c r="C171" t="n">
+        <v>359</v>
+      </c>
+      <c r="D171" t="n">
+        <v>359</v>
+      </c>
+      <c r="E171" t="n">
+        <v>359</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4991.7239</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-45380.12349203998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>358</v>
+      </c>
+      <c r="C172" t="n">
+        <v>358</v>
+      </c>
+      <c r="D172" t="n">
+        <v>358</v>
+      </c>
+      <c r="E172" t="n">
+        <v>358</v>
+      </c>
+      <c r="F172" t="n">
+        <v>79.92870000000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-45460.05219203998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>359</v>
+      </c>
+      <c r="C173" t="n">
+        <v>358</v>
+      </c>
+      <c r="D173" t="n">
+        <v>359</v>
+      </c>
+      <c r="E173" t="n">
+        <v>358</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13724.3553</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-45460.05219203998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>360</v>
+      </c>
+      <c r="C174" t="n">
+        <v>360</v>
+      </c>
+      <c r="D174" t="n">
+        <v>360</v>
+      </c>
+      <c r="E174" t="n">
+        <v>360</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-45459.05219203998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>358</v>
+      </c>
+      <c r="C175" t="n">
+        <v>358</v>
+      </c>
+      <c r="D175" t="n">
+        <v>358</v>
+      </c>
+      <c r="E175" t="n">
+        <v>358</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1686.9759</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-47146.02809203997</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>358</v>
+      </c>
+      <c r="C176" t="n">
+        <v>358</v>
+      </c>
+      <c r="D176" t="n">
+        <v>358</v>
+      </c>
+      <c r="E176" t="n">
+        <v>358</v>
+      </c>
+      <c r="F176" t="n">
+        <v>370.2049</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-47146.02809203997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>359</v>
+      </c>
+      <c r="C177" t="n">
+        <v>358</v>
+      </c>
+      <c r="D177" t="n">
+        <v>359</v>
+      </c>
+      <c r="E177" t="n">
+        <v>358</v>
+      </c>
+      <c r="F177" t="n">
+        <v>40.7455</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-47146.02809203997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>359</v>
+      </c>
+      <c r="C178" t="n">
+        <v>359</v>
+      </c>
+      <c r="D178" t="n">
+        <v>359</v>
+      </c>
+      <c r="E178" t="n">
+        <v>359</v>
+      </c>
+      <c r="F178" t="n">
+        <v>123.453</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-47022.57509203997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>359</v>
+      </c>
+      <c r="C179" t="n">
+        <v>359</v>
+      </c>
+      <c r="D179" t="n">
+        <v>359</v>
+      </c>
+      <c r="E179" t="n">
+        <v>359</v>
+      </c>
+      <c r="F179" t="n">
+        <v>449</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-47022.57509203997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>358</v>
+      </c>
+      <c r="C180" t="n">
+        <v>357</v>
+      </c>
+      <c r="D180" t="n">
+        <v>358</v>
+      </c>
+      <c r="E180" t="n">
+        <v>357</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-50022.57509203997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>359</v>
+      </c>
+      <c r="C181" t="n">
+        <v>359</v>
+      </c>
+      <c r="D181" t="n">
+        <v>359</v>
+      </c>
+      <c r="E181" t="n">
+        <v>359</v>
+      </c>
+      <c r="F181" t="n">
+        <v>130</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-49892.57509203997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>359</v>
+      </c>
+      <c r="C182" t="n">
+        <v>359</v>
+      </c>
+      <c r="D182" t="n">
+        <v>359</v>
+      </c>
+      <c r="E182" t="n">
+        <v>359</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1056.7848</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-49892.57509203997</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>359</v>
+      </c>
+      <c r="C183" t="n">
+        <v>359</v>
+      </c>
+      <c r="D183" t="n">
+        <v>359</v>
+      </c>
+      <c r="E183" t="n">
+        <v>359</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3513.4322</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-49892.57509203997</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>360</v>
+      </c>
+      <c r="C184" t="n">
+        <v>360</v>
+      </c>
+      <c r="D184" t="n">
+        <v>360</v>
+      </c>
+      <c r="E184" t="n">
+        <v>360</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2702.2486</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-47190.32649203997</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>360</v>
+      </c>
+      <c r="C185" t="n">
+        <v>360</v>
+      </c>
+      <c r="D185" t="n">
+        <v>360</v>
+      </c>
+      <c r="E185" t="n">
+        <v>360</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1947.5111</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-47190.32649203997</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>360</v>
+      </c>
+      <c r="C186" t="n">
+        <v>361</v>
+      </c>
+      <c r="D186" t="n">
+        <v>361</v>
+      </c>
+      <c r="E186" t="n">
+        <v>360</v>
+      </c>
+      <c r="F186" t="n">
+        <v>596.0362</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-46594.29029203997</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>360</v>
+      </c>
+      <c r="C187" t="n">
+        <v>360</v>
+      </c>
+      <c r="D187" t="n">
+        <v>360</v>
+      </c>
+      <c r="E187" t="n">
+        <v>360</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1110.238</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-47704.52829203997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>362</v>
+      </c>
+      <c r="C188" t="n">
+        <v>361</v>
+      </c>
+      <c r="D188" t="n">
+        <v>362</v>
+      </c>
+      <c r="E188" t="n">
+        <v>361</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3.7624</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-47700.76589203997</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>360</v>
+      </c>
+      <c r="C189" t="n">
+        <v>360</v>
+      </c>
+      <c r="D189" t="n">
+        <v>360</v>
+      </c>
+      <c r="E189" t="n">
+        <v>360</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1399.5899</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-49100.35579203997</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>360</v>
+      </c>
+      <c r="C190" t="n">
+        <v>360</v>
+      </c>
+      <c r="D190" t="n">
+        <v>360</v>
+      </c>
+      <c r="E190" t="n">
+        <v>360</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-49100.35579203997</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>361</v>
+      </c>
+      <c r="C191" t="n">
+        <v>361</v>
+      </c>
+      <c r="D191" t="n">
+        <v>361</v>
+      </c>
+      <c r="E191" t="n">
+        <v>361</v>
+      </c>
+      <c r="F191" t="n">
+        <v>37.6888</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-49062.66699203997</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>360</v>
+      </c>
+      <c r="C192" t="n">
+        <v>360</v>
+      </c>
+      <c r="D192" t="n">
+        <v>360</v>
+      </c>
+      <c r="E192" t="n">
+        <v>359</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4315.9733</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-53378.64029203996</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>361</v>
+      </c>
+      <c r="C193" t="n">
+        <v>361</v>
+      </c>
+      <c r="D193" t="n">
+        <v>361</v>
+      </c>
+      <c r="E193" t="n">
+        <v>361</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-53368.64029203996</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>359</v>
+      </c>
+      <c r="C194" t="n">
+        <v>359</v>
+      </c>
+      <c r="D194" t="n">
+        <v>359</v>
+      </c>
+      <c r="E194" t="n">
+        <v>359</v>
+      </c>
+      <c r="F194" t="n">
+        <v>170</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-53538.64029203996</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>359</v>
+      </c>
+      <c r="C195" t="n">
+        <v>359</v>
+      </c>
+      <c r="D195" t="n">
+        <v>359</v>
+      </c>
+      <c r="E195" t="n">
+        <v>359</v>
+      </c>
+      <c r="F195" t="n">
+        <v>180</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-53538.64029203996</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>361</v>
+      </c>
+      <c r="C196" t="n">
+        <v>361</v>
+      </c>
+      <c r="D196" t="n">
+        <v>361</v>
+      </c>
+      <c r="E196" t="n">
+        <v>361</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-53537.64029203996</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>359</v>
+      </c>
+      <c r="C197" t="n">
+        <v>359</v>
+      </c>
+      <c r="D197" t="n">
+        <v>359</v>
+      </c>
+      <c r="E197" t="n">
+        <v>359</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-53540.64029203996</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>360</v>
+      </c>
+      <c r="C198" t="n">
+        <v>359</v>
+      </c>
+      <c r="D198" t="n">
+        <v>360</v>
+      </c>
+      <c r="E198" t="n">
+        <v>359</v>
+      </c>
+      <c r="F198" t="n">
+        <v>76.1075</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-53540.64029203996</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>361</v>
+      </c>
+      <c r="C199" t="n">
+        <v>361</v>
+      </c>
+      <c r="D199" t="n">
+        <v>361</v>
+      </c>
+      <c r="E199" t="n">
+        <v>361</v>
+      </c>
+      <c r="F199" t="n">
+        <v>24.1377</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-53516.50259203996</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>360</v>
+      </c>
+      <c r="C200" t="n">
+        <v>359</v>
+      </c>
+      <c r="D200" t="n">
+        <v>360</v>
+      </c>
+      <c r="E200" t="n">
+        <v>359</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3173.0918</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-56689.59439203997</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>360</v>
+      </c>
+      <c r="C201" t="n">
+        <v>359</v>
+      </c>
+      <c r="D201" t="n">
+        <v>360</v>
+      </c>
+      <c r="E201" t="n">
+        <v>359</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2911.9999</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-56689.59439203997</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>360</v>
+      </c>
+      <c r="C202" t="n">
+        <v>360</v>
+      </c>
+      <c r="D202" t="n">
+        <v>360</v>
+      </c>
+      <c r="E202" t="n">
+        <v>360</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-56688.59439203997</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>359</v>
+      </c>
+      <c r="C203" t="n">
+        <v>359</v>
+      </c>
+      <c r="D203" t="n">
+        <v>359</v>
+      </c>
+      <c r="E203" t="n">
+        <v>359</v>
+      </c>
+      <c r="F203" t="n">
+        <v>425.9592</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-57114.55359203996</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>360</v>
+      </c>
+      <c r="C204" t="n">
+        <v>360</v>
+      </c>
+      <c r="D204" t="n">
+        <v>360</v>
+      </c>
+      <c r="E204" t="n">
+        <v>360</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-57113.55359203996</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>358</v>
+      </c>
+      <c r="C205" t="n">
+        <v>358</v>
+      </c>
+      <c r="D205" t="n">
+        <v>358</v>
+      </c>
+      <c r="E205" t="n">
+        <v>358</v>
+      </c>
+      <c r="F205" t="n">
+        <v>393.6402</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-57507.19379203997</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>360</v>
+      </c>
+      <c r="C206" t="n">
+        <v>360</v>
+      </c>
+      <c r="D206" t="n">
+        <v>360</v>
+      </c>
+      <c r="E206" t="n">
+        <v>360</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>360</v>
+      </c>
+      <c r="C207" t="n">
+        <v>360</v>
+      </c>
+      <c r="D207" t="n">
+        <v>360</v>
+      </c>
+      <c r="E207" t="n">
+        <v>360</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.3777</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>360</v>
+      </c>
+      <c r="C208" t="n">
+        <v>360</v>
+      </c>
+      <c r="D208" t="n">
+        <v>360</v>
+      </c>
+      <c r="E208" t="n">
+        <v>360</v>
+      </c>
+      <c r="F208" t="n">
+        <v>99</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>360</v>
+      </c>
+      <c r="C209" t="n">
+        <v>360</v>
+      </c>
+      <c r="D209" t="n">
+        <v>360</v>
+      </c>
+      <c r="E209" t="n">
+        <v>360</v>
+      </c>
+      <c r="F209" t="n">
+        <v>200</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-57506.19379203997</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>359</v>
+      </c>
+      <c r="C210" t="n">
+        <v>359</v>
+      </c>
+      <c r="D210" t="n">
+        <v>359</v>
+      </c>
+      <c r="E210" t="n">
+        <v>359</v>
+      </c>
+      <c r="F210" t="n">
+        <v>746.1553</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>359</v>
+      </c>
+      <c r="C211" t="n">
+        <v>359</v>
+      </c>
+      <c r="D211" t="n">
+        <v>359</v>
+      </c>
+      <c r="E211" t="n">
+        <v>359</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1081.3876</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>359</v>
+      </c>
+      <c r="C212" t="n">
+        <v>359</v>
+      </c>
+      <c r="D212" t="n">
+        <v>359</v>
+      </c>
+      <c r="E212" t="n">
+        <v>359</v>
+      </c>
+      <c r="F212" t="n">
+        <v>86</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-58252.34909203996</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>358</v>
+      </c>
+      <c r="C213" t="n">
+        <v>358</v>
+      </c>
+      <c r="D213" t="n">
+        <v>358</v>
+      </c>
+      <c r="E213" t="n">
+        <v>358</v>
+      </c>
+      <c r="F213" t="n">
+        <v>505.7204</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-58758.06949203996</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>359</v>
+      </c>
+      <c r="C214" t="n">
+        <v>359</v>
+      </c>
+      <c r="D214" t="n">
+        <v>359</v>
+      </c>
+      <c r="E214" t="n">
+        <v>359</v>
+      </c>
+      <c r="F214" t="n">
+        <v>102.7993</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>359</v>
+      </c>
+      <c r="C215" t="n">
+        <v>359</v>
+      </c>
+      <c r="D215" t="n">
+        <v>359</v>
+      </c>
+      <c r="E215" t="n">
+        <v>359</v>
+      </c>
+      <c r="F215" t="n">
+        <v>916.0468</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>359</v>
+      </c>
+      <c r="C216" t="n">
+        <v>359</v>
+      </c>
+      <c r="D216" t="n">
+        <v>359</v>
+      </c>
+      <c r="E216" t="n">
+        <v>359</v>
+      </c>
+      <c r="F216" t="n">
+        <v>711.4961</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-58655.27019203996</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>359</v>
+      </c>
+      <c r="C217" t="n">
+        <v>358</v>
+      </c>
+      <c r="D217" t="n">
+        <v>359</v>
+      </c>
+      <c r="E217" t="n">
+        <v>358</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5756.716</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-64411.98619203996</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>358</v>
+      </c>
+      <c r="C218" t="n">
+        <v>358</v>
+      </c>
+      <c r="D218" t="n">
+        <v>358</v>
+      </c>
+      <c r="E218" t="n">
+        <v>358</v>
+      </c>
+      <c r="F218" t="n">
+        <v>600</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-64411.98619203996</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>359</v>
+      </c>
+      <c r="C219" t="n">
+        <v>360</v>
+      </c>
+      <c r="D219" t="n">
+        <v>360</v>
+      </c>
+      <c r="E219" t="n">
+        <v>359</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-64405.88619203996</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>360</v>
+      </c>
+      <c r="C220" t="n">
+        <v>361</v>
+      </c>
+      <c r="D220" t="n">
+        <v>361</v>
+      </c>
+      <c r="E220" t="n">
+        <v>360</v>
+      </c>
+      <c r="F220" t="n">
         <v>263.3646</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G220" t="n">
         <v>-64142.52159203996</v>
       </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>360</v>
-      </c>
-      <c r="K149" t="n">
-        <v>358</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N220"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-20782.56401112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-21083.74581112</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-21031.90991112</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-42062.07021112001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-42005.52481112001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-41914.31291112</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,24 +3157,21 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>356</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3450,24 +3196,21 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>357</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3492,24 +3235,19 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>355</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,20 +3274,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,24 +3309,21 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
         <v>357</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3616,22 +3348,21 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3656,22 +3387,21 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3696,24 +3426,21 @@
         <v>-80701.29491112</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>359</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>359</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3738,24 +3465,21 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>356</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3780,24 +3504,19 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>358</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3822,24 +3541,21 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>359</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>359</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3864,24 +3580,21 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>359</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>359</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3906,24 +3619,21 @@
         <v>-62774.74751111999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>360</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3948,24 +3658,19 @@
         <v>-62775.92931111999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>361</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3992,20 +3697,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4030,24 +3732,19 @@
         <v>-58727.30708653999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>360</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4074,20 +3771,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4114,20 +3808,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4154,20 +3845,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4194,20 +3882,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4234,20 +3919,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4274,20 +3956,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4314,20 +3993,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4354,20 +4030,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4394,20 +4067,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4434,20 +4104,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4474,20 +4141,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4514,20 +4178,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4554,20 +4215,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4594,20 +4252,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4634,20 +4289,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4674,20 +4326,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,20 +4363,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4754,20 +4400,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4794,20 +4437,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4834,20 +4474,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4874,20 +4511,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4914,20 +4548,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4954,20 +4585,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4994,20 +4622,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5034,20 +4659,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5074,20 +4696,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5114,20 +4733,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5154,20 +4770,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5194,20 +4807,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5234,20 +4844,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5274,20 +4881,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5314,20 +4918,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5354,20 +4955,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5394,20 +4992,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5434,20 +5029,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5474,20 +5066,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5514,20 +5103,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5554,20 +5140,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5594,20 +5177,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5634,20 +5214,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5674,20 +5251,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5714,20 +5288,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5754,20 +5325,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5794,20 +5362,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5834,20 +5399,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5874,20 +5436,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5914,20 +5473,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5954,20 +5510,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5994,20 +5547,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6034,20 +5584,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6074,20 +5621,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6114,20 +5658,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6154,20 +5695,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6194,20 +5732,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6234,20 +5769,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6274,20 +5806,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6314,20 +5843,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6354,20 +5880,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6394,20 +5917,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6434,20 +5954,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6474,20 +5991,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6514,20 +6028,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6554,20 +6065,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6594,20 +6102,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6634,20 +6139,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6674,20 +6176,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6714,20 +6213,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6754,20 +6250,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6794,20 +6287,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6834,20 +6324,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6874,20 +6361,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6914,20 +6398,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6954,20 +6435,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6994,20 +6472,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7034,20 +6509,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7074,20 +6546,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7114,20 +6583,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7154,20 +6620,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7194,20 +6657,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7234,20 +6694,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7274,20 +6731,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7314,20 +6768,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7354,20 +6805,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7394,20 +6842,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7434,20 +6879,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7474,20 +6916,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7514,20 +6953,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7554,20 +6990,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7594,20 +7027,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7634,20 +7064,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7674,20 +7101,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7714,20 +7138,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7754,20 +7175,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7794,20 +7212,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7834,20 +7249,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7874,20 +7286,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7914,20 +7323,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7954,20 +7360,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7994,20 +7397,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8034,20 +7434,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8074,20 +7471,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8114,20 +7508,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8154,20 +7545,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8194,20 +7582,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8234,20 +7619,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8274,20 +7656,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8314,20 +7693,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8354,20 +7730,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8394,20 +7767,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8434,20 +7804,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8474,20 +7841,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8514,20 +7878,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8554,20 +7915,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8594,20 +7952,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8634,20 +7989,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8674,20 +8026,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8714,20 +8063,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8754,20 +8100,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8794,20 +8137,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8834,20 +8174,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8874,22 +8211,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20782.56401112</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21083.74581112</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-21031.90991112</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-21481.90991112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-42062.07021112001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-42005.52481112001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-41914.31291112</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-41960.30541112</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-41950.72691112</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-41986.56531112</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-43289.33091112</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43288.33091112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-55709.34811112</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-55648.68201112</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-55648.68201112</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-55649.66221112</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-58800.32101112</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-68800.32101111999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -3124,10 +3124,14 @@
         <v>-76772.67561112001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>356</v>
+      </c>
+      <c r="J83" t="n">
+        <v>356</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3157,12 +3161,14 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>356</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>356</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3196,12 +3202,14 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>357</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>356</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,10 +3243,14 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>355</v>
+      </c>
+      <c r="J86" t="n">
+        <v>356</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3275,7 +3287,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>356</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,12 +3323,14 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>357</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>356</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,12 +3364,14 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>359</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>356</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,12 +3405,14 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>359</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>356</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,12 +3446,14 @@
         <v>-80701.29491112</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>359</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>356</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,12 +3487,14 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>356</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>356</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,10 +3528,14 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>358</v>
+      </c>
+      <c r="J93" t="n">
+        <v>356</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,12 +3569,14 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>359</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>356</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,12 +3610,14 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>359</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>356</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,12 +3651,12 @@
         <v>-62774.74751111999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>360</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>356</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>356</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>356</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,7 +3771,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>356</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>356</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,7 +3849,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>356</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3846,7 +3888,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>356</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,7 +3927,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>356</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,7 +3966,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>356</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,7 +4005,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>356</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,7 +4044,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>356</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,7 +4083,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>356</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>356</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4105,7 +4161,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>356</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4142,7 +4200,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>356</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4179,7 +4239,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>356</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,7 +4278,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>356</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>356</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,7 +4356,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>356</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4327,7 +4395,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>356</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,7 +4434,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>356</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,7 +4473,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>356</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4438,7 +4512,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>356</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,7 +4551,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>356</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4512,7 +4590,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>356</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,7 +4629,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>356</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,7 +4668,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>356</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4623,7 +4707,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>356</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,7 +4746,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>356</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,7 +4785,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>356</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,7 +4824,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>356</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,7 +4863,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>356</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4808,7 +4902,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>356</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,7 +4941,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>356</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,7 +4980,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>356</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,7 +5019,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>356</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,7 +5058,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>356</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,7 +5097,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>356</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,7 +5136,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>356</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5067,7 +5175,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>356</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,7 +5214,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>356</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,7 +5253,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>356</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,7 +5292,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>356</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,7 +5331,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>356</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,7 +5370,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>356</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,7 +5409,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>356</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,7 +5448,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>356</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,7 +5487,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>356</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,7 +5526,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>356</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,7 +5565,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>356</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,7 +5604,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>356</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5511,7 +5643,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>356</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,7 +5682,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>356</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,7 +5721,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>356</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,7 +5760,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>356</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,7 +5799,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>356</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,7 +5838,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>356</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5733,7 +5877,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>356</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5770,7 +5916,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>356</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,7 +5955,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>356</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,7 +5994,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>356</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5881,7 +6033,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>356</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,7 +6072,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>356</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,7 +6111,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>356</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,7 +6150,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>356</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,7 +6189,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>356</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,7 +6228,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>356</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,7 +6267,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>356</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6140,7 +6306,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>356</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,7 +6345,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>356</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6214,7 +6384,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>356</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,7 +6423,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>356</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,7 +6462,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>356</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,7 +6501,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>356</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,7 +6540,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>356</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,7 +6579,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>356</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,7 +6618,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>356</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,7 +6657,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>356</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,7 +6696,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>356</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,7 +6735,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>356</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6584,7 +6774,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>356</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,7 +6813,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>356</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,7 +6852,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>356</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,7 +6891,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>356</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6732,7 +6930,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>356</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,7 +6969,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>356</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6806,7 +7008,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>356</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6843,7 +7047,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>356</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6880,7 +7086,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>356</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6917,7 +7125,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>356</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,7 +7164,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>356</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,7 +7203,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>356</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,7 +7242,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>356</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7065,7 +7281,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>356</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,7 +7320,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>356</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7139,7 +7359,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>356</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7176,7 +7398,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>356</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7213,7 +7437,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>356</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7250,7 +7476,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>356</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>356</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,7 +7554,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>356</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,7 +7593,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>356</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,7 +7632,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>356</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,7 +7671,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>356</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7472,7 +7710,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>356</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,7 +7749,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>356</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,7 +7788,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>356</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7583,7 +7827,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>356</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7620,7 +7866,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>356</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7657,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>356</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7694,7 +7944,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>356</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7731,7 +7983,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>356</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7768,7 +8022,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>356</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,7 +8061,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>356</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7842,7 +8100,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>356</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,7 +8139,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>356</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7916,7 +8178,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>356</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7953,7 +8217,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>356</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7990,7 +8256,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>356</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,7 +8295,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>356</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,7 +8334,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>356</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8101,7 +8373,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>356</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8138,7 +8412,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>356</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8175,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>356</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,7 +8490,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>356</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8224,6 +8504,6 @@
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20782.56401112</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21083.74581112</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-21031.90991112</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-21481.90991112</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-41960.30541112</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-41950.72691112</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-41986.56531112</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-43289.33091112</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43288.33091112</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-55709.34811112</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-55667.70181112</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-55648.68201112</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-55648.68201112</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-55649.66221112</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-58803.62261111999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-58800.32101112</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-68800.32101111999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-78351.27921112001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-79393.66261112002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3124,14 +3124,10 @@
         <v>-76772.67561112001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>356</v>
-      </c>
-      <c r="J83" t="n">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3161,19 +3157,11 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>356</v>
-      </c>
-      <c r="J84" t="n">
-        <v>356</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3202,19 +3190,11 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>357</v>
-      </c>
-      <c r="J85" t="n">
-        <v>356</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3249,13 +3229,9 @@
         <v>355</v>
       </c>
       <c r="J86" t="n">
-        <v>356</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3284,15 +3260,17 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>357</v>
+      </c>
       <c r="J87" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3329,11 +3307,11 @@
         <v>357</v>
       </c>
       <c r="J88" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3364,19 +3342,11 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>359</v>
-      </c>
-      <c r="J89" t="n">
-        <v>356</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3405,19 +3375,11 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>359</v>
-      </c>
-      <c r="J90" t="n">
-        <v>356</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3408,11 @@
         <v>-80701.29491112</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>359</v>
-      </c>
-      <c r="J91" t="n">
-        <v>356</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3487,19 +3441,11 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>356</v>
-      </c>
-      <c r="J92" t="n">
-        <v>356</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3528,19 +3474,11 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>358</v>
-      </c>
-      <c r="J93" t="n">
-        <v>356</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3569,19 +3507,11 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>359</v>
-      </c>
-      <c r="J94" t="n">
-        <v>356</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3610,19 +3540,11 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>359</v>
-      </c>
-      <c r="J95" t="n">
-        <v>356</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>356</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3609,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>356</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>356</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3675,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>356</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3708,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>356</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3741,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>356</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>356</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3807,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>356</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>356</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>356</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3906,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>356</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3939,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>356</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3972,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>356</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4005,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>356</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +4038,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>356</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +4071,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>356</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>356</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>356</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>356</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>356</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>356</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +4269,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>356</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4302,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>356</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +4335,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>356</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>356</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4629,14 +4401,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>356</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4668,14 +4434,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>356</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>356</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4743,17 +4497,11 @@
         <v>-52824.12369203998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>356</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4782,17 +4530,11 @@
         <v>-52823.12369203998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>356</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4824,14 +4566,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>356</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4860,17 +4596,11 @@
         <v>-52995.90359203998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>356</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4899,17 +4629,11 @@
         <v>-52994.90359203998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>356</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4938,17 +4662,11 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>356</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4977,17 +4695,11 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>356</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5016,17 +4728,11 @@
         <v>-56058.63379203998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>356</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5058,14 +4764,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>356</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5097,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>356</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5133,17 +4827,11 @@
         <v>-57476.32199203998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>356</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5175,14 +4863,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>356</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5211,17 +4893,11 @@
         <v>-59375.03969203998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>356</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5250,17 +4926,11 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>356</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5289,17 +4959,11 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>356</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5331,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>356</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5370,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>356</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5409,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>356</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5445,17 +5091,11 @@
         <v>-59661.49779203998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>356</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5487,14 +5127,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>356</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5523,17 +5157,11 @@
         <v>-59714.38749203998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>356</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5562,17 +5190,11 @@
         <v>-59691.12109203998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>356</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5604,14 +5226,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>356</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5643,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>356</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5682,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>356</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5721,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>356</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5760,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>356</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5799,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>356</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>356</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5877,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>356</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>356</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5955,14 +5523,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>356</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5556,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>356</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5589,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>356</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>356</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5655,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>356</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6150,14 +5688,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>356</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6189,14 +5721,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>356</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6228,14 +5754,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>356</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +5787,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>356</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +5820,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>356</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +5853,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>356</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +5886,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>356</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +5919,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>356</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>356</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5985,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>356</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +6018,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>356</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +6051,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>356</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +6084,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>356</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +6117,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>356</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>356</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +6183,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>356</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +6216,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>356</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6249,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>356</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6282,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>356</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6315,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>356</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +6348,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>356</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6381,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>356</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6414,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>356</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7047,14 +6447,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>356</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7086,14 +6480,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>356</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7125,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>356</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7164,14 +6546,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>356</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7203,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>356</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7242,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>356</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7281,14 +6645,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>356</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7317,17 +6675,11 @@
         <v>-49100.35579203997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>356</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7356,17 +6708,11 @@
         <v>-49062.66699203997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>356</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7395,17 +6741,11 @@
         <v>-53378.64029203996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>356</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7434,17 +6774,11 @@
         <v>-53368.64029203996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>356</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7473,17 +6807,11 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>356</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7512,17 +6840,11 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>356</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7554,14 +6876,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>356</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7590,17 +6906,11 @@
         <v>-53540.64029203996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>356</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7632,14 +6942,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>356</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7671,14 +6975,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>356</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +7008,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>356</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7746,17 +7038,11 @@
         <v>-56689.59439203997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>356</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7788,14 +7074,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>356</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7827,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>356</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7866,14 +7140,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>356</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7905,14 +7173,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>356</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7944,14 +7206,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>356</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7983,14 +7239,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>356</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +7272,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>356</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +7305,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>356</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8100,14 +7338,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>356</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +7371,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>356</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +7404,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>356</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +7437,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>356</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8256,14 +7470,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>356</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +7503,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>356</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +7536,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>356</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8373,14 +7569,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>356</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8412,14 +7602,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>356</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8451,14 +7635,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>356</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8490,20 +7668,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>356</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -484,7 +484,7 @@
         <v>-21083.74581112</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-31745.67981112</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-31727.00771112</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-78351.27921112001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-79393.66261112002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3058,10 +3058,14 @@
         <v>-76580.55591112001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>357</v>
+      </c>
+      <c r="J81" t="n">
+        <v>357</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3094,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>357</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3134,19 @@
         <v>-76772.67561112001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>356</v>
+      </c>
+      <c r="J83" t="n">
+        <v>357</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3175,19 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>356</v>
+      </c>
+      <c r="J84" t="n">
+        <v>357</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3216,19 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>357</v>
+      </c>
+      <c r="J85" t="n">
+        <v>357</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3229,9 +3263,13 @@
         <v>355</v>
       </c>
       <c r="J86" t="n">
-        <v>355</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,17 +3298,15 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3307,11 +3343,11 @@
         <v>357</v>
       </c>
       <c r="J88" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3345,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>357</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3378,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>357</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,11 +3456,19 @@
         <v>-80701.29491112</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>359</v>
+      </c>
+      <c r="J91" t="n">
+        <v>357</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3497,19 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>356</v>
+      </c>
+      <c r="J92" t="n">
+        <v>357</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,11 +3538,19 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>358</v>
+      </c>
+      <c r="J93" t="n">
+        <v>357</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3579,19 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>359</v>
+      </c>
+      <c r="J94" t="n">
+        <v>357</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,11 +3620,19 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>359</v>
+      </c>
+      <c r="J95" t="n">
+        <v>357</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3576,8 +3664,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>357</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +3703,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>357</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3742,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>357</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3675,8 +3781,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>357</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3708,8 +3820,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>357</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3741,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>357</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3774,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>357</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3807,8 +3937,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>357</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3840,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>357</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3873,8 +4015,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>357</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3906,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>357</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3939,8 +4093,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>357</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3972,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>357</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>357</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4038,8 +4210,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>357</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4071,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>357</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4104,8 +4288,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>357</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4137,8 +4327,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>357</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>357</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4405,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>357</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4236,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>357</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>357</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4302,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>357</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>357</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>357</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>357</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4434,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>357</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>357</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4753,17 @@
         <v>-52824.12369203998</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>357</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4792,17 @@
         <v>-52823.12369203998</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>357</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4566,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>357</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4870,17 @@
         <v>-52995.90359203998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>357</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4909,17 @@
         <v>-52994.90359203998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>357</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4948,17 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>357</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4987,17 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>357</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +5026,17 @@
         <v>-56058.63379203998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>357</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>357</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>357</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +5143,17 @@
         <v>-57476.32199203998</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>357</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4863,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>357</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +5221,17 @@
         <v>-59375.03969203998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>357</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +5260,17 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>357</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +5299,17 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>357</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4995,8 +5341,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>357</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5028,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>357</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5061,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>357</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +5455,17 @@
         <v>-59661.49779203998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>357</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5127,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>357</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +5533,17 @@
         <v>-59714.38749203998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>357</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5190,11 +5572,17 @@
         <v>-59691.12109203998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>357</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5226,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>357</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5259,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>357</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5292,8 +5692,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>357</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5325,8 +5731,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>357</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5770,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>357</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5391,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>357</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5424,8 +5848,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>357</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5457,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>357</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5490,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>357</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5523,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>357</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5556,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>357</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5589,8 +6043,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>357</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5622,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>357</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5655,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>357</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5688,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>357</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5721,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>357</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5754,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>357</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5787,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>357</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5820,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>357</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5853,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>357</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5886,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>357</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>357</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>357</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5985,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>357</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6018,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>357</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6051,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>357</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6084,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>357</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6117,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>357</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6150,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>357</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6183,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>357</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6216,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>357</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6249,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>357</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6282,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>357</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6315,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>357</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6348,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>357</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6381,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>357</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6414,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>357</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6447,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>357</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6480,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>357</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6513,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>357</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6546,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>357</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6579,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>357</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6612,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>357</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6645,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>357</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +7327,17 @@
         <v>-49100.35579203997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>357</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6708,11 +7366,17 @@
         <v>-49062.66699203997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>357</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6741,11 +7405,17 @@
         <v>-53378.64029203996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>357</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +7444,17 @@
         <v>-53368.64029203996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>357</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6807,11 +7483,17 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>357</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6840,11 +7522,17 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>357</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6876,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>357</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +7600,17 @@
         <v>-53540.64029203996</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>357</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6942,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>357</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6975,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>357</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7008,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>357</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7038,11 +7756,17 @@
         <v>-56689.59439203997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>357</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>357</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>357</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>357</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7173,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>357</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7206,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>357</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7239,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>357</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7272,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>357</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7305,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>357</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7338,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>357</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7371,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>357</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>357</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7437,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>357</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7470,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>357</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7503,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>357</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7536,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>357</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>357</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>357</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7635,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>357</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>357</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest MTL.xlsx
+++ b/BackTest/2019-10-19 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>111.4368</v>
       </c>
       <c r="G2" t="n">
-        <v>-20782.56401112</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>301.1818</v>
       </c>
       <c r="G3" t="n">
-        <v>-21083.74581112</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>51.8359</v>
       </c>
       <c r="G4" t="n">
-        <v>-21031.90991112</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>450</v>
       </c>
       <c r="G5" t="n">
-        <v>-21481.90991112</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>43.4476</v>
       </c>
       <c r="G6" t="n">
-        <v>-21438.46231112</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>67.3395</v>
       </c>
       <c r="G7" t="n">
-        <v>-21438.46231112</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8529.6049</v>
       </c>
       <c r="G8" t="n">
-        <v>-21438.46231112</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2.0906</v>
       </c>
       <c r="G9" t="n">
-        <v>-21438.46231112</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10307.2175</v>
       </c>
       <c r="G10" t="n">
-        <v>-31745.67981112</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>18.6721</v>
       </c>
       <c r="G11" t="n">
-        <v>-31727.00771112</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>347.094</v>
       </c>
       <c r="G12" t="n">
-        <v>-32074.10171112001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9987.968500000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-42062.07021112001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>56.5454</v>
       </c>
       <c r="G14" t="n">
-        <v>-42005.52481112001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>91.2119</v>
       </c>
       <c r="G15" t="n">
-        <v>-41914.31291112</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>45.9925</v>
       </c>
       <c r="G16" t="n">
-        <v>-41960.30541112</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>141.6407</v>
       </c>
       <c r="G17" t="n">
-        <v>-41960.30541112</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>8.552899999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-41960.30541112</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9.5785</v>
       </c>
       <c r="G19" t="n">
-        <v>-41950.72691112</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>35.8384</v>
       </c>
       <c r="G20" t="n">
-        <v>-41986.56531112</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1302.7656</v>
       </c>
       <c r="G21" t="n">
-        <v>-43289.33091112</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-43288.33091112</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>12421.0172</v>
       </c>
       <c r="G23" t="n">
-        <v>-55709.34811112</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>41.6463</v>
       </c>
       <c r="G24" t="n">
-        <v>-55667.70181112</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>366.3149</v>
       </c>
       <c r="G25" t="n">
-        <v>-55667.70181112</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>265.3093</v>
       </c>
       <c r="G26" t="n">
-        <v>-55667.70181112</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>19.0198</v>
       </c>
       <c r="G27" t="n">
-        <v>-55648.68201112</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-55648.68201112</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>0.9802</v>
       </c>
       <c r="G29" t="n">
-        <v>-55649.66221112</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3153.9604</v>
       </c>
       <c r="G30" t="n">
-        <v>-58803.62261111999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2880</v>
       </c>
       <c r="G31" t="n">
-        <v>-58803.62261111999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1513.8684</v>
       </c>
       <c r="G32" t="n">
-        <v>-58803.62261111999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3.3016</v>
       </c>
       <c r="G33" t="n">
-        <v>-58800.32101112</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>-68800.32101111999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-68799.32101111999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>947.9256</v>
       </c>
       <c r="G36" t="n">
-        <v>-68799.32101111999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3635.6043</v>
       </c>
       <c r="G37" t="n">
-        <v>-72434.92531111999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>10000.3183</v>
       </c>
       <c r="G38" t="n">
-        <v>-82435.24361111999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-82434.24361111999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>99.4699</v>
       </c>
       <c r="G40" t="n">
-        <v>-82533.71351111999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>89</v>
       </c>
       <c r="G41" t="n">
-        <v>-82622.71351111999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1908.8833</v>
       </c>
       <c r="G42" t="n">
-        <v>-82622.71351111999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>548</v>
       </c>
       <c r="G43" t="n">
-        <v>-82622.71351111999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>19.6022</v>
       </c>
       <c r="G44" t="n">
-        <v>-82603.11131112</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>45.5081</v>
       </c>
       <c r="G45" t="n">
-        <v>-82648.61941112</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1187.4232</v>
       </c>
       <c r="G46" t="n">
-        <v>-82648.61941112</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-82647.61941112</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1736</v>
       </c>
       <c r="G48" t="n">
-        <v>-82647.61941112</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>249.6355</v>
       </c>
       <c r="G49" t="n">
-        <v>-82897.25491112001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-82896.25491112001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>335.8521</v>
       </c>
       <c r="G51" t="n">
-        <v>-83232.10701112001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>6442.7894</v>
       </c>
       <c r="G52" t="n">
-        <v>-76789.31761112002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>695.9731</v>
       </c>
       <c r="G53" t="n">
-        <v>-76789.31761112002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>908.6306</v>
       </c>
       <c r="G54" t="n">
-        <v>-77697.94821112002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1941.0938</v>
       </c>
       <c r="G55" t="n">
-        <v>-77697.94821112002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>-77697.94821112002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2829.2687</v>
       </c>
       <c r="G57" t="n">
-        <v>-77697.94821112002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2000</v>
       </c>
       <c r="G58" t="n">
-        <v>-79697.94821112002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>373.3362</v>
       </c>
       <c r="G59" t="n">
-        <v>-79697.94821112002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1085.0043</v>
       </c>
       <c r="G60" t="n">
-        <v>-78612.94391112002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>604.9766</v>
       </c>
       <c r="G61" t="n">
-        <v>-79217.92051112001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>731.0111000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>-78486.90941112001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1075</v>
       </c>
       <c r="G63" t="n">
-        <v>-79561.90941112001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1002</v>
       </c>
       <c r="G64" t="n">
-        <v>-78559.90941112001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>546.3169</v>
       </c>
       <c r="G65" t="n">
-        <v>-79106.22631112002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>754.9471</v>
       </c>
       <c r="G66" t="n">
-        <v>-78351.27921112001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>115.4598</v>
       </c>
       <c r="G67" t="n">
-        <v>-78351.27921112001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-78351.27921112001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1042.3834</v>
       </c>
       <c r="G69" t="n">
-        <v>-79393.66261112002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-79392.66261112002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1.1819</v>
       </c>
       <c r="G71" t="n">
-        <v>-79393.84451112001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-79392.84451112001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>543.1654</v>
       </c>
       <c r="G73" t="n">
-        <v>-79936.00991112001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>502.1819</v>
       </c>
       <c r="G74" t="n">
-        <v>-79936.00991112001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-79935.00991112001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>55</v>
       </c>
       <c r="G76" t="n">
-        <v>-79990.00991112001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4231.4083</v>
       </c>
       <c r="G77" t="n">
-        <v>-75758.60161112002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>321.9543</v>
       </c>
       <c r="G78" t="n">
-        <v>-76080.55591112001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>-76580.55591112001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>-76580.55591112001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,22 +2813,15 @@
         <v>4066.0823</v>
       </c>
       <c r="G81" t="n">
-        <v>-76580.55591112001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>357</v>
-      </c>
-      <c r="J81" t="n">
-        <v>357</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3092,24 +2843,15 @@
         <v>192.1197</v>
       </c>
       <c r="G82" t="n">
-        <v>-76772.67561112001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>357</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3131,26 +2873,19 @@
         <v>3319.0279</v>
       </c>
       <c r="G83" t="n">
-        <v>-76772.67561112001</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I83" t="n">
         <v>356</v>
       </c>
-      <c r="J83" t="n">
-        <v>357</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,26 +2907,23 @@
         <v>1444</v>
       </c>
       <c r="G84" t="n">
-        <v>-75328.67561112001</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I84" t="n">
         <v>356</v>
       </c>
-      <c r="J84" t="n">
-        <v>357</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3213,26 +2945,23 @@
         <v>7656.81</v>
       </c>
       <c r="G85" t="n">
-        <v>-82985.48561112001</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="I85" t="n">
-        <v>357</v>
-      </c>
-      <c r="J85" t="n">
-        <v>357</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3254,26 +2983,23 @@
         <v>1193.114</v>
       </c>
       <c r="G86" t="n">
-        <v>-81792.37161112</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="I86" t="n">
-        <v>355</v>
-      </c>
-      <c r="J86" t="n">
-        <v>357</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3295,24 +3021,23 @@
         <v>18.778</v>
       </c>
       <c r="G87" t="n">
-        <v>-81792.37161112</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
         <v>357</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="I87" t="n">
+        <v>356</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3334,26 +3059,21 @@
         <v>3220</v>
       </c>
       <c r="G88" t="n">
-        <v>-78572.37161112</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>357</v>
-      </c>
-      <c r="J88" t="n">
-        <v>357</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3375,24 +3095,23 @@
         <v>3044.7141</v>
       </c>
       <c r="G89" t="n">
-        <v>-78572.37161112</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>357</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>359</v>
+      </c>
+      <c r="I89" t="n">
+        <v>356</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3414,24 +3133,21 @@
         <v>896.6629</v>
       </c>
       <c r="G90" t="n">
-        <v>-78572.37161112</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>357</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>356</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3453,26 +3169,21 @@
         <v>2128.9233</v>
       </c>
       <c r="G91" t="n">
-        <v>-80701.29491112</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>359</v>
-      </c>
-      <c r="J91" t="n">
-        <v>357</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3494,26 +3205,23 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-80700.29491112</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I92" t="n">
         <v>356</v>
       </c>
-      <c r="J92" t="n">
-        <v>357</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3535,26 +3243,23 @@
         <v>1962.8919</v>
       </c>
       <c r="G93" t="n">
-        <v>-78737.40301112</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="I93" t="n">
-        <v>358</v>
-      </c>
-      <c r="J93" t="n">
-        <v>357</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3576,26 +3281,21 @@
         <v>635.2785</v>
       </c>
       <c r="G94" t="n">
-        <v>-78737.40301112</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>359</v>
-      </c>
-      <c r="J94" t="n">
-        <v>357</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3617,26 +3317,21 @@
         <v>10693.248</v>
       </c>
       <c r="G95" t="n">
-        <v>-68044.15501111999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>359</v>
-      </c>
-      <c r="J95" t="n">
-        <v>357</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3658,24 +3353,21 @@
         <v>5269.4075</v>
       </c>
       <c r="G96" t="n">
-        <v>-62774.74751111999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>357</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>356</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3697,24 +3389,21 @@
         <v>1.1818</v>
       </c>
       <c r="G97" t="n">
-        <v>-62775.92931111999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>357</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>356</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3736,24 +3425,21 @@
         <v>2476.1537</v>
       </c>
       <c r="G98" t="n">
-        <v>-62775.92931111999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>357</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>356</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3775,24 +3461,21 @@
         <v>4048.62222458</v>
       </c>
       <c r="G99" t="n">
-        <v>-58727.30708653999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>357</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>356</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3814,24 +3497,21 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-58726.30708653999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>357</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>356</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3853,24 +3533,21 @@
         <v>1831.98789311</v>
       </c>
       <c r="G101" t="n">
-        <v>-58726.30708653999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>357</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>356</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3892,24 +3569,21 @@
         <v>3445.77961432</v>
       </c>
       <c r="G102" t="n">
-        <v>-58726.30708653999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>357</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>356</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3931,24 +3605,21 @@
         <v>5494.5054945</v>
       </c>
       <c r="G103" t="n">
-        <v>-53231.80159203998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>357</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>356</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3970,24 +3641,21 @@
         <v>927.4065000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-53231.80159203998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>357</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>356</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4009,24 +3677,21 @@
         <v>24.4823</v>
       </c>
       <c r="G105" t="n">
-        <v>-53256.28389203999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>357</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>356</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4048,24 +3713,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-53256.28389203999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>357</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>356</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.01185393258427</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4087,24 +3749,15 @@
         <v>2.7673</v>
       </c>
       <c r="G107" t="n">
-        <v>-53259.05119203999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>357</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4126,24 +3779,15 @@
         <v>165.7978</v>
       </c>
       <c r="G108" t="n">
-        <v>-53093.25339203999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>357</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4165,24 +3809,15 @@
         <v>245.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>-53339.25329203999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>357</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4204,24 +3839,15 @@
         <v>148.2026</v>
       </c>
       <c r="G110" t="n">
-        <v>-53191.05069203999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>357</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4243,24 +3869,15 @@
         <v>1483.181</v>
       </c>
       <c r="G111" t="n">
-        <v>-54674.23169203999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>357</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4282,24 +3899,15 @@
         <v>137.0562</v>
       </c>
       <c r="G112" t="n">
-        <v>-54537.17549203999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>357</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,24 +3929,15 @@
         <v>528</v>
       </c>
       <c r="G113" t="n">
-        <v>-54537.17549203999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>357</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4360,24 +3959,15 @@
         <v>37.162</v>
       </c>
       <c r="G114" t="n">
-        <v>-54574.33749203999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>357</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4399,24 +3989,15 @@
         <v>35.5532</v>
       </c>
       <c r="G115" t="n">
-        <v>-54538.78429203999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>357</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4438,24 +4019,15 @@
         <v>161.55</v>
       </c>
       <c r="G116" t="n">
-        <v>-54700.33429203999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>357</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4477,24 +4049,15 @@
         <v>163.2658</v>
       </c>
       <c r="G117" t="n">
-        <v>-54537.06849203999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>357</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4516,24 +4079,15 @@
         <v>1291.8739</v>
       </c>
       <c r="G118" t="n">
-        <v>-55828.94239203999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>357</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4555,24 +4109,15 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>-55827.94239203999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>357</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4594,24 +4139,15 @@
         <v>280</v>
       </c>
       <c r="G120" t="n">
-        <v>-56107.94239203999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>357</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4633,24 +4169,15 @@
         <v>2997.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>-53109.94249203998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>357</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4672,24 +4199,15 @@
         <v>140.1444</v>
       </c>
       <c r="G122" t="n">
-        <v>-53250.08689203998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>357</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4711,24 +4229,15 @@
         <v>660</v>
       </c>
       <c r="G123" t="n">
-        <v>-52590.08689203998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>357</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4750,24 +4259,15 @@
         <v>234.0368</v>
       </c>
       <c r="G124" t="n">
-        <v>-52824.12369203998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>357</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4789,24 +4289,15 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-52823.12369203998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>357</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4828,24 +4319,15 @@
         <v>172.7799</v>
       </c>
       <c r="G126" t="n">
-        <v>-52995.90359203998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>357</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4867,24 +4349,15 @@
         <v>178</v>
       </c>
       <c r="G127" t="n">
-        <v>-52995.90359203998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>357</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4906,24 +4379,15 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>-52994.90359203998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>357</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4945,24 +4409,15 @@
         <v>3064.7302</v>
       </c>
       <c r="G129" t="n">
-        <v>-56059.63379203998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>357</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4984,24 +4439,15 @@
         <v>225.0717</v>
       </c>
       <c r="G130" t="n">
-        <v>-56059.63379203998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>357</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5023,24 +4469,15 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-56058.63379203998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>357</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5062,24 +4499,15 @@
         <v>3109.7679558</v>
       </c>
       <c r="G132" t="n">
-        <v>-56058.63379203998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>357</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5101,24 +4529,15 @@
         <v>22.6882</v>
       </c>
       <c r="G133" t="n">
-        <v>-56081.32199203998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>357</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5140,24 +4559,15 @@
         <v>1395</v>
       </c>
       <c r="G134" t="n">
-        <v>-57476.32199203998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>357</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5179,24 +4589,15 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>-57475.32199203998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>357</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5218,24 +4619,15 @@
         <v>1899.7177</v>
       </c>
       <c r="G136" t="n">
-        <v>-59375.03969203998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>357</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5257,24 +4649,15 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>-59275.03969203998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>357</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5296,24 +4679,15 @@
         <v>51.07</v>
       </c>
       <c r="G138" t="n">
-        <v>-59275.03969203998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>357</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5335,24 +4709,15 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-59274.03969203998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>357</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5374,24 +4739,15 @@
         <v>387.4581</v>
       </c>
       <c r="G140" t="n">
-        <v>-59661.49779203998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>357</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5413,24 +4769,15 @@
         <v>300</v>
       </c>
       <c r="G141" t="n">
-        <v>-59661.49779203998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>357</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5452,24 +4799,15 @@
         <v>754.6732</v>
       </c>
       <c r="G142" t="n">
-        <v>-59661.49779203998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>357</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5491,24 +4829,15 @@
         <v>221.6</v>
       </c>
       <c r="G143" t="n">
-        <v>-59661.49779203998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>357</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5530,24 +4859,15 @@
         <v>52.8897</v>
       </c>
       <c r="G144" t="n">
-        <v>-59714.38749203998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>357</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5569,24 +4889,15 @@
         <v>23.2664</v>
       </c>
       <c r="G145" t="n">
-        <v>-59691.12109203998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>357</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5608,24 +4919,15 @@
         <v>252.97</v>
       </c>
       <c r="G146" t="n">
-        <v>-59944.09109203998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>357</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5647,24 +4949,15 @@
         <v>635.7919000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-59944.09109203998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>357</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5686,24 +4979,15 @@
         <v>2019.4653</v>
       </c>
       <c r="G148" t="n">
-        <v>-57924.62579203998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>357</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5725,24 +5009,15 @@
         <v>200</v>
       </c>
       <c r="G149" t="n">
-        <v>-57924.62579203998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>357</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5764,24 +5039,15 @@
         <v>354.0166</v>
       </c>
       <c r="G150" t="n">
-        <v>-57924.62579203998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>357</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5803,24 +5069,15 @@
         <v>14</v>
       </c>
       <c r="G151" t="n">
-        <v>-57924.62579203998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>357</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5842,24 +5099,15 @@
         <v>8398.0321</v>
       </c>
       <c r="G152" t="n">
-        <v>-49526.59369203998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>357</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5881,24 +5129,15 @@
         <v>24.2655</v>
       </c>
       <c r="G153" t="n">
-        <v>-49550.85919203998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>357</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5920,24 +5159,15 @@
         <v>917.3861000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-49550.85919203998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>357</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5959,24 +5189,15 @@
         <v>1970.3388</v>
       </c>
       <c r="G155" t="n">
-        <v>-47580.52039203999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>357</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5998,24 +5219,15 @@
         <v>5472.5353</v>
       </c>
       <c r="G156" t="n">
-        <v>-47580.52039203999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>357</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6037,24 +5249,15 @@
         <v>60</v>
       </c>
       <c r="G157" t="n">
-        <v>-47640.52039203999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>357</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6076,24 +5279,15 @@
         <v>8758.248100000001</v>
       </c>
       <c r="G158" t="n">
-        <v>-38882.27229203998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>357</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6115,24 +5309,15 @@
         <v>1784.3618</v>
       </c>
       <c r="G159" t="n">
-        <v>-40666.63409203998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>357</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6154,24 +5339,15 @@
         <v>2565.4407</v>
       </c>
       <c r="G160" t="n">
-        <v>-38101.19339203998</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>357</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6193,24 +5369,15 @@
         <v>270.8815</v>
       </c>
       <c r="G161" t="n">
-        <v>-38101.19339203998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>357</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6232,24 +5399,15 @@
         <v>398.9476</v>
       </c>
       <c r="G162" t="n">
-        <v>-38101.19339203998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>357</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6271,24 +5429,15 @@
         <v>2777.7777</v>
       </c>
       <c r="G163" t="n">
-        <v>-40878.97109203998</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>357</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6310,24 +5459,15 @@
         <v>270.2043</v>
       </c>
       <c r="G164" t="n">
-        <v>-41149.17539203998</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>357</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6349,24 +5489,15 @@
         <v>205.0404</v>
       </c>
       <c r="G165" t="n">
-        <v>-41149.17539203998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>357</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6388,24 +5519,15 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>-41148.17539203998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>357</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6427,24 +5549,15 @@
         <v>5951.5441</v>
       </c>
       <c r="G167" t="n">
-        <v>-41148.17539203998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>357</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6466,24 +5579,15 @@
         <v>4230.7891</v>
       </c>
       <c r="G168" t="n">
-        <v>-45378.96449203998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>357</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6505,24 +5609,15 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>-45377.96449203998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>357</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6544,24 +5639,15 @@
         <v>2.159</v>
       </c>
       <c r="G170" t="n">
-        <v>-45380.12349203998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>357</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6583,24 +5669,15 @@
         <v>4991.7239</v>
       </c>
       <c r="G171" t="n">
-        <v>-45380.12349203998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>357</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6622,24 +5699,15 @@
         <v>79.92870000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>-45460.05219203998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>357</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6661,24 +5729,15 @@
         <v>13724.3553</v>
       </c>
       <c r="G173" t="n">
-        <v>-45460.05219203998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>357</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6700,24 +5759,15 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>-45459.05219203998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>357</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6739,24 +5789,15 @@
         <v>1686.9759</v>
       </c>
       <c r="G175" t="n">
-        <v>-47146.02809203997</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>357</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6778,24 +5819,15 @@
         <v>370.2049</v>
       </c>
       <c r="G176" t="n">
-        <v>-47146.02809203997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>357</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6817,24 +5849,15 @@
         <v>40.7455</v>
       </c>
       <c r="G177" t="n">
-        <v>-47146.02809203997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>357</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6856,24 +5879,15 @@
         <v>123.453</v>
       </c>
       <c r="G178" t="n">
-        <v>-47022.57509203997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>357</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6895,24 +5909,15 @@
         <v>449</v>
       </c>
       <c r="G179" t="n">
-        <v>-47022.57509203997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>357</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6934,24 +5939,15 @@
         <v>3000</v>
       </c>
       <c r="G180" t="n">
-        <v>-50022.57509203997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>357</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6973,24 +5969,15 @@
         <v>130</v>
       </c>
       <c r="G181" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>357</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7012,24 +5999,15 @@
         <v>1056.7848</v>
       </c>
       <c r="G182" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>357</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7051,24 +6029,15 @@
         <v>3513.4322</v>
       </c>
       <c r="G183" t="n">
-        <v>-49892.57509203997</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>357</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7090,24 +6059,15 @@
         <v>2702.2486</v>
       </c>
       <c r="G184" t="n">
-        <v>-47190.32649203997</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>357</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7129,24 +6089,15 @@
         <v>1947.5111</v>
       </c>
       <c r="G185" t="n">
-        <v>-47190.32649203997</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>357</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7168,24 +6119,15 @@
         <v>596.0362</v>
       </c>
       <c r="G186" t="n">
-        <v>-46594.29029203997</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>357</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7207,24 +6149,15 @@
         <v>1110.238</v>
       </c>
       <c r="G187" t="n">
-        <v>-47704.52829203997</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>357</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7246,24 +6179,15 @@
         <v>3.7624</v>
       </c>
       <c r="G188" t="n">
-        <v>-47700.76589203997</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>357</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7285,24 +6209,15 @@
         <v>1399.5899</v>
       </c>
       <c r="G189" t="n">
-        <v>-49100.35579203997</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>357</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7324,24 +6239,15 @@
         <v>0.0001</v>
       </c>
       <c r="G190" t="n">
-        <v>-49100.35579203997</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>357</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7363,24 +6269,15 @@
         <v>37.6888</v>
       </c>
       <c r="G191" t="n">
-        <v>-49062.66699203997</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>357</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7402,24 +6299,15 @@
         <v>4315.9733</v>
       </c>
       <c r="G192" t="n">
-        <v>-53378.64029203996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>357</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7441,24 +6329,15 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>-53368.64029203996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>357</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7480,24 +6359,15 @@
         <v>170</v>
       </c>
       <c r="G194" t="n">
-        <v>-53538.64029203996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>357</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7519,24 +6389,15 @@
         <v>180</v>
       </c>
       <c r="G195" t="n">
-        <v>-53538.64029203996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>357</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7558,24 +6419,15 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>-53537.64029203996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>357</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7597,24 +6449,15 @@
         <v>3</v>
       </c>
       <c r="G197" t="n">
-        <v>-53540.64029203996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>357</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7636,24 +6479,15 @@
         <v>76.1075</v>
       </c>
       <c r="G198" t="n">
-        <v>-53540.64029203996</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>357</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7675,24 +6509,15 @@
         <v>24.1377</v>
       </c>
       <c r="G199" t="n">
-        <v>-53516.50259203996</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>357</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7714,24 +6539,15 @@
         <v>3173.0918</v>
       </c>
       <c r="G200" t="n">
-        <v>-56689.59439203997</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>357</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7753,24 +6569,15 @@
         <v>2911.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>-56689.59439203997</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>357</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7792,24 +6599,15 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>-56688.59439203997</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>357</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7831,24 +6629,15 @@
         <v>425.9592</v>
       </c>
       <c r="G203" t="n">
-        <v>-57114.55359203996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>357</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7870,24 +6659,15 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>-57113.55359203996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>357</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7909,24 +6689,15 @@
         <v>393.6402</v>
       </c>
       <c r="G205" t="n">
-        <v>-57507.19379203997</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>357</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7948,24 +6719,15 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>357</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7987,24 +6749,15 @@
         <v>1.3777</v>
       </c>
       <c r="G207" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>357</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8026,24 +6779,15 @@
         <v>99</v>
       </c>
       <c r="G208" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>357</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8065,24 +6809,15 @@
         <v>200</v>
       </c>
       <c r="G209" t="n">
-        <v>-57506.19379203997</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>357</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8104,24 +6839,15 @@
         <v>746.1553</v>
       </c>
       <c r="G210" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>357</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8143,24 +6869,15 @@
         <v>1081.3876</v>
       </c>
       <c r="G211" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>357</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8182,24 +6899,15 @@
         <v>86</v>
       </c>
       <c r="G212" t="n">
-        <v>-58252.34909203996</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>357</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8221,24 +6929,15 @@
         <v>505.7204</v>
       </c>
       <c r="G213" t="n">
-        <v>-58758.06949203996</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>357</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8260,24 +6959,15 @@
         <v>102.7993</v>
       </c>
       <c r="G214" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>357</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8299,24 +6989,15 @@
         <v>916.0468</v>
       </c>
       <c r="G215" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>357</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8338,24 +7019,15 @@
         <v>711.4961</v>
       </c>
       <c r="G216" t="n">
-        <v>-58655.27019203996</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>357</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8377,24 +7049,15 @@
         <v>5756.716</v>
       </c>
       <c r="G217" t="n">
-        <v>-64411.98619203996</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>357</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8416,24 +7079,15 @@
         <v>600</v>
       </c>
       <c r="G218" t="n">
-        <v>-64411.98619203996</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>357</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8455,24 +7109,15 @@
         <v>6.1</v>
       </c>
       <c r="G219" t="n">
-        <v>-64405.88619203996</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>357</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8494,24 +7139,15 @@
         <v>263.3646</v>
       </c>
       <c r="G220" t="n">
-        <v>-64142.52159203996</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>357</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
